--- a/outdata/use_imp2015.xlsx
+++ b/outdata/use_imp2015.xlsx
@@ -717,7 +717,7 @@
         <v>1.239912271499634</v>
       </c>
       <c r="AC2" s="1">
-        <v>2.569851160049438</v>
+        <v>2.56985068321228</v>
       </c>
       <c r="AD2" s="1">
         <v>0.1882795393466949</v>
@@ -738,13 +738,13 @@
         <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>26.13352966308594</v>
+        <v>26.1335277557373</v>
       </c>
       <c r="AK2" s="1">
-        <v>166.3969457149506</v>
+        <v>166.3969438076019</v>
       </c>
       <c r="AL2" s="1">
-        <v>300.7872350215912</v>
+        <v>300.7872331142426</v>
       </c>
     </row>
     <row r="3" spans="1:38">
@@ -833,7 +833,7 @@
         <v>0.5668061375617981</v>
       </c>
       <c r="AC3" s="1">
-        <v>1.229169249534607</v>
+        <v>1.229169130325317</v>
       </c>
       <c r="AD3" s="1">
         <v>0.788649320602417</v>
@@ -949,7 +949,7 @@
         <v>0.04645727202296257</v>
       </c>
       <c r="AC4" s="1">
-        <v>0.0003943940391764045</v>
+        <v>0.000394394010072574</v>
       </c>
       <c r="AD4" s="1">
         <v>0.01003868784755468</v>
@@ -1065,7 +1065,7 @@
         <v>5.726655006408691</v>
       </c>
       <c r="AC5" s="1">
-        <v>12.06311416625977</v>
+        <v>12.06311321258545</v>
       </c>
       <c r="AD5" s="1">
         <v>16.27653121948242</v>
@@ -1297,7 +1297,7 @@
         <v>0.1693457663059235</v>
       </c>
       <c r="AC7" s="1">
-        <v>0.03789307177066803</v>
+        <v>0.03789306804537773</v>
       </c>
       <c r="AD7" s="1">
         <v>0.9466530084609985</v>
@@ -1368,13 +1368,13 @@
         <v>0.1528394222259521</v>
       </c>
       <c r="N8" s="1">
-        <v>0.0262712761759758</v>
+        <v>0.02627127803862095</v>
       </c>
       <c r="O8" s="1">
         <v>0.1075425744056702</v>
       </c>
       <c r="P8" s="1">
-        <v>0.7324391007423401</v>
+        <v>0.7324391603469849</v>
       </c>
       <c r="Q8" s="1">
         <v>0.7499598264694214</v>
@@ -1398,7 +1398,7 @@
         <v>0.9119091033935547</v>
       </c>
       <c r="X8" s="1">
-        <v>0.119568333029747</v>
+        <v>0.1195683404803276</v>
       </c>
       <c r="Y8" s="1">
         <v>4.471301555633545</v>
@@ -1413,7 +1413,7 @@
         <v>2.197058200836182</v>
       </c>
       <c r="AC8" s="1">
-        <v>3.574938535690308</v>
+        <v>3.574938058853149</v>
       </c>
       <c r="AD8" s="1">
         <v>6.819854259490967</v>
@@ -1434,13 +1434,13 @@
         <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>181.5809783935547</v>
+        <v>181.5809936523438</v>
       </c>
       <c r="AK8" s="1">
-        <v>192.9171733856201</v>
+        <v>192.9171886444092</v>
       </c>
       <c r="AL8" s="1">
-        <v>357.3952617645264</v>
+        <v>357.3952770233154</v>
       </c>
     </row>
     <row r="9" spans="1:38">
@@ -1481,7 +1481,7 @@
         <v>31.60645294189453</v>
       </c>
       <c r="M9" s="1">
-        <v>12.80197525024414</v>
+        <v>12.80197620391846</v>
       </c>
       <c r="N9" s="1">
         <v>3.68180513381958</v>
@@ -1505,7 +1505,7 @@
         <v>0.6278936266899109</v>
       </c>
       <c r="U9" s="1">
-        <v>6.224507808685303</v>
+        <v>6.224508285522461</v>
       </c>
       <c r="V9" s="1">
         <v>11.76684379577637</v>
@@ -1529,7 +1529,7 @@
         <v>8.110244750976562</v>
       </c>
       <c r="AC9" s="1">
-        <v>201.3227081298828</v>
+        <v>201.3226928710938</v>
       </c>
       <c r="AD9" s="1">
         <v>44.15889739990234</v>
@@ -1645,7 +1645,7 @@
         <v>0.04026827961206436</v>
       </c>
       <c r="AC10" s="1">
-        <v>1.209747791290283</v>
+        <v>1.209747552871704</v>
       </c>
       <c r="AD10" s="1">
         <v>1.133208155632019</v>
@@ -1761,7 +1761,7 @@
         <v>2.729936599731445</v>
       </c>
       <c r="AC11" s="1">
-        <v>0.2714898884296417</v>
+        <v>0.2714898586273193</v>
       </c>
       <c r="AD11" s="1">
         <v>3.915236473083496</v>
@@ -1877,7 +1877,7 @@
         <v>8.280182838439941</v>
       </c>
       <c r="AC12" s="1">
-        <v>54.47991943359375</v>
+        <v>54.47991561889648</v>
       </c>
       <c r="AD12" s="1">
         <v>40.6151008605957</v>
@@ -2150,22 +2150,22 @@
         <v>0.01001808978617191</v>
       </c>
       <c r="D15" s="1">
-        <v>0.3112219870090485</v>
+        <v>0.3112219572067261</v>
       </c>
       <c r="E15" s="1">
-        <v>1.523467302322388</v>
+        <v>1.523467183113098</v>
       </c>
       <c r="F15" s="1">
         <v>0.2170238196849823</v>
       </c>
       <c r="G15" s="1">
-        <v>0.06625839322805405</v>
+        <v>0.06625838577747345</v>
       </c>
       <c r="H15" s="1">
-        <v>2.263248443603516</v>
+        <v>2.263248205184937</v>
       </c>
       <c r="I15" s="1">
-        <v>3.640860557556152</v>
+        <v>3.640860319137573</v>
       </c>
       <c r="J15" s="1">
         <v>0.7658870220184326</v>
@@ -2174,25 +2174,25 @@
         <v>1.242991924285889</v>
       </c>
       <c r="L15" s="1">
-        <v>3.706843614578247</v>
+        <v>3.706843376159668</v>
       </c>
       <c r="M15" s="1">
         <v>1.72712779045105</v>
       </c>
       <c r="N15" s="1">
-        <v>0.8717791438102722</v>
+        <v>0.8717790842056274</v>
       </c>
       <c r="O15" s="1">
         <v>18.73398590087891</v>
       </c>
       <c r="P15" s="1">
-        <v>12.63061428070068</v>
+        <v>12.63061332702637</v>
       </c>
       <c r="Q15" s="1">
         <v>25.04876136779785</v>
       </c>
       <c r="R15" s="1">
-        <v>4.153857231140137</v>
+        <v>4.153856754302979</v>
       </c>
       <c r="S15" s="1">
         <v>9.212867736816406</v>
@@ -2201,7 +2201,7 @@
         <v>3.381083488464355</v>
       </c>
       <c r="U15" s="1">
-        <v>7.176721572875977</v>
+        <v>7.176721096038818</v>
       </c>
       <c r="V15" s="1">
         <v>15.45254707336426</v>
@@ -2210,13 +2210,13 @@
         <v>0.1784417331218719</v>
       </c>
       <c r="X15" s="1">
-        <v>0.03341905027627945</v>
+        <v>0.03341904655098915</v>
       </c>
       <c r="Y15" s="1">
         <v>20.68673133850098</v>
       </c>
       <c r="Z15" s="1">
-        <v>10.11149406433105</v>
+        <v>10.11149311065674</v>
       </c>
       <c r="AA15" s="1">
         <v>9.20337963104248</v>
@@ -2225,7 +2225,7 @@
         <v>4.377963542938232</v>
       </c>
       <c r="AC15" s="1">
-        <v>52.85373687744141</v>
+        <v>52.85372924804688</v>
       </c>
       <c r="AD15" s="1">
         <v>11.60100936889648</v>
@@ -2240,19 +2240,19 @@
         <v>316.2500610351562</v>
       </c>
       <c r="AH15" s="1">
-        <v>52.26205825805664</v>
+        <v>52.26205444335938</v>
       </c>
       <c r="AI15" s="1">
         <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>84.71820068359375</v>
+        <v>84.71819305419922</v>
       </c>
       <c r="AK15" s="1">
-        <v>453.2303199768066</v>
+        <v>453.2303085327148</v>
       </c>
       <c r="AL15" s="1">
-        <v>674.5470924377441</v>
+        <v>674.5470809936523</v>
       </c>
     </row>
     <row r="16" spans="1:38">
@@ -2341,7 +2341,7 @@
         <v>5.610673904418945</v>
       </c>
       <c r="AC16" s="1">
-        <v>9.925341606140137</v>
+        <v>9.92534065246582</v>
       </c>
       <c r="AD16" s="1">
         <v>18.02200698852539</v>
@@ -2457,7 +2457,7 @@
         <v>0.003722756169736385</v>
       </c>
       <c r="AC17" s="1">
-        <v>0.00267768744379282</v>
+        <v>0.002677687210962176</v>
       </c>
       <c r="AD17" s="1">
         <v>0.00404412392526865</v>
@@ -2573,7 +2573,7 @@
         <v>1.419116973876953</v>
       </c>
       <c r="AC18" s="1">
-        <v>1.813614130020142</v>
+        <v>1.813613891601562</v>
       </c>
       <c r="AD18" s="1">
         <v>32.80781936645508</v>
@@ -2689,7 +2689,7 @@
         <v>20.0218677520752</v>
       </c>
       <c r="AC19" s="1">
-        <v>33.96376800537109</v>
+        <v>33.96376419067383</v>
       </c>
       <c r="AD19" s="1">
         <v>38.51725769042969</v>
@@ -2805,7 +2805,7 @@
         <v>3.515978813171387</v>
       </c>
       <c r="AC20" s="1">
-        <v>7.221284866333008</v>
+        <v>7.22128438949585</v>
       </c>
       <c r="AD20" s="1">
         <v>3.30609917640686</v>
@@ -2921,7 +2921,7 @@
         <v>15.56289672851562</v>
       </c>
       <c r="AC21" s="1">
-        <v>14.0501880645752</v>
+        <v>14.05018615722656</v>
       </c>
       <c r="AD21" s="1">
         <v>42.14075469970703</v>
@@ -3037,7 +3037,7 @@
         <v>5.748687744140625</v>
       </c>
       <c r="AC22" s="1">
-        <v>10.09807872772217</v>
+        <v>10.09807777404785</v>
       </c>
       <c r="AD22" s="1">
         <v>8.174473762512207</v>
@@ -3153,7 +3153,7 @@
         <v>0.002240427071228623</v>
       </c>
       <c r="AC23" s="1">
-        <v>0.00398899195715785</v>
+        <v>0.003988991491496563</v>
       </c>
       <c r="AD23" s="1">
         <v>0.003834736766293645</v>
@@ -3385,7 +3385,7 @@
         <v>5.964158535003662</v>
       </c>
       <c r="AC25" s="1">
-        <v>20.33806800842285</v>
+        <v>20.33806610107422</v>
       </c>
       <c r="AD25" s="1">
         <v>32.37610244750977</v>
@@ -3501,7 +3501,7 @@
         <v>5.429824829101562</v>
       </c>
       <c r="AC26" s="1">
-        <v>11.21515560150146</v>
+        <v>11.21515464782715</v>
       </c>
       <c r="AD26" s="1">
         <v>15.67447662353516</v>
@@ -3617,7 +3617,7 @@
         <v>0.1266810446977615</v>
       </c>
       <c r="AC27" s="1">
-        <v>0.6999462246894836</v>
+        <v>0.6999461054801941</v>
       </c>
       <c r="AD27" s="1">
         <v>0.518204391002655</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="AF27" s="1">
-        <v>7.637599468231201</v>
+        <v>7.637598991394043</v>
       </c>
       <c r="AG27" s="1">
         <v>0.6692584753036499</v>
@@ -3644,7 +3644,7 @@
         <v>27.38274030387402</v>
       </c>
       <c r="AL27" s="1">
-        <v>35.02033977210522</v>
+        <v>35.02033929526806</v>
       </c>
     </row>
     <row r="28" spans="1:38">
@@ -3733,7 +3733,7 @@
         <v>0.2312918603420258</v>
       </c>
       <c r="AC28" s="1">
-        <v>0.0731838271021843</v>
+        <v>0.0731838196516037</v>
       </c>
       <c r="AD28" s="1">
         <v>0.1149240285158157</v>
@@ -3849,7 +3849,7 @@
         <v>0.01131310220807791</v>
       </c>
       <c r="AC29" s="1">
-        <v>0.1827160716056824</v>
+        <v>0.1827160567045212</v>
       </c>
       <c r="AD29" s="1">
         <v>0.001746269292198122</v>
@@ -3858,7 +3858,7 @@
         <v>0</v>
       </c>
       <c r="AF29" s="1">
-        <v>0.2398257851600647</v>
+        <v>0.2398257702589035</v>
       </c>
       <c r="AG29" s="1">
         <v>0.5772597789764404</v>
@@ -3876,7 +3876,7 @@
         <v>2.370814002817497</v>
       </c>
       <c r="AL29" s="1">
-        <v>2.610639787977561</v>
+        <v>2.6106397730764</v>
       </c>
     </row>
     <row r="30" spans="1:38">
@@ -4122,22 +4122,22 @@
         <v>7.791942618679514</v>
       </c>
       <c r="D32" s="1">
-        <v>28.73867667704144</v>
+        <v>28.73867664723912</v>
       </c>
       <c r="E32" s="1">
-        <v>336.72521509332</v>
+        <v>336.7252149741107</v>
       </c>
       <c r="F32" s="1">
         <v>24.84652257647758</v>
       </c>
       <c r="G32" s="1">
-        <v>13.62796720492315</v>
+        <v>13.62796719747257</v>
       </c>
       <c r="H32" s="1">
-        <v>229.4889260981872</v>
+        <v>229.4889258597686</v>
       </c>
       <c r="I32" s="1">
-        <v>2507.442625132011</v>
+        <v>2507.442624893592</v>
       </c>
       <c r="J32" s="1">
         <v>101.4950625543715</v>
@@ -4146,25 +4146,25 @@
         <v>371.39760648011</v>
       </c>
       <c r="L32" s="1">
-        <v>1286.614095799974</v>
+        <v>1286.614095561556</v>
       </c>
       <c r="M32" s="1">
-        <v>627.4915341924607</v>
+        <v>627.491535146135</v>
       </c>
       <c r="N32" s="1">
-        <v>79.22243122192958</v>
+        <v>79.22243116418758</v>
       </c>
       <c r="O32" s="1">
         <v>140.58821102613</v>
       </c>
       <c r="P32" s="1">
-        <v>523.4394755753674</v>
+        <v>523.4394746812977</v>
       </c>
       <c r="Q32" s="1">
         <v>1043.035495958997</v>
       </c>
       <c r="R32" s="1">
-        <v>1233.925698755309</v>
+        <v>1233.925698278472</v>
       </c>
       <c r="S32" s="1">
         <v>807.7941271030577</v>
@@ -4182,13 +4182,13 @@
         <v>168.9631372699514</v>
       </c>
       <c r="X32" s="1">
-        <v>95.77680942990992</v>
+        <v>95.77680943363521</v>
       </c>
       <c r="Y32" s="1">
         <v>721.6251243529841</v>
       </c>
       <c r="Z32" s="1">
-        <v>325.9362724380335</v>
+        <v>325.9362714843592</v>
       </c>
       <c r="AA32" s="1">
         <v>402.9187192972749</v>
@@ -4197,7 +4197,7 @@
         <v>100.8247359714005</v>
       </c>
       <c r="AC32" s="1">
-        <v>450.6735490428982</v>
+        <v>450.6735086935514</v>
       </c>
       <c r="AD32" s="1">
         <v>326.0890861671651</v>
@@ -4206,25 +4206,25 @@
         <v>0.6711119385190614</v>
       </c>
       <c r="AF32" s="1">
-        <v>13921.10561015457</v>
+        <v>13921.10560966283</v>
       </c>
       <c r="AG32" s="1">
         <v>4903.355462144245</v>
       </c>
       <c r="AH32" s="1">
-        <v>2166.538400175981</v>
+        <v>2166.538396361284</v>
       </c>
       <c r="AI32" s="1">
         <v>367.037859076634</v>
       </c>
       <c r="AJ32" s="1">
-        <v>5044.745759019279</v>
+        <v>5044.745764741325</v>
       </c>
       <c r="AK32" s="1">
-        <v>12481.67748041614</v>
+        <v>12481.67748232349</v>
       </c>
       <c r="AL32" s="1">
-        <v>26402.78309057071</v>
+        <v>26402.78309198632</v>
       </c>
     </row>
   </sheetData>
@@ -4442,7 +4442,7 @@
         <v>0.1611013412475586</v>
       </c>
       <c r="AC2" s="1">
-        <v>0.3746649026870728</v>
+        <v>0.3746648728847504</v>
       </c>
       <c r="AD2" s="1">
         <v>0.01241676509380341</v>
@@ -4558,7 +4558,7 @@
         <v>0.07402679324150085</v>
       </c>
       <c r="AC3" s="1">
-        <v>0.1801410466432571</v>
+        <v>0.1801410317420959</v>
       </c>
       <c r="AD3" s="1">
         <v>0.05227861180901527</v>
@@ -4674,7 +4674,7 @@
         <v>0.006100873462855816</v>
       </c>
       <c r="AC4" s="1">
-        <v>5.811773735331371e-05</v>
+        <v>5.81177300773561e-05</v>
       </c>
       <c r="AD4" s="1">
         <v>0.0006691466551274061</v>
@@ -5022,7 +5022,7 @@
         <v>0.02152528241276741</v>
       </c>
       <c r="AC7" s="1">
-        <v>0.005404647905379534</v>
+        <v>0.005404647439718246</v>
       </c>
       <c r="AD7" s="1">
         <v>0.0610906183719635</v>
@@ -5138,7 +5138,7 @@
         <v>0.2891131043434143</v>
       </c>
       <c r="AC8" s="1">
-        <v>0.5280835032463074</v>
+        <v>0.5280834436416626</v>
       </c>
       <c r="AD8" s="1">
         <v>0.4554899036884308</v>
@@ -5179,16 +5179,16 @@
         <v>4.563001155853271</v>
       </c>
       <c r="D9" s="1">
-        <v>3.339454650878906</v>
+        <v>3.339454889297485</v>
       </c>
       <c r="E9" s="1">
-        <v>7.020336151123047</v>
+        <v>7.020336627960205</v>
       </c>
       <c r="F9" s="1">
-        <v>2.833775520324707</v>
+        <v>2.833775758743286</v>
       </c>
       <c r="G9" s="1">
-        <v>5.648210048675537</v>
+        <v>5.648210525512695</v>
       </c>
       <c r="H9" s="1">
         <v>11.19583034515381</v>
@@ -5206,7 +5206,7 @@
         <v>0.408464103937149</v>
       </c>
       <c r="M9" s="1">
-        <v>2.238080978393555</v>
+        <v>2.238081216812134</v>
       </c>
       <c r="N9" s="1">
         <v>0.5707151889801025</v>
@@ -5233,16 +5233,16 @@
         <v>0.1360637098550797</v>
       </c>
       <c r="V9" s="1">
-        <v>0.535280704498291</v>
+        <v>0.5352807641029358</v>
       </c>
       <c r="W9" s="1">
-        <v>1.534044146537781</v>
+        <v>1.53404426574707</v>
       </c>
       <c r="X9" s="1">
         <v>1.536612272262573</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.6824447512626648</v>
+        <v>0.6824448108673096</v>
       </c>
       <c r="Z9" s="1">
         <v>3.502298355102539</v>
@@ -5254,19 +5254,19 @@
         <v>1.033002734184265</v>
       </c>
       <c r="AC9" s="1">
-        <v>28.69638442993164</v>
+        <v>28.69638061523438</v>
       </c>
       <c r="AD9" s="1">
         <v>2.862915754318237</v>
       </c>
       <c r="AE9" s="1">
-        <v>0.0561375766992569</v>
+        <v>0.0561375804245472</v>
       </c>
       <c r="AF9" s="1">
         <v>191.0140991210938</v>
       </c>
       <c r="AG9" s="1">
-        <v>94.42996215820312</v>
+        <v>94.42996978759766</v>
       </c>
       <c r="AH9" s="1">
         <v>0</v>
@@ -5278,10 +5278,10 @@
         <v>66.87676239013672</v>
       </c>
       <c r="AK9" s="1">
-        <v>195.0807037353516</v>
+        <v>195.0807113647461</v>
       </c>
       <c r="AL9" s="1">
-        <v>386.0948028564453</v>
+        <v>386.0948104858398</v>
       </c>
     </row>
     <row r="10" spans="1:38">
@@ -5370,7 +5370,7 @@
         <v>0.005219082348048687</v>
       </c>
       <c r="AC10" s="1">
-        <v>0.1759623289108276</v>
+        <v>0.1759623140096664</v>
       </c>
       <c r="AD10" s="1">
         <v>0.07460577040910721</v>
@@ -5486,7 +5486,7 @@
         <v>0.3542060554027557</v>
       </c>
       <c r="AC11" s="1">
-        <v>0.03952790051698685</v>
+        <v>0.03952789679169655</v>
       </c>
       <c r="AD11" s="1">
         <v>0.2578751444816589</v>
@@ -5602,7 +5602,7 @@
         <v>1.076838970184326</v>
       </c>
       <c r="AC12" s="1">
-        <v>7.948930740356445</v>
+        <v>7.948928833007812</v>
       </c>
       <c r="AD12" s="1">
         <v>2.681620359420776</v>
@@ -5869,10 +5869,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>0.1821812093257904</v>
+        <v>0.1821811944246292</v>
       </c>
       <c r="C15" s="1">
-        <v>0.01773078553378582</v>
+        <v>0.01773078367114067</v>
       </c>
       <c r="D15" s="1">
         <v>0.2755383253097534</v>
@@ -5890,19 +5890,19 @@
         <v>0.3146226704120636</v>
       </c>
       <c r="I15" s="1">
-        <v>0.1836448460817337</v>
+        <v>0.1836448311805725</v>
       </c>
       <c r="J15" s="1">
         <v>0.08675064146518707</v>
       </c>
       <c r="K15" s="1">
-        <v>0.19333416223526</v>
+        <v>0.1933341473340988</v>
       </c>
       <c r="L15" s="1">
-        <v>0.04832356423139572</v>
+        <v>0.04832356050610542</v>
       </c>
       <c r="M15" s="1">
-        <v>0.3055126965045929</v>
+        <v>0.3055126667022705</v>
       </c>
       <c r="N15" s="1">
         <v>0.1357553452253342</v>
@@ -5929,7 +5929,7 @@
         <v>0.1579615622758865</v>
       </c>
       <c r="V15" s="1">
-        <v>0.7050813436508179</v>
+        <v>0.7050812840461731</v>
       </c>
       <c r="W15" s="1">
         <v>0.01616759784519672</v>
@@ -5950,22 +5950,22 @@
         <v>0.560838520526886</v>
       </c>
       <c r="AC15" s="1">
-        <v>7.58698558807373</v>
+        <v>7.586984634399414</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.7543224692344666</v>
+        <v>0.7543224096298218</v>
       </c>
       <c r="AE15" s="1">
         <v>0</v>
       </c>
       <c r="AF15" s="1">
-        <v>23.04852294921875</v>
+        <v>23.04851913452148</v>
       </c>
       <c r="AG15" s="1">
         <v>38.5157470703125</v>
       </c>
       <c r="AH15" s="1">
-        <v>4.934607982635498</v>
+        <v>4.93460750579834</v>
       </c>
       <c r="AI15" s="1">
         <v>0</v>
@@ -5974,10 +5974,10 @@
         <v>5.603873252868652</v>
       </c>
       <c r="AK15" s="1">
-        <v>49.05422830581665</v>
+        <v>49.05422782897949</v>
       </c>
       <c r="AL15" s="1">
-        <v>72.1027512550354</v>
+        <v>72.10274696350098</v>
       </c>
     </row>
     <row r="16" spans="1:38">
@@ -6012,7 +6012,7 @@
         <v>0.212818443775177</v>
       </c>
       <c r="K16" s="1">
-        <v>7.191715717315674</v>
+        <v>7.191715240478516</v>
       </c>
       <c r="L16" s="1">
         <v>0.05585896968841553</v>
@@ -6042,7 +6042,7 @@
         <v>0.7429308891296387</v>
       </c>
       <c r="U16" s="1">
-        <v>0.1990279853343964</v>
+        <v>0.1990279704332352</v>
       </c>
       <c r="V16" s="1">
         <v>0.3188230991363525</v>
@@ -6066,7 +6066,7 @@
         <v>0.736155092716217</v>
       </c>
       <c r="AC16" s="1">
-        <v>1.460686087608337</v>
+        <v>1.460685849189758</v>
       </c>
       <c r="AD16" s="1">
         <v>1.200202107429504</v>
@@ -6182,7 +6182,7 @@
         <v>0.0004892867291346192</v>
       </c>
       <c r="AC17" s="1">
-        <v>0.0003949161909986287</v>
+        <v>0.0003949161618947983</v>
       </c>
       <c r="AD17" s="1">
         <v>0.000269737298367545</v>
@@ -6298,7 +6298,7 @@
         <v>0.1865164041519165</v>
       </c>
       <c r="AC18" s="1">
-        <v>0.2674791514873505</v>
+        <v>0.2674791216850281</v>
       </c>
       <c r="AD18" s="1">
         <v>2.188234567642212</v>
@@ -6414,7 +6414,7 @@
         <v>2.631500482559204</v>
       </c>
       <c r="AC19" s="1">
-        <v>5.009113788604736</v>
+        <v>5.009113311767578</v>
       </c>
       <c r="AD19" s="1">
         <v>2.569045782089233</v>
@@ -6530,7 +6530,7 @@
         <v>0.4621096849441528</v>
       </c>
       <c r="AC20" s="1">
-        <v>1.065024375915527</v>
+        <v>1.065024256706238</v>
       </c>
       <c r="AD20" s="1">
         <v>0.2205120921134949</v>
@@ -6539,7 +6539,7 @@
         <v>0</v>
       </c>
       <c r="AF20" s="1">
-        <v>3.273101329803467</v>
+        <v>3.273101091384888</v>
       </c>
       <c r="AG20" s="1">
         <v>9.482307434082031</v>
@@ -6557,7 +6557,7 @@
         <v>9.580238100141287</v>
       </c>
       <c r="AL20" s="1">
-        <v>12.85333942994475</v>
+        <v>12.85333919152617</v>
       </c>
     </row>
     <row r="21" spans="1:38">
@@ -6646,7 +6646,7 @@
         <v>2.034858703613281</v>
       </c>
       <c r="AC21" s="1">
-        <v>2.062054634094238</v>
+        <v>2.062054395675659</v>
       </c>
       <c r="AD21" s="1">
         <v>2.793514013290405</v>
@@ -6762,7 +6762,7 @@
         <v>0.7555575966835022</v>
       </c>
       <c r="AC22" s="1">
-        <v>1.48930549621582</v>
+        <v>1.489305377006531</v>
       </c>
       <c r="AD22" s="1">
         <v>0.5452257394790649</v>
@@ -6878,7 +6878,7 @@
         <v>0.0002944622538052499</v>
       </c>
       <c r="AC23" s="1">
-        <v>0.0005883126868866384</v>
+        <v>0.0005883126286789775</v>
       </c>
       <c r="AD23" s="1">
         <v>0.0002557714469730854</v>
@@ -7110,7 +7110,7 @@
         <v>0.7838771939277649</v>
       </c>
       <c r="AC25" s="1">
-        <v>2.999540567398071</v>
+        <v>2.999540328979492</v>
       </c>
       <c r="AD25" s="1">
         <v>2.1594398021698</v>
@@ -7226,7 +7226,7 @@
         <v>0.7136489748954773</v>
       </c>
       <c r="AC26" s="1">
-        <v>1.654056549072266</v>
+        <v>1.654056429862976</v>
       </c>
       <c r="AD26" s="1">
         <v>1.045465230941772</v>
@@ -7342,7 +7342,7 @@
         <v>0.01664985530078411</v>
       </c>
       <c r="AC27" s="1">
-        <v>0.1032309010624886</v>
+        <v>0.103230893611908</v>
       </c>
       <c r="AD27" s="1">
         <v>0.03456349298357964</v>
@@ -7458,7 +7458,7 @@
         <v>0.03039899095892906</v>
       </c>
       <c r="AC28" s="1">
-        <v>0.01079344749450684</v>
+        <v>0.01079344656318426</v>
       </c>
       <c r="AD28" s="1">
         <v>0.007665268145501614</v>
@@ -7574,7 +7574,7 @@
         <v>0.001486895838752389</v>
       </c>
       <c r="AC29" s="1">
-        <v>0.02694770693778992</v>
+        <v>0.02694770507514477</v>
       </c>
       <c r="AD29" s="1">
         <v>0.0001164736604550853</v>
@@ -7583,7 +7583,7 @@
         <v>0</v>
       </c>
       <c r="AF29" s="1">
-        <v>0.0311798807233572</v>
+        <v>0.0311798769980669</v>
       </c>
       <c r="AG29" s="1">
         <v>0.07230480760335922</v>
@@ -7601,7 +7601,7 @@
         <v>0.3484375036132406</v>
       </c>
       <c r="AL29" s="1">
-        <v>0.3796173843365978</v>
+        <v>0.3796173806113075</v>
       </c>
     </row>
     <row r="30" spans="1:38">
@@ -7690,7 +7690,7 @@
         <v>0.2182615697383881</v>
       </c>
       <c r="AC30" s="1">
-        <v>0.03974311053752899</v>
+        <v>0.03974310681223869</v>
       </c>
       <c r="AD30" s="1">
         <v>0.04617499187588692</v>
@@ -7699,7 +7699,7 @@
         <v>0</v>
       </c>
       <c r="AF30" s="1">
-        <v>0.427850067615509</v>
+        <v>0.4278500378131866</v>
       </c>
       <c r="AG30" s="1">
         <v>5.984510898590088</v>
@@ -7717,7 +7717,7 @@
         <v>7.899775056168437</v>
       </c>
       <c r="AL30" s="1">
-        <v>8.327625123783946</v>
+        <v>8.327625093981624</v>
       </c>
     </row>
     <row r="31" spans="1:38">
@@ -7841,40 +7841,40 @@
         <v>37</v>
       </c>
       <c r="B32" s="1">
-        <v>36.97419933195306</v>
+        <v>36.9741993170519</v>
       </c>
       <c r="C32" s="1">
-        <v>13.87228004574081</v>
+        <v>13.87228004387816</v>
       </c>
       <c r="D32" s="1">
-        <v>25.75966060190785</v>
+        <v>25.75966084032643</v>
       </c>
       <c r="E32" s="1">
-        <v>64.69375528590172</v>
+        <v>64.69375576273887</v>
       </c>
       <c r="F32" s="1">
-        <v>12.10320628186128</v>
+        <v>12.10320652027985</v>
       </c>
       <c r="G32" s="1">
-        <v>35.76682550969781</v>
+        <v>35.76682598653497</v>
       </c>
       <c r="H32" s="1">
         <v>32.0981371974558</v>
       </c>
       <c r="I32" s="1">
-        <v>127.322815226933</v>
+        <v>127.3228152120319</v>
       </c>
       <c r="J32" s="1">
         <v>11.59061196456878</v>
       </c>
       <c r="K32" s="1">
-        <v>58.32580671104006</v>
+        <v>58.32580621930174</v>
       </c>
       <c r="L32" s="1">
-        <v>16.97982049954408</v>
+        <v>16.97982049581879</v>
       </c>
       <c r="M32" s="1">
-        <v>111.3355682359581</v>
+        <v>111.3355684445744</v>
       </c>
       <c r="N32" s="1">
         <v>12.45621416470021</v>
@@ -7898,19 +7898,19 @@
         <v>18.71684283691866</v>
       </c>
       <c r="U32" s="1">
-        <v>29.33951502367563</v>
+        <v>29.33951500877447</v>
       </c>
       <c r="V32" s="1">
         <v>18.93316914695606</v>
       </c>
       <c r="W32" s="1">
-        <v>15.65118343649374</v>
+        <v>15.65118355570303</v>
       </c>
       <c r="X32" s="1">
         <v>11.91185075353678</v>
       </c>
       <c r="Y32" s="1">
-        <v>42.17632945890227</v>
+        <v>42.17632951850692</v>
       </c>
       <c r="Z32" s="1">
         <v>23.25320530568206</v>
@@ -7922,22 +7922,22 @@
         <v>13.16441913164454</v>
       </c>
       <c r="AC32" s="1">
-        <v>65.11809093310876</v>
+        <v>65.11808254040079</v>
       </c>
       <c r="AD32" s="1">
-        <v>21.58127089693153</v>
+        <v>21.58127083732688</v>
       </c>
       <c r="AE32" s="1">
-        <v>0.3186944629286472</v>
+        <v>0.3186944666539375</v>
       </c>
       <c r="AF32" s="1">
-        <v>1168.5299429968</v>
+        <v>1168.529938910156</v>
       </c>
       <c r="AG32" s="1">
-        <v>605.0649623677455</v>
+        <v>605.06496999714</v>
       </c>
       <c r="AH32" s="1">
-        <v>217.8481890106341</v>
+        <v>217.8481885337969</v>
       </c>
       <c r="AI32" s="1">
         <v>55.35000123409554</v>
@@ -7946,10 +7946,10 @@
         <v>336.0793184208524</v>
       </c>
       <c r="AK32" s="1">
-        <v>1214.342471033327</v>
+        <v>1214.342478185885</v>
       </c>
       <c r="AL32" s="1">
-        <v>2382.872414030127</v>
+        <v>2382.872417096041</v>
       </c>
     </row>
   </sheetData>
@@ -8188,13 +8188,13 @@
         <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>1.17048716545105</v>
+        <v>1.17048704624176</v>
       </c>
       <c r="AK2" s="1">
-        <v>12.26259422302246</v>
+        <v>12.26259410381317</v>
       </c>
       <c r="AL2" s="1">
-        <v>30.36929512023926</v>
+        <v>30.36929500102997</v>
       </c>
     </row>
     <row r="3" spans="1:38">
@@ -8399,7 +8399,7 @@
         <v>0.004001944791525602</v>
       </c>
       <c r="AC4" s="1">
-        <v>3.795039810938761e-05</v>
+        <v>3.79503944714088e-05</v>
       </c>
       <c r="AD4" s="1">
         <v>0.0004492774605751038</v>
@@ -8652,13 +8652,13 @@
         <v>0.07320584356784821</v>
       </c>
       <c r="AJ6" s="1">
-        <v>1.91096305847168</v>
+        <v>1.91096293926239</v>
       </c>
       <c r="AK6" s="1">
-        <v>53.54710377752781</v>
+        <v>53.54710365831852</v>
       </c>
       <c r="AL6" s="1">
-        <v>61.92575825750828</v>
+        <v>61.92575813829899</v>
       </c>
     </row>
     <row r="7" spans="1:38">
@@ -8747,7 +8747,7 @@
         <v>0.01412686333060265</v>
       </c>
       <c r="AC7" s="1">
-        <v>0.003530940739437938</v>
+        <v>0.003530940506607294</v>
       </c>
       <c r="AD7" s="1">
         <v>0.04104150086641312</v>
@@ -8797,7 +8797,7 @@
         <v>0.006918777711689472</v>
       </c>
       <c r="G8" s="1">
-        <v>0.08662094920873642</v>
+        <v>0.08662094175815582</v>
       </c>
       <c r="H8" s="1">
         <v>5.973681449890137</v>
@@ -8818,19 +8818,19 @@
         <v>0.01920418441295624</v>
       </c>
       <c r="N8" s="1">
-        <v>0.0007934413151815534</v>
+        <v>0.0007934412569738925</v>
       </c>
       <c r="O8" s="1">
         <v>0.01028995309025049</v>
       </c>
       <c r="P8" s="1">
-        <v>0.04925864189863205</v>
+        <v>0.04925863817334175</v>
       </c>
       <c r="Q8" s="1">
         <v>0.05256707966327667</v>
       </c>
       <c r="R8" s="1">
-        <v>0.8103809356689453</v>
+        <v>0.8103808760643005</v>
       </c>
       <c r="S8" s="1">
         <v>0.0501660630106926</v>
@@ -8860,7 +8860,7 @@
         <v>0.2217225134372711</v>
       </c>
       <c r="AB8" s="1">
-        <v>0.188844159245491</v>
+        <v>0.1888441443443298</v>
       </c>
       <c r="AC8" s="1">
         <v>0.3433932065963745</v>
@@ -9211,7 +9211,7 @@
         <v>0.2325804084539413</v>
       </c>
       <c r="AC11" s="1">
-        <v>0.02583753690123558</v>
+        <v>0.02583753503859043</v>
       </c>
       <c r="AD11" s="1">
         <v>0.1733223348855972</v>
@@ -9327,7 +9327,7 @@
         <v>0.7092007398605347</v>
       </c>
       <c r="AC12" s="1">
-        <v>5.211171627044678</v>
+        <v>5.21117115020752</v>
       </c>
       <c r="AD12" s="1">
         <v>1.807821035385132</v>
@@ -9348,13 +9348,13 @@
         <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>34.72424697875977</v>
+        <v>34.7242431640625</v>
       </c>
       <c r="AK12" s="1">
-        <v>101.220911026001</v>
+        <v>101.2209072113037</v>
       </c>
       <c r="AL12" s="1">
-        <v>151.6846714019775</v>
+        <v>151.6846675872803</v>
       </c>
     </row>
     <row r="13" spans="1:38">
@@ -9597,7 +9597,7 @@
         <v>0.09182768315076828</v>
       </c>
       <c r="C15" s="1">
-        <v>0.01429819967597723</v>
+        <v>0.01429819874465466</v>
       </c>
       <c r="D15" s="1">
         <v>0.2204335927963257</v>
@@ -9615,19 +9615,19 @@
         <v>0.4255429804325104</v>
       </c>
       <c r="I15" s="1">
-        <v>0.0960833728313446</v>
+        <v>0.09608336538076401</v>
       </c>
       <c r="J15" s="1">
         <v>0.0711178258061409</v>
       </c>
       <c r="K15" s="1">
-        <v>0.1719453781843185</v>
+        <v>0.1719453632831573</v>
       </c>
       <c r="L15" s="1">
         <v>0.04744866490364075</v>
       </c>
       <c r="M15" s="1">
-        <v>0.2142053991556168</v>
+        <v>0.2142053842544556</v>
       </c>
       <c r="N15" s="1">
         <v>0.02579960785806179</v>
@@ -9645,13 +9645,13 @@
         <v>0.1169660985469818</v>
       </c>
       <c r="S15" s="1">
-        <v>0.2656404972076416</v>
+        <v>0.2656404674053192</v>
       </c>
       <c r="T15" s="1">
         <v>0.1562508940696716</v>
       </c>
       <c r="U15" s="1">
-        <v>0.1108815521001816</v>
+        <v>0.1108815595507622</v>
       </c>
       <c r="V15" s="1">
         <v>0.3074913918972015</v>
@@ -9666,13 +9666,13 @@
         <v>0.400295078754425</v>
       </c>
       <c r="Z15" s="1">
-        <v>0.2102736532688141</v>
+        <v>0.2102736681699753</v>
       </c>
       <c r="AA15" s="1">
         <v>0.5299408435821533</v>
       </c>
       <c r="AB15" s="1">
-        <v>0.3680607080459595</v>
+        <v>0.3680606782436371</v>
       </c>
       <c r="AC15" s="1">
         <v>4.954610824584961</v>
@@ -9696,13 +9696,13 @@
         <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>3.784859657287598</v>
+        <v>3.784860372543335</v>
       </c>
       <c r="AK15" s="1">
-        <v>31.30344605445862</v>
+        <v>31.30344676971436</v>
       </c>
       <c r="AL15" s="1">
-        <v>45.25912976264954</v>
+        <v>45.25913047790527</v>
       </c>
     </row>
     <row r="16" spans="1:38">
@@ -9791,7 +9791,7 @@
         <v>0.4824627339839935</v>
       </c>
       <c r="AC16" s="1">
-        <v>0.9528861045837402</v>
+        <v>0.9528860449790955</v>
       </c>
       <c r="AD16" s="1">
         <v>0.8051167130470276</v>
@@ -10023,7 +10023,7 @@
         <v>0.1223070174455643</v>
       </c>
       <c r="AC18" s="1">
-        <v>0.1746040731668472</v>
+        <v>0.174604058265686</v>
       </c>
       <c r="AD18" s="1">
         <v>1.468660116195679</v>
@@ -10139,7 +10139,7 @@
         <v>1.725590705871582</v>
       </c>
       <c r="AC19" s="1">
-        <v>3.26983118057251</v>
+        <v>3.269830942153931</v>
       </c>
       <c r="AD19" s="1">
         <v>1.724246263504028</v>
@@ -10255,7 +10255,7 @@
         <v>0.3030256628990173</v>
       </c>
       <c r="AC20" s="1">
-        <v>0.6952227354049683</v>
+        <v>0.6952226758003235</v>
       </c>
       <c r="AD20" s="1">
         <v>0.1479993611574173</v>
@@ -10264,7 +10264,7 @@
         <v>0</v>
       </c>
       <c r="AF20" s="1">
-        <v>1.963260412216187</v>
+        <v>1.963260293006897</v>
       </c>
       <c r="AG20" s="1">
         <v>6.089682102203369</v>
@@ -10282,7 +10282,7 @@
         <v>6.155337018892169</v>
       </c>
       <c r="AL20" s="1">
-        <v>8.118597431108356</v>
+        <v>8.118597311899066</v>
       </c>
     </row>
     <row r="21" spans="1:38">
@@ -10371,7 +10371,7 @@
         <v>1.334527015686035</v>
       </c>
       <c r="AC21" s="1">
-        <v>1.346336126327515</v>
+        <v>1.346336007118225</v>
       </c>
       <c r="AD21" s="1">
         <v>1.874736547470093</v>
@@ -10487,7 +10487,7 @@
         <v>0.4954523742198944</v>
       </c>
       <c r="AC22" s="1">
-        <v>0.9721834659576416</v>
+        <v>0.9721834063529968</v>
       </c>
       <c r="AD22" s="1">
         <v>0.3659348487854004</v>
@@ -10835,7 +10835,7 @@
         <v>0.5140227675437927</v>
       </c>
       <c r="AC25" s="1">
-        <v>1.95802915096283</v>
+        <v>1.95802903175354</v>
       </c>
       <c r="AD25" s="1">
         <v>1.449334144592285</v>
@@ -10951,7 +10951,7 @@
         <v>0.4679710566997528</v>
       </c>
       <c r="AC26" s="1">
-        <v>1.079729080200195</v>
+        <v>1.079728960990906</v>
       </c>
       <c r="AD26" s="1">
         <v>0.7016766667366028</v>
@@ -11067,7 +11067,7 @@
         <v>0.01091804262250662</v>
       </c>
       <c r="AC27" s="1">
-        <v>0.067386694252491</v>
+        <v>0.0673866868019104</v>
       </c>
       <c r="AD27" s="1">
         <v>0.02319770678877831</v>
@@ -11183,7 +11183,7 @@
         <v>0.01993395760655403</v>
       </c>
       <c r="AC28" s="1">
-        <v>0.007045707665383816</v>
+        <v>0.007045707199722528</v>
       </c>
       <c r="AD28" s="1">
         <v>0.005144637543708086</v>
@@ -11415,7 +11415,7 @@
         <v>0.1431161612272263</v>
       </c>
       <c r="AC30" s="1">
-        <v>0.02594453282654285</v>
+        <v>0.02594453096389771</v>
       </c>
       <c r="AD30" s="1">
         <v>0.03099214285612106</v>
@@ -11569,7 +11569,7 @@
         <v>18.58914937849113</v>
       </c>
       <c r="C32" s="1">
-        <v>11.1609746347367</v>
+        <v>11.16097463380538</v>
       </c>
       <c r="D32" s="1">
         <v>20.5553621960853</v>
@@ -11581,49 +11581,49 @@
         <v>3.565466009485135</v>
       </c>
       <c r="G32" s="1">
-        <v>21.02636483119568</v>
+        <v>21.0263648237451</v>
       </c>
       <c r="H32" s="1">
         <v>43.28930979890902</v>
       </c>
       <c r="I32" s="1">
-        <v>66.47496097395015</v>
+        <v>66.47496096649957</v>
       </c>
       <c r="J32" s="1">
         <v>9.478321370418598</v>
       </c>
       <c r="K32" s="1">
-        <v>51.77224082719476</v>
+        <v>51.7722408122936</v>
       </c>
       <c r="L32" s="1">
         <v>16.67309839054087</v>
       </c>
       <c r="M32" s="1">
-        <v>77.96389641629298</v>
+        <v>77.96389640139182</v>
       </c>
       <c r="N32" s="1">
-        <v>2.36788179609664</v>
+        <v>2.367881796038432</v>
       </c>
       <c r="O32" s="1">
         <v>13.31809216566762</v>
       </c>
       <c r="P32" s="1">
-        <v>35.07070061346894</v>
+        <v>35.07070060974365</v>
       </c>
       <c r="Q32" s="1">
         <v>72.23220207912482</v>
       </c>
       <c r="R32" s="1">
-        <v>35.18762829051411</v>
+        <v>35.18762823090947</v>
       </c>
       <c r="S32" s="1">
-        <v>23.37921728641959</v>
+        <v>23.37921725661727</v>
       </c>
       <c r="T32" s="1">
         <v>10.39225288662419</v>
       </c>
       <c r="U32" s="1">
-        <v>20.56071134075682</v>
+        <v>20.56071134820741</v>
       </c>
       <c r="V32" s="1">
         <v>8.260117167013959</v>
@@ -11638,16 +11638,16 @@
         <v>14.2579941777085</v>
       </c>
       <c r="Z32" s="1">
-        <v>6.876068238233529</v>
+        <v>6.87606825313469</v>
       </c>
       <c r="AA32" s="1">
         <v>23.567042042705</v>
       </c>
       <c r="AB32" s="1">
-        <v>8.634828975918936</v>
+        <v>8.634828931215452</v>
       </c>
       <c r="AC32" s="1">
-        <v>42.52442373788654</v>
+        <v>42.52442245940983</v>
       </c>
       <c r="AD32" s="1">
         <v>14.49206367063744</v>
@@ -11656,7 +11656,7 @@
         <v>0.1885113385965269</v>
       </c>
       <c r="AF32" s="1">
-        <v>730.9591748856474</v>
+        <v>730.9591747664381</v>
       </c>
       <c r="AG32" s="1">
         <v>388.4255723636415</v>
@@ -11668,13 +11668,13 @@
         <v>36.78956107981503</v>
       </c>
       <c r="AJ32" s="1">
-        <v>227.4952031715147</v>
+        <v>227.4951998336546</v>
       </c>
       <c r="AK32" s="1">
-        <v>768.9798306406774</v>
+        <v>768.9798273028173</v>
       </c>
       <c r="AL32" s="1">
-        <v>1499.939005526325</v>
+        <v>1499.939002069255</v>
       </c>
     </row>
   </sheetData>
@@ -11913,13 +11913,13 @@
         <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>3.296210050582886</v>
+        <v>3.296209812164307</v>
       </c>
       <c r="AK2" s="1">
-        <v>22.4790170788765</v>
+        <v>22.47901684045792</v>
       </c>
       <c r="AL2" s="1">
-        <v>42.55806714296341</v>
+        <v>42.55806690454483</v>
       </c>
     </row>
     <row r="3" spans="1:38">
@@ -12567,10 +12567,10 @@
         <v>3.257724046707153</v>
       </c>
       <c r="V8" s="1">
-        <v>0.05542349070310593</v>
+        <v>0.05542348697781563</v>
       </c>
       <c r="W8" s="1">
-        <v>0.0898747593164444</v>
+        <v>0.0898747518658638</v>
       </c>
       <c r="X8" s="1">
         <v>0.01650713011622429</v>
@@ -12609,13 +12609,13 @@
         <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>23.01185417175293</v>
+        <v>23.0118522644043</v>
       </c>
       <c r="AK8" s="1">
-        <v>24.58026516437531</v>
+        <v>24.58026325702667</v>
       </c>
       <c r="AL8" s="1">
-        <v>49.29578030109406</v>
+        <v>49.29577839374542</v>
       </c>
     </row>
     <row r="9" spans="1:38">
@@ -13224,7 +13224,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="1">
-        <v>0.0700204148888588</v>
+        <v>0.07002042233943939</v>
       </c>
       <c r="J14" s="1">
         <v>0</v>
@@ -13251,7 +13251,7 @@
         <v>0</v>
       </c>
       <c r="R14" s="1">
-        <v>7.525028228759766</v>
+        <v>7.525028705596924</v>
       </c>
       <c r="S14" s="1">
         <v>2.855619430541992</v>
@@ -13296,22 +13296,22 @@
         <v>34.02442169189453</v>
       </c>
       <c r="AG14" s="1">
-        <v>90.36211395263672</v>
+        <v>90.36212158203125</v>
       </c>
       <c r="AH14" s="1">
-        <v>42.70946884155273</v>
+        <v>42.70947265625</v>
       </c>
       <c r="AI14" s="1">
         <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>40.30197143554688</v>
+        <v>40.30197906494141</v>
       </c>
       <c r="AK14" s="1">
-        <v>173.3735542297363</v>
+        <v>173.3735733032227</v>
       </c>
       <c r="AL14" s="1">
-        <v>207.3979759216309</v>
+        <v>207.3979949951172</v>
       </c>
     </row>
     <row r="15" spans="1:38">
@@ -15312,7 +15312,7 @@
         <v>119.8279879874244</v>
       </c>
       <c r="I32" s="1">
-        <v>79.71493481670132</v>
+        <v>79.7149348241519</v>
       </c>
       <c r="J32" s="1">
         <v>10.67924963131281</v>
@@ -15339,7 +15339,7 @@
         <v>114.4169359849557</v>
       </c>
       <c r="R32" s="1">
-        <v>64.17407996060501</v>
+        <v>64.17408043744217</v>
       </c>
       <c r="S32" s="1">
         <v>42.0060378757189</v>
@@ -15351,10 +15351,10 @@
         <v>62.73531556979287</v>
       </c>
       <c r="V32" s="1">
-        <v>11.51310380190262</v>
+        <v>11.51310379817733</v>
       </c>
       <c r="W32" s="1">
-        <v>16.57664391217986</v>
+        <v>16.57664390472928</v>
       </c>
       <c r="X32" s="1">
         <v>13.15764223011865</v>
@@ -15384,22 +15384,22 @@
         <v>1274.997576816007</v>
       </c>
       <c r="AG32" s="1">
-        <v>673.4425028904589</v>
+        <v>673.4425105198534</v>
       </c>
       <c r="AH32" s="1">
-        <v>188.7743410250405</v>
+        <v>188.7743448397378</v>
       </c>
       <c r="AI32" s="1">
         <v>62.15359405940399</v>
       </c>
       <c r="AJ32" s="1">
-        <v>640.9739169501408</v>
+        <v>640.9739224337682</v>
       </c>
       <c r="AK32" s="1">
-        <v>1565.344354925044</v>
+        <v>1565.344371852763</v>
       </c>
       <c r="AL32" s="1">
-        <v>2840.341931741052</v>
+        <v>2840.341948668771</v>
       </c>
     </row>
   </sheetData>
@@ -15617,7 +15617,7 @@
         <v>0.122640460729599</v>
       </c>
       <c r="AC2" s="1">
-        <v>0.2854653894901276</v>
+        <v>0.2854653596878052</v>
       </c>
       <c r="AD2" s="1">
         <v>0.009503988549113274</v>
@@ -15733,7 +15733,7 @@
         <v>0.0569147989153862</v>
       </c>
       <c r="AC3" s="1">
-        <v>0.1386158913373947</v>
+        <v>0.1386158764362335</v>
       </c>
       <c r="AD3" s="1">
         <v>0.04041917994618416</v>
@@ -15849,7 +15849,7 @@
         <v>0.00468045799061656</v>
       </c>
       <c r="AC4" s="1">
-        <v>4.462402648641728e-05</v>
+        <v>4.462402284843847e-05</v>
       </c>
       <c r="AD4" s="1">
         <v>0.0005162159795872867</v>
@@ -15965,7 +15965,7 @@
         <v>0.5918172597885132</v>
       </c>
       <c r="AC5" s="1">
-        <v>1.400285959243774</v>
+        <v>1.400285720825195</v>
       </c>
       <c r="AD5" s="1">
         <v>0.8582793474197388</v>
@@ -16102,13 +16102,13 @@
         <v>0.0851869210600853</v>
       </c>
       <c r="AJ6" s="1">
-        <v>1.358537435531616</v>
+        <v>1.358537673950195</v>
       </c>
       <c r="AK6" s="1">
-        <v>62.27408095449209</v>
+        <v>62.27408119291067</v>
       </c>
       <c r="AL6" s="1">
-        <v>75.06676837056875</v>
+        <v>75.06676860898733</v>
       </c>
     </row>
     <row r="7" spans="1:38">
@@ -16197,7 +16197,7 @@
         <v>0.0163975041359663</v>
       </c>
       <c r="AC7" s="1">
-        <v>0.00412058737128973</v>
+        <v>0.004120586905628443</v>
       </c>
       <c r="AD7" s="1">
         <v>0.046798475086689</v>
@@ -16313,7 +16313,7 @@
         <v>0.2208120673894882</v>
       </c>
       <c r="AC8" s="1">
-        <v>0.4036682844161987</v>
+        <v>0.4036682546138763</v>
       </c>
       <c r="AD8" s="1">
         <v>0.3498213887214661</v>
@@ -16351,7 +16351,7 @@
         <v>22.14494895935059</v>
       </c>
       <c r="C9" s="1">
-        <v>2.216671943664551</v>
+        <v>2.21667218208313</v>
       </c>
       <c r="D9" s="1">
         <v>2.582170486450195</v>
@@ -16387,7 +16387,7 @@
         <v>1.661988019943237</v>
       </c>
       <c r="O9" s="1">
-        <v>1.245411276817322</v>
+        <v>1.245411396026611</v>
       </c>
       <c r="P9" s="1">
         <v>3.589767217636108</v>
@@ -16414,7 +16414,7 @@
         <v>1.138654947280884</v>
       </c>
       <c r="X9" s="1">
-        <v>1.150785565376282</v>
+        <v>1.150785684585571</v>
       </c>
       <c r="Y9" s="1">
         <v>0.2796516418457031</v>
@@ -16545,7 +16545,7 @@
         <v>0.003977112472057343</v>
       </c>
       <c r="AC10" s="1">
-        <v>0.1342015117406845</v>
+        <v>0.1342014968395233</v>
       </c>
       <c r="AD10" s="1">
         <v>0.05716866999864578</v>
@@ -16661,7 +16661,7 @@
         <v>0.2717156708240509</v>
       </c>
       <c r="AC11" s="1">
-        <v>0.03034774027764797</v>
+        <v>0.03034773655235767</v>
       </c>
       <c r="AD11" s="1">
         <v>0.1989139318466187</v>
@@ -16777,7 +16777,7 @@
         <v>0.8172370195388794</v>
       </c>
       <c r="AC12" s="1">
-        <v>6.037665843963623</v>
+        <v>6.037664890289307</v>
       </c>
       <c r="AD12" s="1">
         <v>2.046481609344482</v>
@@ -17030,13 +17030,13 @@
         <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>10.20588874816895</v>
+        <v>10.20588970184326</v>
       </c>
       <c r="AK14" s="1">
-        <v>121.9401416778564</v>
+        <v>121.9401426315308</v>
       </c>
       <c r="AL14" s="1">
-        <v>151.6392459869385</v>
+        <v>151.6392469406128</v>
       </c>
     </row>
     <row r="15" spans="1:38">
@@ -17044,115 +17044,115 @@
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>0.3245309889316559</v>
+        <v>0.3245309591293335</v>
       </c>
       <c r="C15" s="1">
-        <v>0.00870010070502758</v>
+        <v>0.008700099773705006</v>
       </c>
       <c r="D15" s="1">
-        <v>0.2151990532875061</v>
+        <v>0.2151990234851837</v>
       </c>
       <c r="E15" s="1">
-        <v>0.8507407903671265</v>
+        <v>0.8507406711578369</v>
       </c>
       <c r="F15" s="1">
-        <v>0.08055956661701202</v>
+        <v>0.08055955916643143</v>
       </c>
       <c r="G15" s="1">
-        <v>0.1038950532674789</v>
+        <v>0.1038950458168983</v>
       </c>
       <c r="H15" s="1">
-        <v>0.02400439977645874</v>
+        <v>0.02400439791381359</v>
       </c>
       <c r="I15" s="1">
-        <v>0.03139162436127663</v>
+        <v>0.03139162063598633</v>
       </c>
       <c r="J15" s="1">
-        <v>0.05780646950006485</v>
+        <v>0.05780646204948425</v>
       </c>
       <c r="K15" s="1">
-        <v>0.4523656070232391</v>
+        <v>0.4523655772209167</v>
       </c>
       <c r="L15" s="1">
-        <v>0.02825821749866009</v>
+        <v>0.02825821377336979</v>
       </c>
       <c r="M15" s="1">
-        <v>0.1520492434501648</v>
+        <v>0.1520492136478424</v>
       </c>
       <c r="N15" s="1">
-        <v>0.399289608001709</v>
+        <v>0.3992895483970642</v>
       </c>
       <c r="O15" s="1">
-        <v>2.988900661468506</v>
+        <v>2.988900184631348</v>
       </c>
       <c r="P15" s="1">
-        <v>0.8188450336456299</v>
+        <v>0.8188449144363403</v>
       </c>
       <c r="Q15" s="1">
-        <v>2.035389423370361</v>
+        <v>2.035389184951782</v>
       </c>
       <c r="R15" s="1">
-        <v>0.1883476376533508</v>
+        <v>0.1883476078510284</v>
       </c>
       <c r="S15" s="1">
-        <v>0.4868888854980469</v>
+        <v>0.4868888258934021</v>
       </c>
       <c r="T15" s="1">
-        <v>0.1630640476942062</v>
+        <v>0.163064032793045</v>
       </c>
       <c r="U15" s="1">
-        <v>0.05861104279756546</v>
+        <v>0.05861103534698486</v>
       </c>
       <c r="V15" s="1">
-        <v>0.429893970489502</v>
+        <v>0.4298939108848572</v>
       </c>
       <c r="W15" s="1">
-        <v>0.0121202114969492</v>
+        <v>0.01212021056562662</v>
       </c>
       <c r="X15" s="1">
-        <v>0.003072020597755909</v>
+        <v>0.003072020132094622</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.4903756082057953</v>
+        <v>0.4903755784034729</v>
       </c>
       <c r="Z15" s="1">
-        <v>0.2433203160762787</v>
+        <v>0.2433202862739563</v>
       </c>
       <c r="AA15" s="1">
-        <v>0.4870814681053162</v>
+        <v>0.4870814085006714</v>
       </c>
       <c r="AB15" s="1">
-        <v>0.427660197019577</v>
+        <v>0.4276601672172546</v>
       </c>
       <c r="AC15" s="1">
-        <v>5.790121555328369</v>
+        <v>5.790120601654053</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.5784027576446533</v>
+        <v>0.5784026384353638</v>
       </c>
       <c r="AE15" s="1">
         <v>0</v>
       </c>
       <c r="AF15" s="1">
-        <v>17.93088531494141</v>
+        <v>17.93088340759277</v>
       </c>
       <c r="AG15" s="1">
-        <v>29.13479232788086</v>
+        <v>29.13478851318359</v>
       </c>
       <c r="AH15" s="1">
-        <v>3.448925971984863</v>
+        <v>3.448925495147705</v>
       </c>
       <c r="AI15" s="1">
         <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>2.716384649276733</v>
+        <v>2.716384410858154</v>
       </c>
       <c r="AK15" s="1">
-        <v>35.30010294914246</v>
+        <v>35.30009841918945</v>
       </c>
       <c r="AL15" s="1">
-        <v>53.23098826408386</v>
+        <v>53.23098182678223</v>
       </c>
     </row>
     <row r="16" spans="1:38">
@@ -17241,7 +17241,7 @@
         <v>0.5591177940368652</v>
       </c>
       <c r="AC16" s="1">
-        <v>1.110337495803833</v>
+        <v>1.110337376594543</v>
       </c>
       <c r="AD16" s="1">
         <v>0.9166420102119446</v>
@@ -17357,7 +17357,7 @@
         <v>0.0003752998600248247</v>
       </c>
       <c r="AC17" s="1">
-        <v>0.0003031683445442468</v>
+        <v>0.0003031683154404163</v>
       </c>
       <c r="AD17" s="1">
         <v>0.0002080498670693487</v>
@@ -17473,7 +17473,7 @@
         <v>0.1430645436048508</v>
       </c>
       <c r="AC18" s="1">
-        <v>0.2053377777338028</v>
+        <v>0.2053377628326416</v>
       </c>
       <c r="AD18" s="1">
         <v>1.687797427177429</v>
@@ -17589,7 +17589,7 @@
         <v>2.018451929092407</v>
       </c>
       <c r="AC19" s="1">
-        <v>3.845385074615479</v>
+        <v>3.84538459777832</v>
       </c>
       <c r="AD19" s="1">
         <v>1.981519341468811</v>
@@ -17705,7 +17705,7 @@
         <v>0.3544541597366333</v>
       </c>
       <c r="AC20" s="1">
-        <v>0.8175954222679138</v>
+        <v>0.817595362663269</v>
       </c>
       <c r="AD20" s="1">
         <v>0.1700821965932846</v>
@@ -17791,7 +17791,7 @@
         <v>2.920917987823486</v>
       </c>
       <c r="S21" s="1">
-        <v>1.049679756164551</v>
+        <v>1.04967987537384</v>
       </c>
       <c r="T21" s="1">
         <v>0.3887518048286438</v>
@@ -17821,7 +17821,7 @@
         <v>1.5567547082901</v>
       </c>
       <c r="AC21" s="1">
-        <v>1.578884840011597</v>
+        <v>1.578884720802307</v>
       </c>
       <c r="AD21" s="1">
         <v>2.149052858352661</v>
@@ -17937,7 +17937,7 @@
         <v>0.5795388221740723</v>
       </c>
       <c r="AC22" s="1">
-        <v>1.143306612968445</v>
+        <v>1.143306493759155</v>
       </c>
       <c r="AD22" s="1">
         <v>0.4205356240272522</v>
@@ -18053,7 +18053,7 @@
         <v>0.0002258627500850707</v>
       </c>
       <c r="AC23" s="1">
-        <v>0.0004516345506999642</v>
+        <v>0.0004516344924923033</v>
       </c>
       <c r="AD23" s="1">
         <v>0.0001972779427887872</v>
@@ -18062,7 +18062,7 @@
         <v>8.005403060451499e-07</v>
       </c>
       <c r="AF23" s="1">
-        <v>0.003726888913661242</v>
+        <v>0.003726888680830598</v>
       </c>
       <c r="AG23" s="1">
         <v>0.003351334715262055</v>
@@ -18080,7 +18080,7 @@
         <v>0.003870488959364593</v>
       </c>
       <c r="AL23" s="1">
-        <v>0.007597377873025835</v>
+        <v>0.007597377640195191</v>
       </c>
     </row>
     <row r="24" spans="1:38">
@@ -18285,7 +18285,7 @@
         <v>0.6012609601020813</v>
       </c>
       <c r="AC25" s="1">
-        <v>2.302680492401123</v>
+        <v>2.302680253982544</v>
       </c>
       <c r="AD25" s="1">
         <v>1.665587782859802</v>
@@ -18401,7 +18401,7 @@
         <v>0.5473935008049011</v>
       </c>
       <c r="AC26" s="1">
-        <v>1.269782304763794</v>
+        <v>1.269782185554504</v>
       </c>
       <c r="AD26" s="1">
         <v>0.806373119354248</v>
@@ -18517,7 +18517,7 @@
         <v>0.01277101598680019</v>
       </c>
       <c r="AC27" s="1">
-        <v>0.07924806326627731</v>
+        <v>0.07924805581569672</v>
       </c>
       <c r="AD27" s="1">
         <v>0.02665901370346546</v>
@@ -18749,7 +18749,7 @@
         <v>0.001140500651672482</v>
       </c>
       <c r="AC29" s="1">
-        <v>0.0206871535629034</v>
+        <v>0.02068715170025826</v>
       </c>
       <c r="AD29" s="1">
         <v>8.98367798072286e-05</v>
@@ -18758,7 +18758,7 @@
         <v>0</v>
       </c>
       <c r="AF29" s="1">
-        <v>0.02365883998572826</v>
+        <v>0.02365883812308311</v>
       </c>
       <c r="AG29" s="1">
         <v>0.05501813814043999</v>
@@ -18776,7 +18776,7 @@
         <v>0.269643552845082</v>
       </c>
       <c r="AL29" s="1">
-        <v>0.2933023928308103</v>
+        <v>0.2933023909681651</v>
       </c>
     </row>
     <row r="30" spans="1:38">
@@ -18865,7 +18865,7 @@
         <v>0.1674100160598755</v>
       </c>
       <c r="AC30" s="1">
-        <v>0.03050934709608555</v>
+        <v>0.03050934337079525</v>
       </c>
       <c r="AD30" s="1">
         <v>0.03561436757445335</v>
@@ -19016,115 +19016,115 @@
         <v>37</v>
       </c>
       <c r="B32" s="1">
-        <v>66.24415406699291</v>
+        <v>66.24415403719058</v>
       </c>
       <c r="C32" s="1">
-        <v>6.816057409638688</v>
+        <v>6.816057647125945</v>
       </c>
       <c r="D32" s="1">
-        <v>20.18537495386954</v>
+        <v>20.18537492406722</v>
       </c>
       <c r="E32" s="1">
-        <v>191.98418678288</v>
+        <v>191.9841866636707</v>
       </c>
       <c r="F32" s="1">
-        <v>9.22126000154276</v>
+        <v>9.221259994092179</v>
       </c>
       <c r="G32" s="1">
-        <v>21.50687539536011</v>
+        <v>21.50687538790953</v>
       </c>
       <c r="H32" s="1">
-        <v>2.447399758534743</v>
+        <v>2.447399756672098</v>
       </c>
       <c r="I32" s="1">
-        <v>21.77142072018614</v>
+        <v>21.77142071646085</v>
       </c>
       <c r="J32" s="1">
-        <v>7.734434516280089</v>
+        <v>7.734434508829509</v>
       </c>
       <c r="K32" s="1">
-        <v>136.9774901640558</v>
+        <v>136.9774901342535</v>
       </c>
       <c r="L32" s="1">
-        <v>9.926000910143557</v>
+        <v>9.926000906418267</v>
       </c>
       <c r="M32" s="1">
-        <v>55.48683097377011</v>
+        <v>55.48683094396779</v>
       </c>
       <c r="N32" s="1">
-        <v>36.65413596169856</v>
+        <v>36.65413590209391</v>
       </c>
       <c r="O32" s="1">
-        <v>22.63370033185493</v>
+        <v>22.63369997422706</v>
       </c>
       <c r="P32" s="1">
-        <v>34.43699121687541</v>
+        <v>34.43699109766612</v>
       </c>
       <c r="Q32" s="1">
-        <v>85.38643156547414</v>
+        <v>85.38643132705556</v>
       </c>
       <c r="R32" s="1">
-        <v>57.04195514194726</v>
+        <v>57.04195511214493</v>
       </c>
       <c r="S32" s="1">
-        <v>42.9620330792568</v>
+        <v>42.96203313886144</v>
       </c>
       <c r="T32" s="1">
-        <v>11.09177459774219</v>
+        <v>11.09177458284103</v>
       </c>
       <c r="U32" s="1">
-        <v>10.92690545149344</v>
+        <v>10.92690544404286</v>
       </c>
       <c r="V32" s="1">
-        <v>11.5794581380469</v>
+        <v>11.57945807844226</v>
       </c>
       <c r="W32" s="1">
-        <v>11.77937688668317</v>
+        <v>11.77937688575184</v>
       </c>
       <c r="X32" s="1">
-        <v>9.029256009082019</v>
+        <v>9.029256127825647</v>
       </c>
       <c r="Y32" s="1">
-        <v>17.49557094425086</v>
+        <v>17.49557091444854</v>
       </c>
       <c r="Z32" s="1">
-        <v>7.975166235333745</v>
+        <v>7.975166205531423</v>
       </c>
       <c r="AA32" s="1">
-        <v>21.76975951623172</v>
+        <v>21.76975945662707</v>
       </c>
       <c r="AB32" s="1">
-        <v>10.07831154781161</v>
+        <v>10.07831151800929</v>
       </c>
       <c r="AC32" s="1">
-        <v>49.55439613770795</v>
+        <v>49.55439261861466</v>
       </c>
       <c r="AD32" s="1">
-        <v>16.59106214215717</v>
+        <v>16.59106202294788</v>
       </c>
       <c r="AE32" s="1">
         <v>0.2021268718630154</v>
       </c>
       <c r="AF32" s="1">
-        <v>1007.489895051811</v>
+        <v>1007.489893142367</v>
       </c>
       <c r="AG32" s="1">
-        <v>460.3016286130187</v>
+        <v>460.3016247983214</v>
       </c>
       <c r="AH32" s="1">
-        <v>156.5384530477459</v>
+        <v>156.5384525709087</v>
       </c>
       <c r="AI32" s="1">
         <v>42.6046962805558</v>
       </c>
       <c r="AJ32" s="1">
-        <v>162.8006770201137</v>
+        <v>162.800677973788</v>
       </c>
       <c r="AK32" s="1">
-        <v>822.245454961434</v>
+        <v>822.2454516235739</v>
       </c>
       <c r="AL32" s="1">
-        <v>1829.735350013245</v>
+        <v>1829.735344765941</v>
       </c>
     </row>
   </sheetData>
@@ -19261,7 +19261,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>10.81766223907471</v>
+        <v>10.81766128540039</v>
       </c>
       <c r="C2" s="1">
         <v>0.005486824549734592</v>
@@ -19282,7 +19282,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>0.2271649837493896</v>
+        <v>0.2271649688482285</v>
       </c>
       <c r="J2" s="1">
         <v>0</v>
@@ -19300,7 +19300,7 @@
         <v>0</v>
       </c>
       <c r="O2" s="1">
-        <v>0.015411127358675</v>
+        <v>0.01541112642735243</v>
       </c>
       <c r="P2" s="1">
         <v>4.855308361584321e-05</v>
@@ -19342,7 +19342,7 @@
         <v>0.1298164576292038</v>
       </c>
       <c r="AC2" s="1">
-        <v>0.2752338349819183</v>
+        <v>0.2752338051795959</v>
       </c>
       <c r="AD2" s="1">
         <v>0.00953172892332077</v>
@@ -19351,25 +19351,25 @@
         <v>0.005838284268975258</v>
       </c>
       <c r="AF2" s="1">
-        <v>32.55608367919922</v>
+        <v>32.55607986450195</v>
       </c>
       <c r="AG2" s="1">
         <v>13.01590251922607</v>
       </c>
       <c r="AH2" s="1">
-        <v>0.2235594838857651</v>
+        <v>0.2235594689846039</v>
       </c>
       <c r="AI2" s="1">
         <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>4.819948196411133</v>
+        <v>4.819947719573975</v>
       </c>
       <c r="AK2" s="1">
-        <v>18.05941019952297</v>
+        <v>18.05940970778465</v>
       </c>
       <c r="AL2" s="1">
-        <v>50.61549387872219</v>
+        <v>50.61548957228661</v>
       </c>
     </row>
     <row r="3" spans="1:38">
@@ -19458,7 +19458,7 @@
         <v>0.05944372713565826</v>
       </c>
       <c r="AC3" s="1">
-        <v>0.1318731755018234</v>
+        <v>0.131873145699501</v>
       </c>
       <c r="AD3" s="1">
         <v>0.03999390453100204</v>
@@ -19574,7 +19574,7 @@
         <v>0.004886278882622719</v>
       </c>
       <c r="AC4" s="1">
-        <v>4.243478178977966e-05</v>
+        <v>4.243477815180086e-05</v>
       </c>
       <c r="AD4" s="1">
         <v>0.0005105521413497627</v>
@@ -19690,7 +19690,7 @@
         <v>0.6142404079437256</v>
       </c>
       <c r="AC5" s="1">
-        <v>1.323832511901855</v>
+        <v>1.323832273483276</v>
       </c>
       <c r="AD5" s="1">
         <v>0.8439277410507202</v>
@@ -19922,7 +19922,7 @@
         <v>0.01799526810646057</v>
       </c>
       <c r="AC7" s="1">
-        <v>0.004119107965379953</v>
+        <v>0.004119107499718666</v>
       </c>
       <c r="AD7" s="1">
         <v>0.04865500703454018</v>
@@ -20008,7 +20008,7 @@
         <v>1.095344305038452</v>
       </c>
       <c r="S8" s="1">
-        <v>0.08231018483638763</v>
+        <v>0.08231019228696823</v>
       </c>
       <c r="T8" s="1">
         <v>0.0117504121735692</v>
@@ -20038,7 +20038,7 @@
         <v>0.234972819685936</v>
       </c>
       <c r="AC8" s="1">
-        <v>0.3912530243396759</v>
+        <v>0.3912529647350311</v>
       </c>
       <c r="AD8" s="1">
         <v>0.3526634573936462</v>
@@ -20154,7 +20154,7 @@
         <v>0.8703151345252991</v>
       </c>
       <c r="AC9" s="1">
-        <v>22.04505157470703</v>
+        <v>22.0450496673584</v>
       </c>
       <c r="AD9" s="1">
         <v>2.297377586364746</v>
@@ -20270,7 +20270,7 @@
         <v>0.004294008947908878</v>
       </c>
       <c r="AC10" s="1">
-        <v>0.1319808214902878</v>
+        <v>0.1319808065891266</v>
       </c>
       <c r="AD10" s="1">
         <v>0.05847153067588806</v>
@@ -20386,7 +20386,7 @@
         <v>0.2859997451305389</v>
       </c>
       <c r="AC11" s="1">
-        <v>0.0290964413434267</v>
+        <v>0.02909643761813641</v>
       </c>
       <c r="AD11" s="1">
         <v>0.1983443796634674</v>
@@ -20502,7 +20502,7 @@
         <v>0.8882400989532471</v>
       </c>
       <c r="AC12" s="1">
-        <v>5.977633476257324</v>
+        <v>5.977632999420166</v>
       </c>
       <c r="AD12" s="1">
         <v>2.107103586196899</v>
@@ -20755,13 +20755,13 @@
         <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>60.41716003417969</v>
+        <v>60.41716766357422</v>
       </c>
       <c r="AK14" s="1">
-        <v>173.0427856445312</v>
+        <v>173.0427932739258</v>
       </c>
       <c r="AL14" s="1">
-        <v>221.955638885498</v>
+        <v>221.9556465148926</v>
       </c>
     </row>
     <row r="15" spans="1:38">
@@ -20784,10 +20784,10 @@
         <v>0.02635509148240089</v>
       </c>
       <c r="G15" s="1">
-        <v>0.03959108144044876</v>
+        <v>0.03959107771515846</v>
       </c>
       <c r="H15" s="1">
-        <v>0.8438346385955811</v>
+        <v>0.8438345789909363</v>
       </c>
       <c r="I15" s="1">
         <v>0.1873809844255447</v>
@@ -20802,7 +20802,7 @@
         <v>0.5116444826126099</v>
       </c>
       <c r="M15" s="1">
-        <v>0.7747383713722229</v>
+        <v>0.7747383117675781</v>
       </c>
       <c r="N15" s="1">
         <v>0.6698408126831055</v>
@@ -20820,22 +20820,22 @@
         <v>0.1644575595855713</v>
       </c>
       <c r="S15" s="1">
-        <v>0.4534385204315186</v>
+        <v>0.4534384906291962</v>
       </c>
       <c r="T15" s="1">
         <v>0.2073868066072464</v>
       </c>
       <c r="U15" s="1">
-        <v>0.1936685740947723</v>
+        <v>0.1936685591936111</v>
       </c>
       <c r="V15" s="1">
         <v>0.5299144983291626</v>
       </c>
       <c r="W15" s="1">
-        <v>0.01336912717670202</v>
+        <v>0.01336912624537945</v>
       </c>
       <c r="X15" s="1">
-        <v>0.003279954893514514</v>
+        <v>0.00327995466068387</v>
       </c>
       <c r="Y15" s="1">
         <v>0.8674482107162476</v>
@@ -20844,16 +20844,16 @@
         <v>0.4682120978832245</v>
       </c>
       <c r="AA15" s="1">
-        <v>0.5554677248001099</v>
+        <v>0.5554676651954651</v>
       </c>
       <c r="AB15" s="1">
         <v>0.477545827627182</v>
       </c>
       <c r="AC15" s="1">
-        <v>5.889894962310791</v>
+        <v>5.889894485473633</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.6118847727775574</v>
+        <v>0.6118847131729126</v>
       </c>
       <c r="AE15" s="1">
         <v>0</v>
@@ -20862,7 +20862,7 @@
         <v>23.41927909851074</v>
       </c>
       <c r="AG15" s="1">
-        <v>31.10094261169434</v>
+        <v>31.1009407043457</v>
       </c>
       <c r="AH15" s="1">
         <v>4.521102905273438</v>
@@ -20874,10 +20874,10 @@
         <v>16.50840187072754</v>
       </c>
       <c r="AK15" s="1">
-        <v>52.13044738769531</v>
+        <v>52.13044548034668</v>
       </c>
       <c r="AL15" s="1">
-        <v>75.54972648620605</v>
+        <v>75.54972457885742</v>
       </c>
     </row>
     <row r="16" spans="1:38">
@@ -20966,7 +20966,7 @@
         <v>0.5854876041412354</v>
       </c>
       <c r="AC16" s="1">
-        <v>1.05912458896637</v>
+        <v>1.05912446975708</v>
       </c>
       <c r="AD16" s="1">
         <v>0.9093604683876038</v>
@@ -21082,7 +21082,7 @@
         <v>0.0003899516304954886</v>
       </c>
       <c r="AC17" s="1">
-        <v>0.0002869318705052137</v>
+        <v>0.0002869318414013833</v>
       </c>
       <c r="AD17" s="1">
         <v>0.0002047991001745686</v>
@@ -21198,7 +21198,7 @@
         <v>0.1486498117446899</v>
       </c>
       <c r="AC18" s="1">
-        <v>0.1943407207727432</v>
+        <v>0.1943406909704208</v>
       </c>
       <c r="AD18" s="1">
         <v>1.661425590515137</v>
@@ -21207,7 +21207,7 @@
         <v>0</v>
       </c>
       <c r="AF18" s="1">
-        <v>18.99092102050781</v>
+        <v>18.99091720581055</v>
       </c>
       <c r="AG18" s="1">
         <v>0</v>
@@ -21225,7 +21225,7 @@
         <v>14.62258911132812</v>
       </c>
       <c r="AL18" s="1">
-        <v>33.61351013183594</v>
+        <v>33.61350631713867</v>
       </c>
     </row>
     <row r="19" spans="1:38">
@@ -21314,7 +21314,7 @@
         <v>2.097252607345581</v>
       </c>
       <c r="AC19" s="1">
-        <v>3.639441728591919</v>
+        <v>3.639441251754761</v>
       </c>
       <c r="AD19" s="1">
         <v>1.950558185577393</v>
@@ -21430,7 +21430,7 @@
         <v>0.3682920932769775</v>
       </c>
       <c r="AC20" s="1">
-        <v>0.7738083004951477</v>
+        <v>0.7738082408905029</v>
       </c>
       <c r="AD20" s="1">
         <v>0.167424663901329</v>
@@ -21546,7 +21546,7 @@
         <v>1.63749623298645</v>
       </c>
       <c r="AC21" s="1">
-        <v>1.512734770774841</v>
+        <v>1.512734651565552</v>
       </c>
       <c r="AD21" s="1">
         <v>2.141750812530518</v>
@@ -21662,7 +21662,7 @@
         <v>0.6021641492843628</v>
       </c>
       <c r="AC22" s="1">
-        <v>1.082075715065002</v>
+        <v>1.082075595855713</v>
       </c>
       <c r="AD22" s="1">
         <v>0.4139647781848907</v>
@@ -21778,7 +21778,7 @@
         <v>0.0002346804685657844</v>
       </c>
       <c r="AC23" s="1">
-        <v>0.0004274468228686601</v>
+        <v>0.0004274467646609992</v>
       </c>
       <c r="AD23" s="1">
         <v>0.0001941954687936231</v>
@@ -22010,7 +22010,7 @@
         <v>0.6247342824935913</v>
       </c>
       <c r="AC25" s="1">
-        <v>2.179358005523682</v>
+        <v>2.179357767105103</v>
       </c>
       <c r="AD25" s="1">
         <v>1.639563083648682</v>
@@ -22126,7 +22126,7 @@
         <v>0.5687638521194458</v>
       </c>
       <c r="AC26" s="1">
-        <v>1.201777935028076</v>
+        <v>1.201777815818787</v>
       </c>
       <c r="AD26" s="1">
         <v>0.7937735319137573</v>
@@ -22242,7 +22242,7 @@
         <v>0.01326959859579802</v>
       </c>
       <c r="AC27" s="1">
-        <v>0.07500385493040085</v>
+        <v>0.07500384747982025</v>
       </c>
       <c r="AD27" s="1">
         <v>0.02624246664345264</v>
@@ -22358,7 +22358,7 @@
         <v>0.02422738261520863</v>
       </c>
       <c r="AC28" s="1">
-        <v>0.007842130027711391</v>
+        <v>0.007842129096388817</v>
       </c>
       <c r="AD28" s="1">
         <v>0.005819885060191154</v>
@@ -22474,7 +22474,7 @@
         <v>0.00118502601981163</v>
       </c>
       <c r="AC29" s="1">
-        <v>0.01957923360168934</v>
+        <v>0.01957923173904419</v>
       </c>
       <c r="AD29" s="1">
         <v>8.84330875123851e-05</v>
@@ -22483,7 +22483,7 @@
         <v>0</v>
       </c>
       <c r="AF29" s="1">
-        <v>0.02278053760528564</v>
+        <v>0.0227805357426405</v>
       </c>
       <c r="AG29" s="1">
         <v>0.05464037135243416</v>
@@ -22501,7 +22501,7 @@
         <v>0.256618587533012</v>
       </c>
       <c r="AL29" s="1">
-        <v>0.2793991251382977</v>
+        <v>0.2793991232756525</v>
       </c>
     </row>
     <row r="30" spans="1:38">
@@ -22590,7 +22590,7 @@
         <v>0.1739561855792999</v>
       </c>
       <c r="AC30" s="1">
-        <v>0.02887665666639805</v>
+        <v>0.02887665294110775</v>
       </c>
       <c r="AD30" s="1">
         <v>0.03505945950746536</v>
@@ -22741,7 +22741,7 @@
         <v>37</v>
       </c>
       <c r="B32" s="1">
-        <v>55.88258638583829</v>
+        <v>55.88258543216398</v>
       </c>
       <c r="C32" s="1">
         <v>4.762525552102716</v>
@@ -22756,13 +22756,13 @@
         <v>2.964116804989089</v>
       </c>
       <c r="G32" s="1">
-        <v>7.824333407385893</v>
+        <v>7.824333403660603</v>
       </c>
       <c r="H32" s="1">
-        <v>82.77048373257639</v>
+        <v>82.77048367297175</v>
       </c>
       <c r="I32" s="1">
-        <v>124.7231119822554</v>
+        <v>124.7231119673543</v>
       </c>
       <c r="J32" s="1">
         <v>26.13024730690449</v>
@@ -22774,13 +22774,13 @@
         <v>171.9081047912987</v>
       </c>
       <c r="M32" s="1">
-        <v>268.4407967949146</v>
+        <v>268.44079673531</v>
       </c>
       <c r="N32" s="1">
         <v>59.10220389350434</v>
       </c>
       <c r="O32" s="1">
-        <v>35.47343271457794</v>
+        <v>35.47343271364662</v>
       </c>
       <c r="P32" s="1">
         <v>68.81860756305014</v>
@@ -22792,22 +22792,22 @@
         <v>46.83303512852581</v>
       </c>
       <c r="S32" s="1">
-        <v>38.35722582187555</v>
+        <v>38.3572257995238</v>
       </c>
       <c r="T32" s="1">
         <v>13.17174681988399</v>
       </c>
       <c r="U32" s="1">
-        <v>34.00807427927066</v>
+        <v>34.0080742643695</v>
       </c>
       <c r="V32" s="1">
         <v>13.51711705302296</v>
       </c>
       <c r="W32" s="1">
-        <v>12.22591566343908</v>
+        <v>12.22591566250776</v>
       </c>
       <c r="X32" s="1">
-        <v>9.069643707667637</v>
+        <v>9.069643707434807</v>
       </c>
       <c r="Y32" s="1">
         <v>29.41502700180672</v>
@@ -22816,40 +22816,40 @@
         <v>14.64304130125311</v>
       </c>
       <c r="AA32" s="1">
-        <v>23.43877697887365</v>
+        <v>23.438776919269</v>
       </c>
       <c r="AB32" s="1">
         <v>10.65147314370552</v>
       </c>
       <c r="AC32" s="1">
-        <v>49.21705450656009</v>
+        <v>49.21704997325651</v>
       </c>
       <c r="AD32" s="1">
-        <v>16.69591212333034</v>
+        <v>16.6959120637257</v>
       </c>
       <c r="AE32" s="1">
         <v>0.1636145945092835</v>
       </c>
       <c r="AF32" s="1">
-        <v>1459.485235280823</v>
+        <v>1459.485227649566</v>
       </c>
       <c r="AG32" s="1">
-        <v>473.7730079569628</v>
+        <v>473.7730060496142</v>
       </c>
       <c r="AH32" s="1">
-        <v>208.8088576893788</v>
+        <v>208.8088576744776</v>
       </c>
       <c r="AI32" s="1">
         <v>41.89280227362178</v>
       </c>
       <c r="AJ32" s="1">
-        <v>950.7640626280918</v>
+        <v>950.7640697806492</v>
       </c>
       <c r="AK32" s="1">
-        <v>1675.238730548055</v>
+        <v>1675.238735778363</v>
       </c>
       <c r="AL32" s="1">
-        <v>3134.723965828878</v>
+        <v>3134.723963427929</v>
       </c>
     </row>
   </sheetData>
@@ -23088,13 +23088,13 @@
         <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>2.695530891418457</v>
+        <v>2.695530652999878</v>
       </c>
       <c r="AK2" s="1">
-        <v>7.394135005772114</v>
+        <v>7.394134767353535</v>
       </c>
       <c r="AL2" s="1">
-        <v>18.04628515988588</v>
+        <v>18.0462849214673</v>
       </c>
     </row>
     <row r="3" spans="1:38">
@@ -23531,7 +23531,7 @@
         <v>0.05881945416331291</v>
       </c>
       <c r="AC6" s="1">
-        <v>0.4860116839408875</v>
+        <v>0.4860117435455322</v>
       </c>
       <c r="AD6" s="1">
         <v>0.1435196101665497</v>
@@ -23879,7 +23879,7 @@
         <v>0.3202133476734161</v>
       </c>
       <c r="AC9" s="1">
-        <v>8.457950592041016</v>
+        <v>8.457951545715332</v>
       </c>
       <c r="AD9" s="1">
         <v>0.846727192401886</v>
@@ -24248,13 +24248,13 @@
         <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>84.34111785888672</v>
+        <v>84.34111022949219</v>
       </c>
       <c r="AK12" s="1">
-        <v>117.6086711883545</v>
+        <v>117.60866355896</v>
       </c>
       <c r="AL12" s="1">
-        <v>139.2529716491699</v>
+        <v>139.2529640197754</v>
       </c>
     </row>
     <row r="13" spans="1:38">
@@ -24450,7 +24450,7 @@
         <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>0.03531140834093094</v>
+        <v>0.03531141206622124</v>
       </c>
       <c r="AA14" s="1">
         <v>0</v>
@@ -24480,13 +24480,13 @@
         <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>34.195556640625</v>
+        <v>34.19556045532227</v>
       </c>
       <c r="AK14" s="1">
-        <v>77.61971473693848</v>
+        <v>77.61971855163574</v>
       </c>
       <c r="AL14" s="1">
-        <v>89.20161533355713</v>
+        <v>89.20161914825439</v>
       </c>
     </row>
     <row r="15" spans="1:38">
@@ -26538,7 +26538,7 @@
         <v>8.33336306190165</v>
       </c>
       <c r="Z32" s="1">
-        <v>3.437731691976751</v>
+        <v>3.437731695702041</v>
       </c>
       <c r="AA32" s="1">
         <v>9.284464035677956</v>
@@ -26547,7 +26547,7 @@
         <v>3.886450037476607</v>
       </c>
       <c r="AC32" s="1">
-        <v>18.89321976361316</v>
+        <v>18.89322077689212</v>
       </c>
       <c r="AD32" s="1">
         <v>6.115140273981524</v>
@@ -26568,13 +26568,13 @@
         <v>16.08552983344998</v>
       </c>
       <c r="AJ32" s="1">
-        <v>537.7477267709619</v>
+        <v>537.747722717846</v>
       </c>
       <c r="AK32" s="1">
-        <v>793.3596528779017</v>
+        <v>793.3596488247858</v>
       </c>
       <c r="AL32" s="1">
-        <v>1298.403848092887</v>
+        <v>1298.403844039771</v>
       </c>
     </row>
   </sheetData>
@@ -26792,7 +26792,7 @@
         <v>0.2779150009155273</v>
       </c>
       <c r="AC2" s="1">
-        <v>0.6113582849502563</v>
+        <v>0.6113581657409668</v>
       </c>
       <c r="AD2" s="1">
         <v>0.02123665623366833</v>
@@ -26908,7 +26908,7 @@
         <v>0.1275721490383148</v>
       </c>
       <c r="AC3" s="1">
-        <v>0.2936359941959381</v>
+        <v>0.2936359345912933</v>
       </c>
       <c r="AD3" s="1">
         <v>0.08931925147771835</v>
@@ -27024,7 +27024,7 @@
         <v>0.01052027754485607</v>
       </c>
       <c r="AC4" s="1">
-        <v>9.479292930336669e-05</v>
+        <v>9.479291475145146e-05</v>
       </c>
       <c r="AD4" s="1">
         <v>0.001144016510806978</v>
@@ -27140,7 +27140,7 @@
         <v>1.279557466506958</v>
       </c>
       <c r="AC5" s="1">
-        <v>2.861047506332397</v>
+        <v>2.861047267913818</v>
       </c>
       <c r="AD5" s="1">
         <v>1.829866290092468</v>
@@ -27256,7 +27256,7 @@
         <v>0.3193925619125366</v>
       </c>
       <c r="AC6" s="1">
-        <v>2.625145196914673</v>
+        <v>2.625144958496094</v>
       </c>
       <c r="AD6" s="1">
         <v>0.8092465996742249</v>
@@ -27372,7 +27372,7 @@
         <v>0.03692401573061943</v>
       </c>
       <c r="AC7" s="1">
-        <v>0.008769349195063114</v>
+        <v>0.00876934826374054</v>
       </c>
       <c r="AD7" s="1">
         <v>0.1038713753223419</v>
@@ -27488,7 +27488,7 @@
         <v>0.4942863881587982</v>
       </c>
       <c r="AC8" s="1">
-        <v>0.8538572788238525</v>
+        <v>0.8538572192192078</v>
       </c>
       <c r="AD8" s="1">
         <v>0.7721005082130432</v>
@@ -27604,7 +27604,7 @@
         <v>1.763753533363342</v>
       </c>
       <c r="AC9" s="1">
-        <v>46.39896392822266</v>
+        <v>46.39896011352539</v>
       </c>
       <c r="AD9" s="1">
         <v>4.840408325195312</v>
@@ -27720,7 +27720,7 @@
         <v>0.00895596481859684</v>
       </c>
       <c r="AC10" s="1">
-        <v>0.2855832874774933</v>
+        <v>0.2855832576751709</v>
       </c>
       <c r="AD10" s="1">
         <v>0.1268501281738281</v>
@@ -27836,7 +27836,7 @@
         <v>0.6138545274734497</v>
       </c>
       <c r="AC11" s="1">
-        <v>0.06479518860578537</v>
+        <v>0.06479518115520477</v>
       </c>
       <c r="AD11" s="1">
         <v>0.4429906010627747</v>
@@ -27952,7 +27952,7 @@
         <v>1.835299253463745</v>
       </c>
       <c r="AC12" s="1">
-        <v>12.81636810302734</v>
+        <v>12.81636524200439</v>
       </c>
       <c r="AD12" s="1">
         <v>4.530115604400635</v>
@@ -28205,13 +28205,13 @@
         <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>25.93045997619629</v>
+        <v>25.93046188354492</v>
       </c>
       <c r="AK14" s="1">
-        <v>233.9473819732666</v>
+        <v>233.9473838806152</v>
       </c>
       <c r="AL14" s="1">
-        <v>264.3207378387451</v>
+        <v>264.3207397460938</v>
       </c>
     </row>
     <row r="15" spans="1:38">
@@ -28219,16 +28219,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>0.2444875836372375</v>
+        <v>0.2444875538349152</v>
       </c>
       <c r="C15" s="1">
         <v>0.01537779904901981</v>
       </c>
       <c r="D15" s="1">
-        <v>0.6073573231697083</v>
+        <v>0.6073572635650635</v>
       </c>
       <c r="E15" s="1">
-        <v>0.3043802380561829</v>
+        <v>0.3043802082538605</v>
       </c>
       <c r="F15" s="1">
         <v>0.1054971218109131</v>
@@ -28237,16 +28237,16 @@
         <v>0.2105237543582916</v>
       </c>
       <c r="H15" s="1">
-        <v>0.7060440182685852</v>
+        <v>0.7060439586639404</v>
       </c>
       <c r="I15" s="1">
         <v>0.1695490479469299</v>
       </c>
       <c r="J15" s="1">
-        <v>0.1630246639251709</v>
+        <v>0.1630246490240097</v>
       </c>
       <c r="K15" s="1">
-        <v>0.7753017544746399</v>
+        <v>0.7753016948699951</v>
       </c>
       <c r="L15" s="1">
         <v>1.213517904281616</v>
@@ -28255,55 +28255,55 @@
         <v>0.04174697771668434</v>
       </c>
       <c r="N15" s="1">
-        <v>0.1055652350187302</v>
+        <v>0.1055652275681496</v>
       </c>
       <c r="O15" s="1">
-        <v>5.856365203857422</v>
+        <v>5.856364727020264</v>
       </c>
       <c r="P15" s="1">
-        <v>1.808234691619873</v>
+        <v>1.808234453201294</v>
       </c>
       <c r="Q15" s="1">
-        <v>5.037213325500488</v>
+        <v>5.03721284866333</v>
       </c>
       <c r="R15" s="1">
         <v>0.3494949340820312</v>
       </c>
       <c r="S15" s="1">
-        <v>0.8143183588981628</v>
+        <v>0.8143182992935181</v>
       </c>
       <c r="T15" s="1">
-        <v>0.4609380960464478</v>
+        <v>0.460938036441803</v>
       </c>
       <c r="U15" s="1">
-        <v>0.3017611801624298</v>
+        <v>0.3017611503601074</v>
       </c>
       <c r="V15" s="1">
-        <v>0.9259800910949707</v>
+        <v>0.9259799718856812</v>
       </c>
       <c r="W15" s="1">
-        <v>0.02619446069002151</v>
+        <v>0.02619445882737637</v>
       </c>
       <c r="X15" s="1">
         <v>0.006541883572936058</v>
       </c>
       <c r="Y15" s="1">
-        <v>1.958247542381287</v>
+        <v>1.958247423171997</v>
       </c>
       <c r="Z15" s="1">
-        <v>0.9929577112197876</v>
+        <v>0.9929576516151428</v>
       </c>
       <c r="AA15" s="1">
         <v>1.235594034194946</v>
       </c>
       <c r="AB15" s="1">
-        <v>0.9634640216827393</v>
+        <v>0.9634639620780945</v>
       </c>
       <c r="AC15" s="1">
-        <v>12.33865737915039</v>
+        <v>12.33865547180176</v>
       </c>
       <c r="AD15" s="1">
-        <v>1.284735679626465</v>
+        <v>1.284735560417175</v>
       </c>
       <c r="AE15" s="1">
         <v>0</v>
@@ -28312,7 +28312,7 @@
         <v>39.0230712890625</v>
       </c>
       <c r="AG15" s="1">
-        <v>62.03272247314453</v>
+        <v>62.03271484375</v>
       </c>
       <c r="AH15" s="1">
         <v>8.102069854736328</v>
@@ -28321,13 +28321,13 @@
         <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>6.863174438476562</v>
+        <v>6.863173961639404</v>
       </c>
       <c r="AK15" s="1">
-        <v>76.99796676635742</v>
+        <v>76.99795866012573</v>
       </c>
       <c r="AL15" s="1">
-        <v>116.0210380554199</v>
+        <v>116.0210299491882</v>
       </c>
     </row>
     <row r="16" spans="1:38">
@@ -28356,7 +28356,7 @@
         <v>3.843061923980713</v>
       </c>
       <c r="I16" s="1">
-        <v>0.8011282682418823</v>
+        <v>0.8011282086372375</v>
       </c>
       <c r="J16" s="1">
         <v>0.4000160992145538</v>
@@ -28377,7 +28377,7 @@
         <v>0.3298363983631134</v>
       </c>
       <c r="P16" s="1">
-        <v>8.055668830871582</v>
+        <v>8.055667877197266</v>
       </c>
       <c r="Q16" s="1">
         <v>1.456057071685791</v>
@@ -28410,13 +28410,13 @@
         <v>2.606816053390503</v>
       </c>
       <c r="AA16" s="1">
-        <v>2.94160795211792</v>
+        <v>2.941607713699341</v>
       </c>
       <c r="AB16" s="1">
         <v>1.258788585662842</v>
       </c>
       <c r="AC16" s="1">
-        <v>2.363061666488647</v>
+        <v>2.363061428070068</v>
       </c>
       <c r="AD16" s="1">
         <v>2.034696817398071</v>
@@ -28532,7 +28532,7 @@
         <v>0.0008437780779786408</v>
       </c>
       <c r="AC17" s="1">
-        <v>0.0006441688747145236</v>
+        <v>0.0006441687582992017</v>
       </c>
       <c r="AD17" s="1">
         <v>0.0004612236516550183</v>
@@ -28648,7 +28648,7 @@
         <v>0.3216487467288971</v>
       </c>
       <c r="AC18" s="1">
-        <v>0.4362995028495789</v>
+        <v>0.4362994730472565</v>
       </c>
       <c r="AD18" s="1">
         <v>3.741661071777344</v>
@@ -28880,7 +28880,7 @@
         <v>0.7969111204147339</v>
       </c>
       <c r="AC20" s="1">
-        <v>1.737218022346497</v>
+        <v>1.737217783927917</v>
       </c>
       <c r="AD20" s="1">
         <v>0.3770534992218018</v>
@@ -28996,7 +28996,7 @@
         <v>3.51282000541687</v>
       </c>
       <c r="AC21" s="1">
-        <v>3.366585969924927</v>
+        <v>3.366585731506348</v>
       </c>
       <c r="AD21" s="1">
         <v>4.783860206604004</v>
@@ -29112,7 +29112,7 @@
         <v>1.302963972091675</v>
       </c>
       <c r="AC22" s="1">
-        <v>2.429285526275635</v>
+        <v>2.429285287857056</v>
       </c>
       <c r="AD22" s="1">
         <v>0.9322811961174011</v>
@@ -29228,7 +29228,7 @@
         <v>0.000507802062202245</v>
       </c>
       <c r="AC23" s="1">
-        <v>0.0009596282034181058</v>
+        <v>0.0009596281452104449</v>
       </c>
       <c r="AD23" s="1">
         <v>0.0004373434640001506</v>
@@ -29460,7 +29460,7 @@
         <v>1.35180127620697</v>
       </c>
       <c r="AC25" s="1">
-        <v>4.89271068572998</v>
+        <v>4.892709732055664</v>
       </c>
       <c r="AD25" s="1">
         <v>3.692424774169922</v>
@@ -29576,7 +29576,7 @@
         <v>1.230692267417908</v>
       </c>
       <c r="AC26" s="1">
-        <v>2.698019742965698</v>
+        <v>2.698019504547119</v>
       </c>
       <c r="AD26" s="1">
         <v>1.787640452384949</v>
@@ -29692,7 +29692,7 @@
         <v>0.02871278300881386</v>
       </c>
       <c r="AC27" s="1">
-        <v>0.1683854311704636</v>
+        <v>0.1683854013681412</v>
       </c>
       <c r="AD27" s="1">
         <v>0.05910009890794754</v>
@@ -29808,7 +29808,7 @@
         <v>0.05242325738072395</v>
       </c>
       <c r="AC28" s="1">
-        <v>0.01760576665401459</v>
+        <v>0.01760576479136944</v>
       </c>
       <c r="AD28" s="1">
         <v>0.01310683786869049</v>
@@ -29924,7 +29924,7 @@
         <v>0.00256416155025363</v>
       </c>
       <c r="AC29" s="1">
-        <v>0.04395584017038345</v>
+        <v>0.04395583644509315</v>
       </c>
       <c r="AD29" s="1">
         <v>0.0001991582539631054</v>
@@ -29933,7 +29933,7 @@
         <v>0</v>
       </c>
       <c r="AF29" s="1">
-        <v>0.05088915303349495</v>
+        <v>0.05088914930820465</v>
       </c>
       <c r="AG29" s="1">
         <v>0.1167303249239922</v>
@@ -29951,7 +29951,7 @@
         <v>0.5719220806277008</v>
       </c>
       <c r="AL29" s="1">
-        <v>0.6228112336611957</v>
+        <v>0.6228112299359054</v>
       </c>
     </row>
     <row r="30" spans="1:38">
@@ -30040,7 +30040,7 @@
         <v>0.3764083683490753</v>
       </c>
       <c r="AC30" s="1">
-        <v>0.06481528282165527</v>
+        <v>0.06481527537107468</v>
       </c>
       <c r="AD30" s="1">
         <v>0.07894108444452286</v>
@@ -30191,16 +30191,16 @@
         <v>37</v>
       </c>
       <c r="B32" s="1">
-        <v>49.75671454434837</v>
+        <v>49.75671451454605</v>
       </c>
       <c r="C32" s="1">
         <v>12.07460978910967</v>
       </c>
       <c r="D32" s="1">
-        <v>57.16395234361698</v>
+        <v>57.16395228401234</v>
       </c>
       <c r="E32" s="1">
-        <v>68.18231575559912</v>
+        <v>68.1823157257968</v>
       </c>
       <c r="F32" s="1">
         <v>12.10610191577143</v>
@@ -30209,16 +30209,16 @@
         <v>43.72071184079323</v>
       </c>
       <c r="H32" s="1">
-        <v>72.20358264736933</v>
+        <v>72.20358258776469</v>
       </c>
       <c r="I32" s="1">
-        <v>117.9912267452546</v>
+        <v>117.99122668565</v>
       </c>
       <c r="J32" s="1">
-        <v>21.90465011153356</v>
+        <v>21.90465009663239</v>
       </c>
       <c r="K32" s="1">
-        <v>235.9428099863653</v>
+        <v>235.9428099267607</v>
       </c>
       <c r="L32" s="1">
         <v>426.8774168856035</v>
@@ -30227,64 +30227,64 @@
         <v>15.38931556943714</v>
       </c>
       <c r="N32" s="1">
-        <v>9.708843836482174</v>
+        <v>9.708843829031593</v>
       </c>
       <c r="O32" s="1">
-        <v>44.34873795379826</v>
+        <v>44.34873747696111</v>
       </c>
       <c r="P32" s="1">
-        <v>76.30019191020529</v>
+        <v>76.30019071811239</v>
       </c>
       <c r="Q32" s="1">
-        <v>211.713056443863</v>
+        <v>211.7130559670259</v>
       </c>
       <c r="R32" s="1">
         <v>106.0990654902998</v>
       </c>
       <c r="S32" s="1">
-        <v>72.13646931081166</v>
+        <v>72.13646925120702</v>
       </c>
       <c r="T32" s="1">
-        <v>30.72733941485058</v>
+        <v>30.72733935524593</v>
       </c>
       <c r="U32" s="1">
-        <v>56.29964626401488</v>
+        <v>56.29964623421256</v>
       </c>
       <c r="V32" s="1">
-        <v>24.86330281473056</v>
+        <v>24.86330269552127</v>
       </c>
       <c r="W32" s="1">
-        <v>25.33688509903732</v>
+        <v>25.33688509717467</v>
       </c>
       <c r="X32" s="1">
         <v>19.17981444706311</v>
       </c>
       <c r="Y32" s="1">
-        <v>69.62124982893602</v>
+        <v>69.62124970972673</v>
       </c>
       <c r="Z32" s="1">
-        <v>32.49060596808704</v>
+        <v>32.49060590848239</v>
       </c>
       <c r="AA32" s="1">
-        <v>55.21777190157445</v>
+        <v>55.21777166315587</v>
       </c>
       <c r="AB32" s="1">
-        <v>22.63713892886881</v>
+        <v>22.63713886926416</v>
       </c>
       <c r="AC32" s="1">
-        <v>105.5484558866665</v>
+        <v>105.5484443315581</v>
       </c>
       <c r="AD32" s="1">
-        <v>36.7465591449436</v>
+        <v>36.74655902573431</v>
       </c>
       <c r="AE32" s="1">
         <v>0.4136380395569859</v>
       </c>
       <c r="AF32" s="1">
-        <v>2132.702179337852</v>
+        <v>2132.702179334126</v>
       </c>
       <c r="AG32" s="1">
-        <v>970.6830180661418</v>
+        <v>970.6830104367473</v>
       </c>
       <c r="AH32" s="1">
         <v>370.9393754319753</v>
@@ -30293,13 +30293,13 @@
         <v>90.76260236883536</v>
       </c>
       <c r="AJ32" s="1">
-        <v>411.9386461156319</v>
+        <v>411.9386475461433</v>
       </c>
       <c r="AK32" s="1">
-        <v>1844.323641982584</v>
+        <v>1844.323635783701</v>
       </c>
       <c r="AL32" s="1">
-        <v>3977.025821320436</v>
+        <v>3977.025815117828</v>
       </c>
     </row>
   </sheetData>
@@ -31168,7 +31168,7 @@
         <v>0.0003347923047840595</v>
       </c>
       <c r="N8" s="1">
-        <v>0.003635173896327615</v>
+        <v>0.003635174129158258</v>
       </c>
       <c r="O8" s="1">
         <v>0.002772614127025008</v>
@@ -31195,7 +31195,7 @@
         <v>0.01628711633384228</v>
       </c>
       <c r="W8" s="1">
-        <v>0.02402851730585098</v>
+        <v>0.02402851916849613</v>
       </c>
       <c r="X8" s="1">
         <v>0.004470293875783682</v>
@@ -31248,22 +31248,22 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>2.495279312133789</v>
+        <v>2.49527907371521</v>
       </c>
       <c r="C9" s="1">
-        <v>1.962439298629761</v>
+        <v>1.962439179420471</v>
       </c>
       <c r="D9" s="1">
-        <v>2.380712032318115</v>
+        <v>2.380711793899536</v>
       </c>
       <c r="E9" s="1">
         <v>0.2836147546768188</v>
       </c>
       <c r="F9" s="1">
-        <v>0.02074449881911278</v>
+        <v>0.02074449695646763</v>
       </c>
       <c r="G9" s="1">
-        <v>0.9614032506942749</v>
+        <v>0.9614031910896301</v>
       </c>
       <c r="H9" s="1">
         <v>0.2727860808372498</v>
@@ -31272,19 +31272,19 @@
         <v>0.1456511467695236</v>
       </c>
       <c r="J9" s="1">
-        <v>0.3722430169582367</v>
+        <v>0.3722429871559143</v>
       </c>
       <c r="K9" s="1">
-        <v>0.1789586097002029</v>
+        <v>0.1789585947990417</v>
       </c>
       <c r="L9" s="1">
-        <v>0.3380287289619446</v>
+        <v>0.3380286991596222</v>
       </c>
       <c r="M9" s="1">
-        <v>0.02640722878277302</v>
+        <v>0.02640722692012787</v>
       </c>
       <c r="N9" s="1">
-        <v>0.4805406928062439</v>
+        <v>0.4805406630039215</v>
       </c>
       <c r="O9" s="1">
         <v>0.1925586760044098</v>
@@ -31293,13 +31293,13 @@
         <v>1.845901966094971</v>
       </c>
       <c r="Q9" s="1">
-        <v>4.519299507141113</v>
+        <v>4.519299030303955</v>
       </c>
       <c r="R9" s="1">
         <v>0.2779431343078613</v>
       </c>
       <c r="S9" s="1">
-        <v>3.817388296127319</v>
+        <v>3.81738805770874</v>
       </c>
       <c r="T9" s="1">
         <v>0.0135828759521246</v>
@@ -31308,7 +31308,7 @@
         <v>0.01981467381119728</v>
       </c>
       <c r="V9" s="1">
-        <v>0.09240090101957321</v>
+        <v>0.09240089356899261</v>
       </c>
       <c r="W9" s="1">
         <v>0.4212579727172852</v>
@@ -31317,7 +31317,7 @@
         <v>0.4456703066825867</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.1337929219007492</v>
+        <v>0.133792906999588</v>
       </c>
       <c r="Z9" s="1">
         <v>0.834331750869751</v>
@@ -31329,34 +31329,34 @@
         <v>0.2963150143623352</v>
       </c>
       <c r="AC9" s="1">
-        <v>8.243163108825684</v>
+        <v>8.243162155151367</v>
       </c>
       <c r="AD9" s="1">
         <v>1.051896691322327</v>
       </c>
       <c r="AE9" s="1">
-        <v>0.0152467992156744</v>
+        <v>0.01524679828435183</v>
       </c>
       <c r="AF9" s="1">
-        <v>33.73739624023438</v>
+        <v>33.73739242553711</v>
       </c>
       <c r="AG9" s="1">
-        <v>27.39656829833984</v>
+        <v>27.39656639099121</v>
       </c>
       <c r="AH9" s="1">
         <v>0</v>
       </c>
       <c r="AI9" s="1">
-        <v>9.880888938903809</v>
+        <v>9.880887985229492</v>
       </c>
       <c r="AJ9" s="1">
-        <v>8.279417037963867</v>
+        <v>8.279416084289551</v>
       </c>
       <c r="AK9" s="1">
-        <v>45.55687427520752</v>
+        <v>45.55687046051025</v>
       </c>
       <c r="AL9" s="1">
-        <v>79.29427051544189</v>
+        <v>79.29426288604736</v>
       </c>
     </row>
     <row r="10" spans="1:38">
@@ -31944,82 +31944,82 @@
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>0.03680687770247459</v>
+        <v>0.0368068739771843</v>
       </c>
       <c r="C15" s="1">
-        <v>0.007751928642392159</v>
+        <v>0.007751928176730871</v>
       </c>
       <c r="D15" s="1">
-        <v>0.1997089833021164</v>
+        <v>0.1997089684009552</v>
       </c>
       <c r="E15" s="1">
-        <v>0.01191318314522505</v>
+        <v>0.01191318221390247</v>
       </c>
       <c r="F15" s="1">
-        <v>0.0007838390883989632</v>
+        <v>0.0007838390301913023</v>
       </c>
       <c r="G15" s="1">
-        <v>0.02995928376913071</v>
+        <v>0.02995928190648556</v>
       </c>
       <c r="H15" s="1">
         <v>0.00779322162270546</v>
       </c>
       <c r="I15" s="1">
-        <v>0.0005622929311357439</v>
+        <v>0.0005622928729280829</v>
       </c>
       <c r="J15" s="1">
-        <v>0.01857975125312805</v>
+        <v>0.0185797493904829</v>
       </c>
       <c r="K15" s="1">
-        <v>0.01563198119401932</v>
+        <v>0.01563197933137417</v>
       </c>
       <c r="L15" s="1">
         <v>0.04064808785915375</v>
       </c>
       <c r="M15" s="1">
-        <v>0.003665570635348558</v>
+        <v>0.003665570169687271</v>
       </c>
       <c r="N15" s="1">
-        <v>0.1161157935857773</v>
+        <v>0.1161157786846161</v>
       </c>
       <c r="O15" s="1">
         <v>0.4648444652557373</v>
       </c>
       <c r="P15" s="1">
-        <v>0.4238029718399048</v>
+        <v>0.42380291223526</v>
       </c>
       <c r="Q15" s="1">
-        <v>0.5749759674072266</v>
+        <v>0.5749759078025818</v>
       </c>
       <c r="R15" s="1">
-        <v>0.05936542525887489</v>
+        <v>0.05936542153358459</v>
       </c>
       <c r="S15" s="1">
-        <v>0.1347461193799973</v>
+        <v>0.1347461044788361</v>
       </c>
       <c r="T15" s="1">
-        <v>0.07475815713405609</v>
+        <v>0.07475814968347549</v>
       </c>
       <c r="U15" s="1">
-        <v>0.02337579987943172</v>
+        <v>0.02337579801678658</v>
       </c>
       <c r="V15" s="1">
-        <v>0.1236097812652588</v>
+        <v>0.1236097663640976</v>
       </c>
       <c r="W15" s="1">
-        <v>0.004508292768150568</v>
+        <v>0.004508292302489281</v>
       </c>
       <c r="X15" s="1">
-        <v>0.001196438912302256</v>
+        <v>0.001196438795886934</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.2358844429254532</v>
+        <v>0.235884428024292</v>
       </c>
       <c r="Z15" s="1">
         <v>0.1719623804092407</v>
       </c>
       <c r="AA15" s="1">
-        <v>0.4410840272903442</v>
+        <v>0.4410839974880219</v>
       </c>
       <c r="AB15" s="1">
         <v>0.1634453535079956</v>
@@ -32028,7 +32028,7 @@
         <v>2.214559555053711</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.2814759016036987</v>
+        <v>0.2814758718013763</v>
       </c>
       <c r="AE15" s="1">
         <v>0</v>
@@ -32046,13 +32046,13 @@
         <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>0.7066284418106079</v>
+        <v>0.7066283226013184</v>
       </c>
       <c r="AK15" s="1">
-        <v>13.10254681110382</v>
+        <v>13.10254669189453</v>
       </c>
       <c r="AL15" s="1">
-        <v>18.98606264591217</v>
+        <v>18.98606252670288</v>
       </c>
     </row>
     <row r="16" spans="1:38">
@@ -33916,115 +33916,115 @@
         <v>37</v>
       </c>
       <c r="B32" s="1">
-        <v>7.504834947063216</v>
+        <v>7.504834704919347</v>
       </c>
       <c r="C32" s="1">
-        <v>6.12055449159584</v>
+        <v>6.120554371920889</v>
       </c>
       <c r="D32" s="1">
-        <v>19.00681179711228</v>
+        <v>19.00681154379254</v>
       </c>
       <c r="E32" s="1">
-        <v>2.688612652806114</v>
+        <v>2.688612651874791</v>
       </c>
       <c r="F32" s="1">
-        <v>0.09003848983068963</v>
+        <v>0.09003848790983682</v>
       </c>
       <c r="G32" s="1">
-        <v>6.282993682110828</v>
+        <v>6.282993620643538</v>
       </c>
       <c r="H32" s="1">
         <v>0.8007833325347065</v>
       </c>
       <c r="I32" s="1">
-        <v>0.3929361558627136</v>
+        <v>0.3929361558045059</v>
       </c>
       <c r="J32" s="1">
-        <v>2.517219368544147</v>
+        <v>2.51721933687918</v>
       </c>
       <c r="K32" s="1">
-        <v>4.804109602395556</v>
+        <v>4.80410958563175</v>
       </c>
       <c r="L32" s="1">
-        <v>14.45301953289072</v>
+        <v>14.4530195030884</v>
       </c>
       <c r="M32" s="1">
-        <v>1.357899916741808</v>
+        <v>1.357899914413501</v>
       </c>
       <c r="N32" s="1">
-        <v>10.79290573192429</v>
+        <v>10.79290568745364</v>
       </c>
       <c r="O32" s="1">
         <v>3.553761530442898</v>
       </c>
       <c r="P32" s="1">
-        <v>18.10437942923909</v>
+        <v>18.10437936963444</v>
       </c>
       <c r="Q32" s="1">
-        <v>24.3705529353341</v>
+        <v>24.3705523988923</v>
       </c>
       <c r="R32" s="1">
-        <v>18.28805139497126</v>
+        <v>18.28805139124597</v>
       </c>
       <c r="S32" s="1">
-        <v>11.99296068336571</v>
+        <v>11.99296043004597</v>
       </c>
       <c r="T32" s="1">
-        <v>5.03900236471236</v>
+        <v>5.039002357261779</v>
       </c>
       <c r="U32" s="1">
-        <v>4.426490894083145</v>
+        <v>4.4264908922205</v>
       </c>
       <c r="V32" s="1">
-        <v>3.377818306065819</v>
+        <v>3.377818283714078</v>
       </c>
       <c r="W32" s="1">
-        <v>4.452318751995335</v>
+        <v>4.452318753392319</v>
       </c>
       <c r="X32" s="1">
-        <v>3.584409045855409</v>
+        <v>3.584409045738994</v>
       </c>
       <c r="Y32" s="1">
-        <v>8.526465276250406</v>
+        <v>8.526465246448083</v>
       </c>
       <c r="Z32" s="1">
         <v>5.699384323597769</v>
       </c>
       <c r="AA32" s="1">
-        <v>20.00125451429631</v>
+        <v>20.00125448449398</v>
       </c>
       <c r="AB32" s="1">
         <v>3.901449803073774</v>
       </c>
       <c r="AC32" s="1">
-        <v>19.01501365451622</v>
+        <v>19.01501270084191</v>
       </c>
       <c r="AD32" s="1">
-        <v>8.16735693272858</v>
+        <v>8.167356902926258</v>
       </c>
       <c r="AE32" s="1">
-        <v>0.08816941173159876</v>
+        <v>0.08816941080027618</v>
       </c>
       <c r="AF32" s="1">
-        <v>239.4015563298017</v>
+        <v>239.4015525151044</v>
       </c>
       <c r="AG32" s="1">
-        <v>179.2037499250637</v>
+        <v>179.203748017715</v>
       </c>
       <c r="AH32" s="1">
         <v>59.83051152830012</v>
       </c>
       <c r="AI32" s="1">
-        <v>16.45565671141958</v>
+        <v>16.45565575774526</v>
       </c>
       <c r="AJ32" s="1">
-        <v>42.42822502006857</v>
+        <v>42.42822394718496</v>
       </c>
       <c r="AK32" s="1">
-        <v>297.9181431848519</v>
+        <v>297.9181392509454</v>
       </c>
       <c r="AL32" s="1">
-        <v>537.3196995146536</v>
+        <v>537.3196917660498</v>
       </c>
     </row>
   </sheetData>
@@ -34242,7 +34242,7 @@
         <v>0.1293126493692398</v>
       </c>
       <c r="AC2" s="1">
-        <v>0.283618152141571</v>
+        <v>0.2836181223392487</v>
       </c>
       <c r="AD2" s="1">
         <v>0.01060881465673447</v>
@@ -34263,13 +34263,13 @@
         <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>6.160951137542725</v>
+        <v>6.160950660705566</v>
       </c>
       <c r="AK2" s="1">
-        <v>19.50419229269028</v>
+        <v>19.50419181585312</v>
       </c>
       <c r="AL2" s="1">
-        <v>27.12760585546494</v>
+        <v>27.12760537862778</v>
       </c>
     </row>
     <row r="3" spans="1:38">
@@ -34358,7 +34358,7 @@
         <v>0.05758049339056015</v>
       </c>
       <c r="AC3" s="1">
-        <v>0.1321438103914261</v>
+        <v>0.1321437954902649</v>
       </c>
       <c r="AD3" s="1">
         <v>0.04328332468867302</v>
@@ -34474,7 +34474,7 @@
         <v>0.00473246444016695</v>
       </c>
       <c r="AC4" s="1">
-        <v>4.251616701367311e-05</v>
+        <v>4.25161597377155e-05</v>
       </c>
       <c r="AD4" s="1">
         <v>0.000552466488443315</v>
@@ -34590,7 +34590,7 @@
         <v>0.5916645526885986</v>
       </c>
       <c r="AC5" s="1">
-        <v>1.319110512733459</v>
+        <v>1.31911039352417</v>
       </c>
       <c r="AD5" s="1">
         <v>0.908308744430542</v>
@@ -34706,7 +34706,7 @@
         <v>0.1546076834201813</v>
       </c>
       <c r="AC6" s="1">
-        <v>1.267058610916138</v>
+        <v>1.267058372497559</v>
       </c>
       <c r="AD6" s="1">
         <v>0.4207281470298767</v>
@@ -34822,7 +34822,7 @@
         <v>0.01758771389722824</v>
       </c>
       <c r="AC7" s="1">
-        <v>0.004164650104939938</v>
+        <v>0.00416464963927865</v>
       </c>
       <c r="AD7" s="1">
         <v>0.05312713608145714</v>
@@ -34938,7 +34938,7 @@
         <v>0.2286621332168579</v>
       </c>
       <c r="AC8" s="1">
-        <v>0.3938388228416443</v>
+        <v>0.3938387930393219</v>
       </c>
       <c r="AD8" s="1">
         <v>0.3834478259086609</v>
@@ -34982,7 +34982,7 @@
         <v>13.06876754760742</v>
       </c>
       <c r="E9" s="1">
-        <v>1.083425879478455</v>
+        <v>1.083425760269165</v>
       </c>
       <c r="F9" s="1">
         <v>0.6175205111503601</v>
@@ -35012,7 +35012,7 @@
         <v>1.74731707572937</v>
       </c>
       <c r="O9" s="1">
-        <v>1.352540373802185</v>
+        <v>1.352540254592896</v>
       </c>
       <c r="P9" s="1">
         <v>6.026275157928467</v>
@@ -35027,10 +35027,10 @@
         <v>13.350172996521</v>
       </c>
       <c r="T9" s="1">
-        <v>0.0828067734837532</v>
+        <v>0.08280676603317261</v>
       </c>
       <c r="U9" s="1">
-        <v>0.06014786288142204</v>
+        <v>0.06014785915613174</v>
       </c>
       <c r="V9" s="1">
         <v>0.206129252910614</v>
@@ -35054,13 +35054,13 @@
         <v>0.8539693355560303</v>
       </c>
       <c r="AC9" s="1">
-        <v>22.38604354858398</v>
+        <v>22.38603973388672</v>
       </c>
       <c r="AD9" s="1">
         <v>2.517578363418579</v>
       </c>
       <c r="AE9" s="1">
-        <v>0.03033016808331013</v>
+        <v>0.03033016622066498</v>
       </c>
       <c r="AF9" s="1">
         <v>162.4828491210938</v>
@@ -35286,7 +35286,7 @@
         <v>0.280089259147644</v>
       </c>
       <c r="AC11" s="1">
-        <v>0.0294775515794754</v>
+        <v>0.02947754971683025</v>
       </c>
       <c r="AD11" s="1">
         <v>0.2169757187366486</v>
@@ -35402,7 +35402,7 @@
         <v>0.8878477215766907</v>
       </c>
       <c r="AC12" s="1">
-        <v>6.181090354919434</v>
+        <v>6.181089401245117</v>
       </c>
       <c r="AD12" s="1">
         <v>2.353222370147705</v>
@@ -35411,7 +35411,7 @@
         <v>0.1279540657997131</v>
       </c>
       <c r="AF12" s="1">
-        <v>56.42219543457031</v>
+        <v>56.42219161987305</v>
       </c>
       <c r="AG12" s="1">
         <v>47.89640045166016</v>
@@ -35429,7 +35429,7 @@
         <v>287.8169898986816</v>
       </c>
       <c r="AL12" s="1">
-        <v>344.239185333252</v>
+        <v>344.2391815185547</v>
       </c>
     </row>
     <row r="13" spans="1:38">
@@ -35589,7 +35589,7 @@
         <v>0.3907773494720459</v>
       </c>
       <c r="N14" s="1">
-        <v>13.5883617401123</v>
+        <v>13.58836269378662</v>
       </c>
       <c r="O14" s="1">
         <v>3.937099933624268</v>
@@ -35643,7 +35643,7 @@
         <v>0</v>
       </c>
       <c r="AF14" s="1">
-        <v>27.52677345275879</v>
+        <v>27.52677726745605</v>
       </c>
       <c r="AG14" s="1">
         <v>63.01628875732422</v>
@@ -35655,13 +35655,13 @@
         <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>76.01486968994141</v>
+        <v>76.01487731933594</v>
       </c>
       <c r="AK14" s="1">
-        <v>191.4708213806152</v>
+        <v>191.4708290100098</v>
       </c>
       <c r="AL14" s="1">
-        <v>218.997594833374</v>
+        <v>218.9976062774658</v>
       </c>
     </row>
     <row r="15" spans="1:38">
@@ -35669,7 +35669,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>0.06141580268740654</v>
+        <v>0.06141579896211624</v>
       </c>
       <c r="C15" s="1">
         <v>0.01178734935820103</v>
@@ -35684,19 +35684,19 @@
         <v>0.02327686734497547</v>
       </c>
       <c r="G15" s="1">
-        <v>0.04212968796491623</v>
+        <v>0.04212968423962593</v>
       </c>
       <c r="H15" s="1">
         <v>1.099082589149475</v>
       </c>
       <c r="I15" s="1">
-        <v>0.0243168119341135</v>
+        <v>0.02431681007146835</v>
       </c>
       <c r="J15" s="1">
         <v>0.06737453490495682</v>
       </c>
       <c r="K15" s="1">
-        <v>1.621675133705139</v>
+        <v>1.62167501449585</v>
       </c>
       <c r="L15" s="1">
         <v>0.00211376347579062</v>
@@ -35708,22 +35708,22 @@
         <v>0.421682596206665</v>
       </c>
       <c r="O15" s="1">
-        <v>3.260004997253418</v>
+        <v>3.260004758834839</v>
       </c>
       <c r="P15" s="1">
         <v>1.378858327865601</v>
       </c>
       <c r="Q15" s="1">
-        <v>2.063276052474976</v>
+        <v>2.063275814056396</v>
       </c>
       <c r="R15" s="1">
-        <v>0.1588342934846878</v>
+        <v>0.1588342785835266</v>
       </c>
       <c r="S15" s="1">
         <v>0.4694709777832031</v>
       </c>
       <c r="T15" s="1">
-        <v>0.4549393355846405</v>
+        <v>0.4549393057823181</v>
       </c>
       <c r="U15" s="1">
         <v>0.07080280780792236</v>
@@ -35741,16 +35741,16 @@
         <v>0.7405697107315063</v>
       </c>
       <c r="Z15" s="1">
-        <v>0.4500630497932434</v>
+        <v>0.450063019990921</v>
       </c>
       <c r="AA15" s="1">
-        <v>0.9194558262825012</v>
+        <v>0.9194557666778564</v>
       </c>
       <c r="AB15" s="1">
         <v>0.4702884554862976</v>
       </c>
       <c r="AC15" s="1">
-        <v>6.002006530761719</v>
+        <v>6.002005577087402</v>
       </c>
       <c r="AD15" s="1">
         <v>0.6732662916183472</v>
@@ -35759,13 +35759,13 @@
         <v>0</v>
       </c>
       <c r="AF15" s="1">
-        <v>21.94194412231445</v>
+        <v>21.94194221496582</v>
       </c>
       <c r="AG15" s="1">
         <v>31.0457649230957</v>
       </c>
       <c r="AH15" s="1">
-        <v>4.141823768615723</v>
+        <v>4.141823291778564</v>
       </c>
       <c r="AI15" s="1">
         <v>0</v>
@@ -35774,10 +35774,10 @@
         <v>21.01038932800293</v>
       </c>
       <c r="AK15" s="1">
-        <v>56.19797801971436</v>
+        <v>56.1979775428772</v>
       </c>
       <c r="AL15" s="1">
-        <v>78.13992214202881</v>
+        <v>78.13991975784302</v>
       </c>
     </row>
     <row r="16" spans="1:38">
@@ -35866,7 +35866,7 @@
         <v>0.5552446246147156</v>
       </c>
       <c r="AC16" s="1">
-        <v>1.039260625839233</v>
+        <v>1.039260506629944</v>
       </c>
       <c r="AD16" s="1">
         <v>0.9634920358657837</v>
@@ -35982,7 +35982,7 @@
         <v>0.0003777556994464248</v>
       </c>
       <c r="AC17" s="1">
-        <v>0.0002875413338188082</v>
+        <v>0.0002875413047149777</v>
       </c>
       <c r="AD17" s="1">
         <v>0.0002216721914010122</v>
@@ -36098,7 +36098,7 @@
         <v>0.1440007090568542</v>
       </c>
       <c r="AC18" s="1">
-        <v>0.194753497838974</v>
+        <v>0.1947534829378128</v>
       </c>
       <c r="AD18" s="1">
         <v>1.79830801486969</v>
@@ -36214,7 +36214,7 @@
         <v>2.031660079956055</v>
       </c>
       <c r="AC19" s="1">
-        <v>3.647171974182129</v>
+        <v>3.64717173576355</v>
       </c>
       <c r="AD19" s="1">
         <v>2.11126184463501</v>
@@ -36330,7 +36330,7 @@
         <v>0.3567735850811005</v>
       </c>
       <c r="AC20" s="1">
-        <v>0.7754518985748291</v>
+        <v>0.7754518389701843</v>
       </c>
       <c r="AD20" s="1">
         <v>0.1812185347080231</v>
@@ -36446,7 +36446,7 @@
         <v>1.587861657142639</v>
       </c>
       <c r="AC21" s="1">
-        <v>1.51739501953125</v>
+        <v>1.51739490032196</v>
       </c>
       <c r="AD21" s="1">
         <v>2.320819854736328</v>
@@ -36562,7 +36562,7 @@
         <v>0.5833311676979065</v>
       </c>
       <c r="AC22" s="1">
-        <v>1.084374070167542</v>
+        <v>1.084373950958252</v>
       </c>
       <c r="AD22" s="1">
         <v>0.4480707049369812</v>
@@ -36678,7 +36678,7 @@
         <v>0.000227340729907155</v>
       </c>
       <c r="AC23" s="1">
-        <v>0.0004283547459635884</v>
+        <v>0.0004283546877559274</v>
       </c>
       <c r="AD23" s="1">
         <v>0.000210194950341247</v>
@@ -36910,7 +36910,7 @@
         <v>0.6051954030990601</v>
       </c>
       <c r="AC25" s="1">
-        <v>2.183987140655518</v>
+        <v>2.183986902236938</v>
       </c>
       <c r="AD25" s="1">
         <v>1.774644255638123</v>
@@ -37026,7 +37026,7 @@
         <v>0.550975501537323</v>
       </c>
       <c r="AC26" s="1">
-        <v>1.204330563545227</v>
+        <v>1.204330444335938</v>
       </c>
       <c r="AD26" s="1">
         <v>0.8591713905334473</v>
@@ -37142,7 +37142,7 @@
         <v>0.01285458542406559</v>
       </c>
       <c r="AC27" s="1">
-        <v>0.07516316324472427</v>
+        <v>0.07516315579414368</v>
       </c>
       <c r="AD27" s="1">
         <v>0.02840454503893852</v>
@@ -37258,7 +37258,7 @@
         <v>0.02346965856850147</v>
       </c>
       <c r="AC28" s="1">
-        <v>0.007858786731958389</v>
+        <v>0.007858785800635815</v>
       </c>
       <c r="AD28" s="1">
         <v>0.006299376487731934</v>
@@ -37267,7 +37267,7 @@
         <v>0</v>
       </c>
       <c r="AF28" s="1">
-        <v>0.08545395731925964</v>
+        <v>0.08545394986867905</v>
       </c>
       <c r="AG28" s="1">
         <v>0.07694123685359955</v>
@@ -37285,7 +37285,7 @@
         <v>0.6164424443850294</v>
       </c>
       <c r="AL28" s="1">
-        <v>0.701896401704289</v>
+        <v>0.7018963942537084</v>
       </c>
     </row>
     <row r="29" spans="1:38">
@@ -37374,7 +37374,7 @@
         <v>0.001147963688708842</v>
       </c>
       <c r="AC29" s="1">
-        <v>0.01962082087993622</v>
+        <v>0.01962081901729107</v>
       </c>
       <c r="AD29" s="1">
         <v>9.571895498083904e-05</v>
@@ -37383,7 +37383,7 @@
         <v>0</v>
       </c>
       <c r="AF29" s="1">
-        <v>0.02309933118522167</v>
+        <v>0.02309932932257652</v>
       </c>
       <c r="AG29" s="1">
         <v>0.05362795293331146</v>
@@ -37401,7 +37401,7 @@
         <v>0.2555427035549656</v>
       </c>
       <c r="AL29" s="1">
-        <v>0.2786420347401872</v>
+        <v>0.2786420328775421</v>
       </c>
     </row>
     <row r="30" spans="1:38">
@@ -37490,7 +37490,7 @@
         <v>0.1685267686843872</v>
       </c>
       <c r="AC30" s="1">
-        <v>0.0289378110319376</v>
+        <v>0.0289378073066473</v>
       </c>
       <c r="AD30" s="1">
         <v>0.03794786334037781</v>
@@ -37641,7 +37641,7 @@
         <v>37</v>
       </c>
       <c r="B32" s="1">
-        <v>11.93905077378326</v>
+        <v>11.93905077005797</v>
       </c>
       <c r="C32" s="1">
         <v>8.753166761325247</v>
@@ -37650,25 +37650,25 @@
         <v>95.58253296311523</v>
       </c>
       <c r="E32" s="1">
-        <v>9.597655509450306</v>
+        <v>9.597655390241016</v>
       </c>
       <c r="F32" s="1">
         <v>2.612409906122139</v>
       </c>
       <c r="G32" s="1">
-        <v>8.229471605382969</v>
+        <v>8.229471601657679</v>
       </c>
       <c r="H32" s="1">
         <v>106.7081107612466</v>
       </c>
       <c r="I32" s="1">
-        <v>16.0194983537624</v>
+        <v>16.01949835189976</v>
       </c>
       <c r="J32" s="1">
         <v>8.514928656226402</v>
       </c>
       <c r="K32" s="1">
-        <v>457.6539062225493</v>
+        <v>457.65390610334</v>
       </c>
       <c r="L32" s="1">
         <v>0.7120980095327241</v>
@@ -37677,28 +37677,28 @@
         <v>8.568854424698756</v>
       </c>
       <c r="N32" s="1">
-        <v>37.18905411494961</v>
+        <v>37.18905506862393</v>
       </c>
       <c r="O32" s="1">
-        <v>23.96783396659157</v>
+        <v>23.9678336089637</v>
       </c>
       <c r="P32" s="1">
         <v>54.11823713229023</v>
       </c>
       <c r="Q32" s="1">
-        <v>83.12825875090334</v>
+        <v>83.12825851248476</v>
       </c>
       <c r="R32" s="1">
-        <v>44.64809796682675</v>
+        <v>44.64809795192559</v>
       </c>
       <c r="S32" s="1">
         <v>39.35978277373215</v>
       </c>
       <c r="T32" s="1">
-        <v>28.3840291131055</v>
+        <v>28.3840290758526</v>
       </c>
       <c r="U32" s="1">
-        <v>12.30860122826198</v>
+        <v>12.30860122453669</v>
       </c>
       <c r="V32" s="1">
         <v>6.964758922757028</v>
@@ -37713,43 +37713,43 @@
         <v>24.9971230873964</v>
       </c>
       <c r="Z32" s="1">
-        <v>13.94522458126448</v>
+        <v>13.94522455146216</v>
       </c>
       <c r="AA32" s="1">
-        <v>38.29072106507374</v>
+        <v>38.29072100546909</v>
       </c>
       <c r="AB32" s="1">
         <v>10.36272946928511</v>
       </c>
       <c r="AC32" s="1">
-        <v>49.91036850954333</v>
+        <v>49.9103613107909</v>
       </c>
       <c r="AD32" s="1">
         <v>18.17477462965326</v>
       </c>
       <c r="AE32" s="1">
-        <v>0.1710918771868819</v>
+        <v>0.1710918753242368</v>
       </c>
       <c r="AF32" s="1">
-        <v>1242.253209817223</v>
+        <v>1242.253207900561</v>
       </c>
       <c r="AG32" s="1">
         <v>469.6871254548496</v>
       </c>
       <c r="AH32" s="1">
-        <v>199.9981432966306</v>
+        <v>199.9981428197934</v>
       </c>
       <c r="AI32" s="1">
         <v>42.2166398112895</v>
       </c>
       <c r="AJ32" s="1">
-        <v>1200.91616654009</v>
+        <v>1200.916173692647</v>
       </c>
       <c r="AK32" s="1">
-        <v>1912.818075102859</v>
+        <v>1912.81808177858</v>
       </c>
       <c r="AL32" s="1">
-        <v>3155.071284920083</v>
+        <v>3155.071289679141</v>
       </c>
     </row>
   </sheetData>
@@ -37967,7 +37967,7 @@
         <v>0.01990107819437981</v>
       </c>
       <c r="AC2" s="1">
-        <v>0.04659035429358482</v>
+        <v>0.04659035056829453</v>
       </c>
       <c r="AD2" s="1">
         <v>0.002539401175454259</v>
@@ -37988,13 +37988,13 @@
         <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>0.1572104692459106</v>
+        <v>0.1572104543447495</v>
       </c>
       <c r="AK2" s="1">
-        <v>2.769751265645027</v>
+        <v>2.769751250743866</v>
       </c>
       <c r="AL2" s="1">
-        <v>7.603874400258064</v>
+        <v>7.603874385356903</v>
       </c>
     </row>
     <row r="3" spans="1:38">
@@ -38083,7 +38083,7 @@
         <v>0.009183048270642757</v>
       </c>
       <c r="AC3" s="1">
-        <v>0.02249508537352085</v>
+        <v>0.0224950835108757</v>
       </c>
       <c r="AD3" s="1">
         <v>0.01073698792606592</v>
@@ -38199,7 +38199,7 @@
         <v>0.0007561413804069161</v>
       </c>
       <c r="AC4" s="1">
-        <v>7.250990620377706e-06</v>
+        <v>7.250989710883005e-06</v>
       </c>
       <c r="AD4" s="1">
         <v>0.000137296985485591</v>
@@ -38315,7 +38315,7 @@
         <v>0.0928591787815094</v>
       </c>
       <c r="AC5" s="1">
-        <v>0.2209887206554413</v>
+        <v>0.2209886908531189</v>
       </c>
       <c r="AD5" s="1">
         <v>0.2217133939266205</v>
@@ -38431,7 +38431,7 @@
         <v>0.02273713238537312</v>
       </c>
       <c r="AC6" s="1">
-        <v>0.1989021599292755</v>
+        <v>0.1989021301269531</v>
       </c>
       <c r="AD6" s="1">
         <v>0.09625362604856491</v>
@@ -38547,7 +38547,7 @@
         <v>0.002661499660462141</v>
       </c>
       <c r="AC7" s="1">
-        <v>0.0006726991268806159</v>
+        <v>0.0006726990104652941</v>
       </c>
       <c r="AD7" s="1">
         <v>0.01250567194074392</v>
@@ -38663,7 +38663,7 @@
         <v>0.03536634892225266</v>
       </c>
       <c r="AC8" s="1">
-        <v>0.06502571702003479</v>
+        <v>0.0650257021188736</v>
       </c>
       <c r="AD8" s="1">
         <v>0.09224338084459305</v>
@@ -38779,7 +38779,7 @@
         <v>0.1265335530042648</v>
       </c>
       <c r="AC9" s="1">
-        <v>3.539317846298218</v>
+        <v>3.539316892623901</v>
       </c>
       <c r="AD9" s="1">
         <v>0.5804036855697632</v>
@@ -38895,7 +38895,7 @@
         <v>0.0006425345782190561</v>
       </c>
       <c r="AC10" s="1">
-        <v>0.02180700749158859</v>
+        <v>0.02180700376629829</v>
       </c>
       <c r="AD10" s="1">
         <v>0.01520512998104095</v>
@@ -39011,7 +39011,7 @@
         <v>0.04348864406347275</v>
       </c>
       <c r="AC11" s="1">
-        <v>0.004885403905063868</v>
+        <v>0.004885402973741293</v>
       </c>
       <c r="AD11" s="1">
         <v>0.05241584405303001</v>
@@ -39058,7 +39058,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>2.51785822911188e-05</v>
+        <v>2.51785841101082e-05</v>
       </c>
       <c r="G12" s="1">
         <v>0.001207639230415225</v>
@@ -39070,7 +39070,7 @@
         <v>0.005335239693522453</v>
       </c>
       <c r="J12" s="1">
-        <v>0.001997210318222642</v>
+        <v>0.001997210551053286</v>
       </c>
       <c r="K12" s="1">
         <v>0.00515770586207509</v>
@@ -39112,13 +39112,13 @@
         <v>0.03354806080460548</v>
       </c>
       <c r="X12" s="1">
-        <v>0.0002324943634448573</v>
+        <v>0.0002324943779967725</v>
       </c>
       <c r="Y12" s="1">
         <v>1.049493432044983</v>
       </c>
       <c r="Z12" s="1">
-        <v>0.193499431014061</v>
+        <v>0.1934994459152222</v>
       </c>
       <c r="AA12" s="1">
         <v>0.2110418677330017</v>
@@ -39127,7 +39127,7 @@
         <v>0.1314716935157776</v>
       </c>
       <c r="AC12" s="1">
-        <v>0.9769555330276489</v>
+        <v>0.9769552946090698</v>
       </c>
       <c r="AD12" s="1">
         <v>0.5420040488243103</v>
@@ -39139,7 +39139,7 @@
         <v>10.95254993438721</v>
       </c>
       <c r="AG12" s="1">
-        <v>9.013277053833008</v>
+        <v>9.013278007507324</v>
       </c>
       <c r="AH12" s="1">
         <v>8.800868034362793</v>
@@ -39151,10 +39151,10 @@
         <v>4.604619026184082</v>
       </c>
       <c r="AK12" s="1">
-        <v>22.41876411437988</v>
+        <v>22.4187650680542</v>
       </c>
       <c r="AL12" s="1">
-        <v>33.37131404876709</v>
+        <v>33.37131500244141</v>
       </c>
     </row>
     <row r="13" spans="1:38">
@@ -39380,13 +39380,13 @@
         <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>1.904413461685181</v>
+        <v>1.904413938522339</v>
       </c>
       <c r="AK14" s="1">
-        <v>19.46681618690491</v>
+        <v>19.46681666374207</v>
       </c>
       <c r="AL14" s="1">
-        <v>24.7030942440033</v>
+        <v>24.70309472084045</v>
       </c>
     </row>
     <row r="15" spans="1:38">
@@ -39475,7 +39475,7 @@
         <v>0.06924572587013245</v>
       </c>
       <c r="AC15" s="1">
-        <v>0.9430505037307739</v>
+        <v>0.9430503845214844</v>
       </c>
       <c r="AD15" s="1">
         <v>0.1541871428489685</v>
@@ -39591,7 +39591,7 @@
         <v>0.09196215867996216</v>
       </c>
       <c r="AC16" s="1">
-        <v>0.1836899667978287</v>
+        <v>0.1836899369955063</v>
       </c>
       <c r="AD16" s="1">
         <v>0.2482158541679382</v>
@@ -39707,7 +39707,7 @@
         <v>6.063542241463438e-05</v>
       </c>
       <c r="AC17" s="1">
-        <v>4.926571273244917e-05</v>
+        <v>4.926570545649156e-05</v>
       </c>
       <c r="AD17" s="1">
         <v>5.534064621315338e-05</v>
@@ -39823,7 +39823,7 @@
         <v>0.02311426214873791</v>
       </c>
       <c r="AC18" s="1">
-        <v>0.03336796909570694</v>
+        <v>0.03336796537041664</v>
       </c>
       <c r="AD18" s="1">
         <v>0.4489490985870361</v>
@@ -39939,7 +39939,7 @@
         <v>0.3261117339134216</v>
       </c>
       <c r="AC19" s="1">
-        <v>0.6248859167098999</v>
+        <v>0.6248858571052551</v>
       </c>
       <c r="AD19" s="1">
         <v>0.5270782709121704</v>
@@ -40055,7 +40055,7 @@
         <v>0.05726747959852219</v>
       </c>
       <c r="AC20" s="1">
-        <v>0.1328615695238113</v>
+        <v>0.1328615546226501</v>
       </c>
       <c r="AD20" s="1">
         <v>0.04524135589599609</v>
@@ -40171,7 +40171,7 @@
         <v>0.251954972743988</v>
       </c>
       <c r="AC21" s="1">
-        <v>0.2570109963417053</v>
+        <v>0.2570109665393829</v>
       </c>
       <c r="AD21" s="1">
         <v>0.5726974010467529</v>
@@ -40192,13 +40192,13 @@
         <v>0.4579067528247833</v>
       </c>
       <c r="AJ21" s="1">
-        <v>1.554661989212036</v>
+        <v>1.554662108421326</v>
       </c>
       <c r="AK21" s="1">
-        <v>6.55020347237587</v>
+        <v>6.550203591585159</v>
       </c>
       <c r="AL21" s="1">
-        <v>14.77639976143837</v>
+        <v>14.77639988064766</v>
       </c>
     </row>
     <row r="22" spans="1:38">
@@ -40287,7 +40287,7 @@
         <v>0.09363334625959396</v>
       </c>
       <c r="AC22" s="1">
-        <v>0.185790553689003</v>
+        <v>0.1857905238866806</v>
       </c>
       <c r="AD22" s="1">
         <v>0.1118612214922905</v>
@@ -40403,7 +40403,7 @@
         <v>3.649157588370144e-05</v>
       </c>
       <c r="AC23" s="1">
-        <v>7.339189323829487e-05</v>
+        <v>7.339187868637964e-05</v>
       </c>
       <c r="AD23" s="1">
         <v>5.247534500085749e-05</v>
@@ -40635,7 +40635,7 @@
         <v>0.09714289009571075</v>
       </c>
       <c r="AC25" s="1">
-        <v>0.3741920590400696</v>
+        <v>0.3741919994354248</v>
       </c>
       <c r="AD25" s="1">
         <v>0.4430413842201233</v>
@@ -40751,7 +40751,7 @@
         <v>0.08843977749347687</v>
       </c>
       <c r="AC26" s="1">
-        <v>0.2063432186841965</v>
+        <v>0.2063431888818741</v>
       </c>
       <c r="AD26" s="1">
         <v>0.2144928425550461</v>
@@ -40867,7 +40867,7 @@
         <v>0.00206335261464119</v>
       </c>
       <c r="AC27" s="1">
-        <v>0.01287803426384926</v>
+        <v>0.01287803146988153</v>
       </c>
       <c r="AD27" s="1">
         <v>0.007091218139976263</v>
@@ -40983,7 +40983,7 @@
         <v>0.003767230315133929</v>
       </c>
       <c r="AC28" s="1">
-        <v>0.001346480334177613</v>
+        <v>0.00134648010134697</v>
       </c>
       <c r="AD28" s="1">
         <v>0.001572644570842385</v>
@@ -41099,7 +41099,7 @@
         <v>0.0001842652854975313</v>
       </c>
       <c r="AC29" s="1">
-        <v>0.003361721057444811</v>
+        <v>0.00336172035895288</v>
       </c>
       <c r="AD29" s="1">
         <v>2.389631663390901e-05</v>
@@ -41108,7 +41108,7 @@
         <v>0</v>
       </c>
       <c r="AF29" s="1">
-        <v>0.004415479023009539</v>
+        <v>0.004415478557348251</v>
       </c>
       <c r="AG29" s="1">
         <v>0.01094016246497631</v>
@@ -41126,7 +41126,7 @@
         <v>0.04313687008925626</v>
       </c>
       <c r="AL29" s="1">
-        <v>0.0475523491122658</v>
+        <v>0.04755234864660451</v>
       </c>
     </row>
     <row r="30" spans="1:38">
@@ -41215,7 +41215,7 @@
         <v>0.02705820463597775</v>
       </c>
       <c r="AC30" s="1">
-        <v>0.004959691781550646</v>
+        <v>0.004959690850228071</v>
       </c>
       <c r="AD30" s="1">
         <v>0.009476834908127785</v>
@@ -41224,7 +41224,7 @@
         <v>0</v>
       </c>
       <c r="AF30" s="1">
-        <v>0.08460282534360886</v>
+        <v>0.08460281789302826</v>
       </c>
       <c r="AG30" s="1">
         <v>0.9058188199996948</v>
@@ -41242,7 +41242,7 @@
         <v>1.136734755476937</v>
       </c>
       <c r="AL30" s="1">
-        <v>1.221337580820546</v>
+        <v>1.221337573369965</v>
       </c>
     </row>
     <row r="31" spans="1:38">
@@ -41378,7 +41378,7 @@
         <v>11.70888745709362</v>
       </c>
       <c r="F32" s="1">
-        <v>0.143095174847133</v>
+        <v>0.143095174848952</v>
       </c>
       <c r="G32" s="1">
         <v>1.093509808810325</v>
@@ -41390,7 +41390,7 @@
         <v>10.92135090338638</v>
       </c>
       <c r="J32" s="1">
-        <v>0.3010809977601241</v>
+        <v>0.3010809979929547</v>
       </c>
       <c r="K32" s="1">
         <v>2.606999483504751</v>
@@ -41432,13 +41432,13 @@
         <v>2.741593248323625</v>
       </c>
       <c r="X32" s="1">
-        <v>1.804105237748672</v>
+        <v>1.804105237763224</v>
       </c>
       <c r="Y32" s="1">
         <v>3.167773685205759</v>
       </c>
       <c r="Z32" s="1">
-        <v>1.281927091104762</v>
+        <v>1.281927106005924</v>
       </c>
       <c r="AA32" s="1">
         <v>4.406081384287972</v>
@@ -41447,7 +41447,7 @@
         <v>1.626928703662998</v>
       </c>
       <c r="AC32" s="1">
-        <v>8.061509116767866</v>
+        <v>8.06150745887453</v>
       </c>
       <c r="AD32" s="1">
         <v>4.410195448928789</v>
@@ -41456,10 +41456,10 @@
         <v>0.007420224261677433</v>
       </c>
       <c r="AF32" s="1">
-        <v>174.2033279848401</v>
+        <v>174.2033279769239</v>
       </c>
       <c r="AG32" s="1">
-        <v>90.87477847773789</v>
+        <v>90.87477943141221</v>
       </c>
       <c r="AH32" s="1">
         <v>31.70566402679833</v>
@@ -41468,13 +41468,13 @@
         <v>6.409000632207608</v>
       </c>
       <c r="AJ32" s="1">
-        <v>30.40651480275028</v>
+        <v>30.40651538389557</v>
       </c>
       <c r="AK32" s="1">
-        <v>159.3959579394941</v>
+        <v>159.3959594743137</v>
       </c>
       <c r="AL32" s="1">
-        <v>333.5992859243343</v>
+        <v>333.5992874512376</v>
       </c>
     </row>
   </sheetData>
@@ -41692,7 +41692,7 @@
         <v>0.3195143342018127</v>
       </c>
       <c r="AC2" s="1">
-        <v>0.726075291633606</v>
+        <v>0.7260752320289612</v>
       </c>
       <c r="AD2" s="1">
         <v>0.02610324695706367</v>
@@ -41713,13 +41713,13 @@
         <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>7.12848424911499</v>
+        <v>7.128483772277832</v>
       </c>
       <c r="AK2" s="1">
-        <v>42.46571880578995</v>
+        <v>42.46571832895279</v>
       </c>
       <c r="AL2" s="1">
-        <v>96.16430813074112</v>
+        <v>96.16430765390396</v>
       </c>
     </row>
     <row r="3" spans="1:38">
@@ -41808,7 +41808,7 @@
         <v>0.1465683579444885</v>
       </c>
       <c r="AC3" s="1">
-        <v>0.348495751619339</v>
+        <v>0.3484957218170166</v>
       </c>
       <c r="AD3" s="1">
         <v>0.1097281724214554</v>
@@ -41924,7 +41924,7 @@
         <v>0.01201498042792082</v>
       </c>
       <c r="AC4" s="1">
-        <v>0.0001118352229241282</v>
+        <v>0.0001118352156481706</v>
       </c>
       <c r="AD4" s="1">
         <v>0.001396782929077744</v>
@@ -42040,7 +42040,7 @@
         <v>1.486835956573486</v>
       </c>
       <c r="AC5" s="1">
-        <v>3.43415379524231</v>
+        <v>3.434153318405151</v>
       </c>
       <c r="AD5" s="1">
         <v>2.27341365814209</v>
@@ -42156,7 +42156,7 @@
         <v>0.3744373321533203</v>
       </c>
       <c r="AC6" s="1">
-        <v>3.1791090965271</v>
+        <v>3.179108619689941</v>
       </c>
       <c r="AD6" s="1">
         <v>1.014193773269653</v>
@@ -42272,7 +42272,7 @@
         <v>0.04410642012953758</v>
       </c>
       <c r="AC7" s="1">
-        <v>0.01082080602645874</v>
+        <v>0.01082080509513617</v>
       </c>
       <c r="AD7" s="1">
         <v>0.1326774209737778</v>
@@ -42334,7 +42334,7 @@
         <v>0.1304313242435455</v>
       </c>
       <c r="K8" s="1">
-        <v>0.02947145700454712</v>
+        <v>0.02947145514190197</v>
       </c>
       <c r="L8" s="1">
         <v>0.006426975596696138</v>
@@ -42388,7 +42388,7 @@
         <v>0.5820950269699097</v>
       </c>
       <c r="AC8" s="1">
-        <v>1.038750171661377</v>
+        <v>1.038750052452087</v>
       </c>
       <c r="AD8" s="1">
         <v>0.9721598625183105</v>
@@ -42397,7 +42397,7 @@
         <v>0</v>
       </c>
       <c r="AF8" s="1">
-        <v>16.83930587768555</v>
+        <v>16.83930397033691</v>
       </c>
       <c r="AG8" s="1">
         <v>2.957464456558228</v>
@@ -42415,7 +42415,7 @@
         <v>54.32514023780823</v>
       </c>
       <c r="AL8" s="1">
-        <v>71.16444611549377</v>
+        <v>71.16444420814514</v>
       </c>
     </row>
     <row r="9" spans="1:38">
@@ -42423,19 +42423,19 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>23.48811531066895</v>
+        <v>23.48811340332031</v>
       </c>
       <c r="C9" s="1">
-        <v>2.525282621383667</v>
+        <v>2.525282382965088</v>
       </c>
       <c r="D9" s="1">
-        <v>2.319016456604004</v>
+        <v>2.319016218185425</v>
       </c>
       <c r="E9" s="1">
         <v>12.41585445404053</v>
       </c>
       <c r="F9" s="1">
-        <v>1.208874702453613</v>
+        <v>1.208874583244324</v>
       </c>
       <c r="G9" s="1">
         <v>2.057240724563599</v>
@@ -42459,7 +42459,7 @@
         <v>4.249573707580566</v>
       </c>
       <c r="N9" s="1">
-        <v>10.61807250976562</v>
+        <v>10.61807155609131</v>
       </c>
       <c r="O9" s="1">
         <v>3.276086807250977</v>
@@ -42480,10 +42480,10 @@
         <v>0.1277616620063782</v>
       </c>
       <c r="U9" s="1">
-        <v>0.3245761096477509</v>
+        <v>0.3245760798454285</v>
       </c>
       <c r="V9" s="1">
-        <v>1.342430353164673</v>
+        <v>1.342430233955383</v>
       </c>
       <c r="W9" s="1">
         <v>3.241553783416748</v>
@@ -42504,7 +42504,7 @@
         <v>2.101586103439331</v>
       </c>
       <c r="AC9" s="1">
-        <v>57.16618728637695</v>
+        <v>57.16618347167969</v>
       </c>
       <c r="AD9" s="1">
         <v>6.159910202026367</v>
@@ -42516,7 +42516,7 @@
         <v>555.10791015625</v>
       </c>
       <c r="AG9" s="1">
-        <v>198.5274505615234</v>
+        <v>198.5274353027344</v>
       </c>
       <c r="AH9" s="1">
         <v>0</v>
@@ -42528,10 +42528,10 @@
         <v>280.7503967285156</v>
       </c>
       <c r="AK9" s="1">
-        <v>545.9994812011719</v>
+        <v>545.9994659423828</v>
       </c>
       <c r="AL9" s="1">
-        <v>1101.107391357422</v>
+        <v>1101.107376098633</v>
       </c>
     </row>
     <row r="10" spans="1:38">
@@ -42620,7 +42620,7 @@
         <v>0.01042600348591805</v>
       </c>
       <c r="AC10" s="1">
-        <v>0.3434323072433472</v>
+        <v>0.3434322476387024</v>
       </c>
       <c r="AD10" s="1">
         <v>0.1578832119703293</v>
@@ -42736,7 +42736,7 @@
         <v>0.7058128118515015</v>
       </c>
       <c r="AC11" s="1">
-        <v>0.0769609734416008</v>
+        <v>0.0769609659910202</v>
       </c>
       <c r="AD11" s="1">
         <v>0.544629693031311</v>
@@ -42852,7 +42852,7 @@
         <v>2.177433013916016</v>
       </c>
       <c r="AC12" s="1">
-        <v>15.70686912536621</v>
+        <v>15.70686721801758</v>
       </c>
       <c r="AD12" s="1">
         <v>5.746841430664062</v>
@@ -43105,13 +43105,13 @@
         <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>87.86791229248047</v>
+        <v>87.86793518066406</v>
       </c>
       <c r="AK14" s="1">
-        <v>333.9461288452148</v>
+        <v>333.9461517333984</v>
       </c>
       <c r="AL14" s="1">
-        <v>465.2491073608398</v>
+        <v>465.2491302490234</v>
       </c>
     </row>
     <row r="15" spans="1:38">
@@ -43122,31 +43122,31 @@
         <v>0.3364712595939636</v>
       </c>
       <c r="C15" s="1">
-        <v>0.00969207938760519</v>
+        <v>0.009692078456282616</v>
       </c>
       <c r="D15" s="1">
-        <v>0.1889013946056366</v>
+        <v>0.1889013797044754</v>
       </c>
       <c r="E15" s="1">
-        <v>0.5059348344802856</v>
+        <v>0.5059347748756409</v>
       </c>
       <c r="F15" s="1">
-        <v>0.04446669295430183</v>
+        <v>0.04446668922901154</v>
       </c>
       <c r="G15" s="1">
-        <v>0.06224086135625839</v>
+        <v>0.06224085763096809</v>
       </c>
       <c r="H15" s="1">
-        <v>0.1522557884454727</v>
+        <v>0.1522557735443115</v>
       </c>
       <c r="I15" s="1">
         <v>1.073457717895508</v>
       </c>
       <c r="J15" s="1">
-        <v>0.4709033668041229</v>
+        <v>0.4709033370018005</v>
       </c>
       <c r="K15" s="1">
-        <v>0.4776904284954071</v>
+        <v>0.4776903986930847</v>
       </c>
       <c r="L15" s="1">
         <v>0.2237046360969543</v>
@@ -43155,7 +43155,7 @@
         <v>0.5720614194869995</v>
       </c>
       <c r="N15" s="1">
-        <v>2.503512620925903</v>
+        <v>2.503512382507324</v>
       </c>
       <c r="O15" s="1">
         <v>7.711027145385742</v>
@@ -43164,52 +43164,52 @@
         <v>1.684207677841187</v>
       </c>
       <c r="Q15" s="1">
-        <v>5.485033988952637</v>
+        <v>5.485033512115479</v>
       </c>
       <c r="R15" s="1">
-        <v>0.5289043188095093</v>
+        <v>0.5289042592048645</v>
       </c>
       <c r="S15" s="1">
-        <v>1.437389254570007</v>
+        <v>1.437389135360718</v>
       </c>
       <c r="T15" s="1">
-        <v>0.6853376626968384</v>
+        <v>0.6853376030921936</v>
       </c>
       <c r="U15" s="1">
-        <v>0.3729289770126343</v>
+        <v>0.3729289472103119</v>
       </c>
       <c r="V15" s="1">
-        <v>1.754393339157104</v>
+        <v>1.754393219947815</v>
       </c>
       <c r="W15" s="1">
         <v>0.03392576426267624</v>
       </c>
       <c r="X15" s="1">
-        <v>0.00846564769744873</v>
+        <v>0.008465646766126156</v>
       </c>
       <c r="Y15" s="1">
-        <v>2.530080556869507</v>
+        <v>2.530080318450928</v>
       </c>
       <c r="Z15" s="1">
         <v>1.437057614326477</v>
       </c>
       <c r="AA15" s="1">
-        <v>1.438010334968567</v>
+        <v>1.438010215759277</v>
       </c>
       <c r="AB15" s="1">
-        <v>1.129734992980957</v>
+        <v>1.129734873771667</v>
       </c>
       <c r="AC15" s="1">
         <v>14.94775390625</v>
       </c>
       <c r="AD15" s="1">
-        <v>1.610619306564331</v>
+        <v>1.610619068145752</v>
       </c>
       <c r="AE15" s="1">
         <v>0</v>
       </c>
       <c r="AF15" s="1">
-        <v>49.41616439819336</v>
+        <v>49.41616058349609</v>
       </c>
       <c r="AG15" s="1">
         <v>80.27146911621094</v>
@@ -43221,13 +43221,13 @@
         <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>23.35960578918457</v>
+        <v>23.3596076965332</v>
       </c>
       <c r="AK15" s="1">
-        <v>112.22243309021</v>
+        <v>112.2224349975586</v>
       </c>
       <c r="AL15" s="1">
-        <v>161.6385974884033</v>
+        <v>161.6385955810547</v>
       </c>
     </row>
     <row r="16" spans="1:38">
@@ -43316,7 +43316,7 @@
         <v>1.450520515441895</v>
       </c>
       <c r="AC16" s="1">
-        <v>2.812868118286133</v>
+        <v>2.812867879867554</v>
       </c>
       <c r="AD16" s="1">
         <v>2.506783962249756</v>
@@ -43432,7 +43432,7 @@
         <v>0.0009626834653317928</v>
       </c>
       <c r="AC17" s="1">
-        <v>0.0007592042093165219</v>
+        <v>0.000759204151108861</v>
       </c>
       <c r="AD17" s="1">
         <v>0.00056261703139171</v>
@@ -43548,7 +43548,7 @@
         <v>0.3669755458831787</v>
       </c>
       <c r="AC18" s="1">
-        <v>0.5142136812210083</v>
+        <v>0.5142136216163635</v>
       </c>
       <c r="AD18" s="1">
         <v>4.564211368560791</v>
@@ -43664,7 +43664,7 @@
         <v>5.17754077911377</v>
       </c>
       <c r="AC19" s="1">
-        <v>9.629740715026855</v>
+        <v>9.629739761352539</v>
       </c>
       <c r="AD19" s="1">
         <v>5.358506202697754</v>
@@ -43780,7 +43780,7 @@
         <v>0.909212052822113</v>
       </c>
       <c r="AC20" s="1">
-        <v>2.047449588775635</v>
+        <v>2.047449350357056</v>
       </c>
       <c r="AD20" s="1">
         <v>0.4599432647228241</v>
@@ -43789,7 +43789,7 @@
         <v>0</v>
       </c>
       <c r="AF20" s="1">
-        <v>6.740283012390137</v>
+        <v>6.740282535552979</v>
       </c>
       <c r="AG20" s="1">
         <v>19.2697925567627</v>
@@ -43807,7 +43807,7 @@
         <v>19.57746869325638</v>
       </c>
       <c r="AL20" s="1">
-        <v>26.31775170564651</v>
+        <v>26.31775122880936</v>
       </c>
     </row>
     <row r="21" spans="1:38">
@@ -43896,7 +43896,7 @@
         <v>4.023105144500732</v>
       </c>
       <c r="AC21" s="1">
-        <v>3.982791662216187</v>
+        <v>3.982791185379028</v>
       </c>
       <c r="AD21" s="1">
         <v>5.858231067657471</v>
@@ -44012,7 +44012,7 @@
         <v>1.486577868461609</v>
       </c>
       <c r="AC22" s="1">
-        <v>2.863106250762939</v>
+        <v>2.86310601234436</v>
       </c>
       <c r="AD22" s="1">
         <v>1.137229681015015</v>
@@ -44360,7 +44360,7 @@
         <v>1.54229736328125</v>
       </c>
       <c r="AC25" s="1">
-        <v>5.766448497772217</v>
+        <v>5.766448020935059</v>
       </c>
       <c r="AD25" s="1">
         <v>4.504150867462158</v>
@@ -44476,7 +44476,7 @@
         <v>1.40412175655365</v>
       </c>
       <c r="AC26" s="1">
-        <v>3.179831027984619</v>
+        <v>3.179830551147461</v>
       </c>
       <c r="AD26" s="1">
         <v>2.180627346038818</v>
@@ -44592,7 +44592,7 @@
         <v>0.03275899589061737</v>
       </c>
       <c r="AC27" s="1">
-        <v>0.1984556168317795</v>
+        <v>0.1984556019306183</v>
       </c>
       <c r="AD27" s="1">
         <v>0.07209239900112152</v>
@@ -44708,7 +44708,7 @@
         <v>0.05981075391173363</v>
       </c>
       <c r="AC28" s="1">
-        <v>0.02074979618191719</v>
+        <v>0.02074979431927204</v>
       </c>
       <c r="AD28" s="1">
         <v>0.0159881878644228</v>
@@ -44824,7 +44824,7 @@
         <v>0.002925503766164184</v>
       </c>
       <c r="AC29" s="1">
-        <v>0.05180545523762703</v>
+        <v>0.05180545151233673</v>
       </c>
       <c r="AD29" s="1">
         <v>0.0002429403248243034</v>
@@ -44833,7 +44833,7 @@
         <v>0</v>
       </c>
       <c r="AF29" s="1">
-        <v>0.0605122447013855</v>
+        <v>0.0605122409760952</v>
       </c>
       <c r="AG29" s="1">
         <v>0.1469366550445557</v>
@@ -44851,7 +44851,7 @@
         <v>0.6738215396471787</v>
       </c>
       <c r="AL29" s="1">
-        <v>0.7343337843485642</v>
+        <v>0.7343337806232739</v>
       </c>
     </row>
     <row r="30" spans="1:38">
@@ -44940,7 +44940,7 @@
         <v>0.4295213222503662</v>
       </c>
       <c r="AC30" s="1">
-        <v>0.07639984041452408</v>
+        <v>0.07639983296394348</v>
       </c>
       <c r="AD30" s="1">
         <v>0.09630776196718216</v>
@@ -44949,7 +44949,7 @@
         <v>0</v>
       </c>
       <c r="AF30" s="1">
-        <v>0.8676181435585022</v>
+        <v>0.8676180839538574</v>
       </c>
       <c r="AG30" s="1">
         <v>12.16264343261719</v>
@@ -44967,7 +44967,7 @@
         <v>15.81227447465062</v>
       </c>
       <c r="AL30" s="1">
-        <v>16.67989261820912</v>
+        <v>16.67989255860448</v>
       </c>
     </row>
     <row r="31" spans="1:38">
@@ -45091,34 +45091,34 @@
         <v>37</v>
       </c>
       <c r="B32" s="1">
-        <v>68.07648819205383</v>
+        <v>68.0764862847052</v>
       </c>
       <c r="C32" s="1">
-        <v>7.548048258854124</v>
+        <v>7.548048019504222</v>
       </c>
       <c r="D32" s="1">
-        <v>17.44653669099444</v>
+        <v>17.44653643767469</v>
       </c>
       <c r="E32" s="1">
-        <v>111.8922059463803</v>
+        <v>111.8922058867756</v>
       </c>
       <c r="F32" s="1">
-        <v>5.100330889185898</v>
+        <v>5.100330766251318</v>
       </c>
       <c r="G32" s="1">
-        <v>12.82185122630835</v>
+        <v>12.82185122258306</v>
       </c>
       <c r="H32" s="1">
-        <v>15.50914870796623</v>
+        <v>15.50914869306507</v>
       </c>
       <c r="I32" s="1">
         <v>740.0789955720393</v>
       </c>
       <c r="J32" s="1">
-        <v>62.44494187240343</v>
+        <v>62.44494184260111</v>
       </c>
       <c r="K32" s="1">
-        <v>142.7235825582065</v>
+        <v>142.7235825265416</v>
       </c>
       <c r="L32" s="1">
         <v>78.36795818624523</v>
@@ -45127,7 +45127,7 @@
         <v>207.9024242662376</v>
       </c>
       <c r="N32" s="1">
-        <v>228.8710144518118</v>
+        <v>228.8710132597189</v>
       </c>
       <c r="O32" s="1">
         <v>58.32795723954041</v>
@@ -45136,55 +45136,55 @@
         <v>69.8354324910797</v>
       </c>
       <c r="Q32" s="1">
-        <v>229.5329220773201</v>
+        <v>229.532921600483</v>
       </c>
       <c r="R32" s="1">
-        <v>157.4005498768529</v>
+        <v>157.4005498172482</v>
       </c>
       <c r="S32" s="1">
-        <v>126.2141279998978</v>
+        <v>126.2141278806885</v>
       </c>
       <c r="T32" s="1">
-        <v>44.97721500034095</v>
+        <v>44.9772149407363</v>
       </c>
       <c r="U32" s="1">
-        <v>68.3594424664916</v>
+        <v>68.35944240688696</v>
       </c>
       <c r="V32" s="1">
-        <v>46.38780542259337</v>
+        <v>46.38780518417479</v>
       </c>
       <c r="W32" s="1">
         <v>32.22885360653163</v>
       </c>
       <c r="X32" s="1">
-        <v>24.33337848824522</v>
+        <v>24.33337848731389</v>
       </c>
       <c r="Y32" s="1">
-        <v>88.98435652803528</v>
+        <v>88.9843562896167</v>
       </c>
       <c r="Z32" s="1">
         <v>46.55430254387466</v>
       </c>
       <c r="AA32" s="1">
-        <v>63.11196030769497</v>
+        <v>63.11196018848568</v>
       </c>
       <c r="AB32" s="1">
-        <v>26.12812290439615</v>
+        <v>26.12812278518686</v>
       </c>
       <c r="AC32" s="1">
-        <v>128.1244707996666</v>
+        <v>128.1244606602922</v>
       </c>
       <c r="AD32" s="1">
-        <v>45.50496791518526</v>
+        <v>45.50496767676668</v>
       </c>
       <c r="AE32" s="1">
         <v>0.2934310574783012</v>
       </c>
       <c r="AF32" s="1">
-        <v>2955.082859556191</v>
+        <v>2955.082853293978</v>
       </c>
       <c r="AG32" s="1">
-        <v>1252.391958896682</v>
+        <v>1252.391943637893</v>
       </c>
       <c r="AH32" s="1">
         <v>373.5569619260496</v>
@@ -45193,13 +45193,13 @@
         <v>107.9253227105364</v>
       </c>
       <c r="AJ32" s="1">
-        <v>1397.380666046956</v>
+        <v>1397.380690365651</v>
       </c>
       <c r="AK32" s="1">
-        <v>3131.254909580224</v>
+        <v>3131.25491864013</v>
       </c>
       <c r="AL32" s="1">
-        <v>6086.337769136415</v>
+        <v>6086.337771934108</v>
       </c>
     </row>
   </sheetData>
@@ -45438,13 +45438,13 @@
         <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>5.159049034118652</v>
+        <v>5.159048557281494</v>
       </c>
       <c r="AK2" s="1">
-        <v>21.52581045031548</v>
+        <v>21.52580997347832</v>
       </c>
       <c r="AL2" s="1">
-        <v>56.67612478137016</v>
+        <v>56.676124304533</v>
       </c>
     </row>
     <row r="3" spans="1:38">
@@ -45902,13 +45902,13 @@
         <v>0.104028545320034</v>
       </c>
       <c r="AJ6" s="1">
-        <v>8.663942337036133</v>
+        <v>8.663941383361816</v>
       </c>
       <c r="AK6" s="1">
-        <v>87.89975341409445</v>
+        <v>87.89975246042013</v>
       </c>
       <c r="AL6" s="1">
-        <v>107.4069536551833</v>
+        <v>107.406952701509</v>
       </c>
     </row>
     <row r="7" spans="1:38">
@@ -46035,7 +46035,7 @@
         <v>0.01265768334269524</v>
       </c>
       <c r="C8" s="1">
-        <v>0.01853710226714611</v>
+        <v>0.01853710040450096</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
@@ -46068,7 +46068,7 @@
         <v>0.04307821020483971</v>
       </c>
       <c r="N8" s="1">
-        <v>0.005630762781947851</v>
+        <v>0.005630762316286564</v>
       </c>
       <c r="O8" s="1">
         <v>0.03236524760723114</v>
@@ -46080,7 +46080,7 @@
         <v>0.07599560171365738</v>
       </c>
       <c r="R8" s="1">
-        <v>1.430924534797668</v>
+        <v>1.430924415588379</v>
       </c>
       <c r="S8" s="1">
         <v>0.1188734620809555</v>
@@ -46190,7 +46190,7 @@
         <v>2.387835502624512</v>
       </c>
       <c r="P9" s="1">
-        <v>13.41045093536377</v>
+        <v>13.41044998168945</v>
       </c>
       <c r="Q9" s="1">
         <v>20.40679359436035</v>
@@ -46217,7 +46217,7 @@
         <v>1.515193581581116</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.4251617193222046</v>
+        <v>0.4251616895198822</v>
       </c>
       <c r="Z9" s="1">
         <v>2.605116367340088</v>
@@ -46830,13 +46830,13 @@
         <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>64.59358215332031</v>
+        <v>64.59358978271484</v>
       </c>
       <c r="AK14" s="1">
-        <v>194.0609512329102</v>
+        <v>194.0609588623047</v>
       </c>
       <c r="AL14" s="1">
-        <v>227.6425094604492</v>
+        <v>227.6425170898438</v>
       </c>
     </row>
     <row r="15" spans="1:38">
@@ -46850,13 +46850,13 @@
         <v>0.008006876334547997</v>
       </c>
       <c r="D15" s="1">
-        <v>0.1493656784296036</v>
+        <v>0.1493656635284424</v>
       </c>
       <c r="E15" s="1">
         <v>0.395175039768219</v>
       </c>
       <c r="F15" s="1">
-        <v>0.09683531522750854</v>
+        <v>0.09683530777692795</v>
       </c>
       <c r="G15" s="1">
         <v>0.09059342741966248</v>
@@ -46865,37 +46865,37 @@
         <v>1.073018074035645</v>
       </c>
       <c r="I15" s="1">
-        <v>0.3086059093475342</v>
+        <v>0.3086058795452118</v>
       </c>
       <c r="J15" s="1">
-        <v>0.09688197076320648</v>
+        <v>0.09688196331262589</v>
       </c>
       <c r="K15" s="1">
         <v>1.218681931495667</v>
       </c>
       <c r="L15" s="1">
-        <v>0.04600198939442635</v>
+        <v>0.04600198566913605</v>
       </c>
       <c r="M15" s="1">
-        <v>0.4985477328300476</v>
+        <v>0.4985476732254028</v>
       </c>
       <c r="N15" s="1">
-        <v>0.1902773827314377</v>
+        <v>0.1902773678302765</v>
       </c>
       <c r="O15" s="1">
-        <v>5.740715980529785</v>
+        <v>5.740715503692627</v>
       </c>
       <c r="P15" s="1">
-        <v>3.06426739692688</v>
+        <v>3.064267158508301</v>
       </c>
       <c r="Q15" s="1">
-        <v>2.585330963134766</v>
+        <v>2.585330724716187</v>
       </c>
       <c r="R15" s="1">
-        <v>0.2142771333456039</v>
+        <v>0.2142771184444427</v>
       </c>
       <c r="S15" s="1">
-        <v>0.6531563401222229</v>
+        <v>0.6531562805175781</v>
       </c>
       <c r="T15" s="1">
         <v>0.2659473121166229</v>
@@ -46907,22 +46907,22 @@
         <v>0.4760152995586395</v>
       </c>
       <c r="W15" s="1">
-        <v>0.01648533158004284</v>
+        <v>0.01648532971739769</v>
       </c>
       <c r="X15" s="1">
         <v>0.004051383584737778</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.7469509243965149</v>
+        <v>0.7469508647918701</v>
       </c>
       <c r="Z15" s="1">
-        <v>0.5347856283187866</v>
+        <v>0.5347855687141418</v>
       </c>
       <c r="AA15" s="1">
         <v>1.04854416847229</v>
       </c>
       <c r="AB15" s="1">
-        <v>0.5620130300521851</v>
+        <v>0.5620129704475403</v>
       </c>
       <c r="AC15" s="1">
         <v>7.248638153076172</v>
@@ -46946,13 +46946,13 @@
         <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>17.51115608215332</v>
+        <v>17.51115417480469</v>
       </c>
       <c r="AK15" s="1">
-        <v>60.24111557006836</v>
+        <v>60.24111366271973</v>
       </c>
       <c r="AL15" s="1">
-        <v>88.62495613098145</v>
+        <v>88.62495422363281</v>
       </c>
     </row>
     <row r="16" spans="1:38">
@@ -48819,16 +48819,16 @@
         <v>34.54328077349339</v>
       </c>
       <c r="C32" s="1">
-        <v>6.0185112386946</v>
+        <v>6.018511236831955</v>
       </c>
       <c r="D32" s="1">
-        <v>13.2654718007002</v>
+        <v>13.26547178579904</v>
       </c>
       <c r="E32" s="1">
         <v>84.39686672241805</v>
       </c>
       <c r="F32" s="1">
-        <v>10.87472573322975</v>
+        <v>10.87472572577917</v>
       </c>
       <c r="G32" s="1">
         <v>17.91421346961124</v>
@@ -48837,37 +48837,37 @@
         <v>105.3324108340021</v>
       </c>
       <c r="I32" s="1">
-        <v>205.5609637333437</v>
+        <v>205.5609637035413</v>
       </c>
       <c r="J32" s="1">
-        <v>12.39743956100028</v>
+        <v>12.3974395535497</v>
       </c>
       <c r="K32" s="1">
         <v>349.2014087857242</v>
       </c>
       <c r="L32" s="1">
-        <v>15.64701766108919</v>
+        <v>15.6470176573639</v>
       </c>
       <c r="M32" s="1">
-        <v>174.4897504153187</v>
+        <v>174.489750355714</v>
       </c>
       <c r="N32" s="1">
-        <v>16.91211336388369</v>
+        <v>16.91211334851687</v>
       </c>
       <c r="O32" s="1">
-        <v>42.47803754729102</v>
+        <v>42.47803707045387</v>
       </c>
       <c r="P32" s="1">
-        <v>122.0648752698598</v>
+        <v>122.0648740777669</v>
       </c>
       <c r="Q32" s="1">
-        <v>105.1002697980789</v>
+        <v>105.1002695596603</v>
       </c>
       <c r="R32" s="1">
-        <v>61.27678460553579</v>
+        <v>61.27678447142534</v>
       </c>
       <c r="S32" s="1">
-        <v>55.39769718710158</v>
+        <v>55.39769712749694</v>
       </c>
       <c r="T32" s="1">
         <v>16.91626115249528</v>
@@ -48879,22 +48879,22 @@
         <v>12.22573214482691</v>
       </c>
       <c r="W32" s="1">
-        <v>15.08243805170059</v>
+        <v>15.08243804983795</v>
       </c>
       <c r="X32" s="1">
         <v>11.2204904610735</v>
       </c>
       <c r="Y32" s="1">
-        <v>25.56264384127962</v>
+        <v>25.56264375187266</v>
       </c>
       <c r="Z32" s="1">
-        <v>16.79701519539594</v>
+        <v>16.7970151357913</v>
       </c>
       <c r="AA32" s="1">
         <v>44.41421447781613</v>
       </c>
       <c r="AB32" s="1">
-        <v>12.58846112850006</v>
+        <v>12.58846106889541</v>
       </c>
       <c r="AC32" s="1">
         <v>60.74024507934155</v>
@@ -48918,13 +48918,13 @@
         <v>51.39309381763451</v>
       </c>
       <c r="AJ32" s="1">
-        <v>1017.919681747153</v>
+        <v>1017.919686038687</v>
       </c>
       <c r="AK32" s="1">
-        <v>1852.271766250058</v>
+        <v>1852.271770541593</v>
       </c>
       <c r="AL32" s="1">
-        <v>3543.952244283668</v>
+        <v>3543.952248575202</v>
       </c>
     </row>
   </sheetData>
@@ -49142,7 +49142,7 @@
         <v>0.115144707262516</v>
       </c>
       <c r="AC2" s="1">
-        <v>0.2631362676620483</v>
+        <v>0.2631361782550812</v>
       </c>
       <c r="AD2" s="1">
         <v>0.009884282015264034</v>
@@ -49163,13 +49163,13 @@
         <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>1.969521641731262</v>
+        <v>1.969521403312683</v>
       </c>
       <c r="AK2" s="1">
-        <v>14.77183303236961</v>
+        <v>14.77183279395103</v>
       </c>
       <c r="AL2" s="1">
-        <v>50.53854903578758</v>
+        <v>50.538548797369</v>
       </c>
     </row>
     <row r="3" spans="1:38">
@@ -49192,7 +49192,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>2.932483196258545</v>
+        <v>2.932482957839966</v>
       </c>
       <c r="H3" s="1">
         <v>1.177636384963989</v>
@@ -49201,7 +49201,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>0.0004170365573372692</v>
+        <v>0.0004170365282334387</v>
       </c>
       <c r="K3" s="1">
         <v>6.29985734121874e-05</v>
@@ -49231,7 +49231,7 @@
         <v>0.03202347457408905</v>
       </c>
       <c r="T3" s="1">
-        <v>1.050330281257629</v>
+        <v>1.05033016204834</v>
       </c>
       <c r="U3" s="1">
         <v>0.01835927367210388</v>
@@ -49243,7 +49243,7 @@
         <v>0.06160059571266174</v>
       </c>
       <c r="X3" s="1">
-        <v>0.01526385918259621</v>
+        <v>0.01526385825127363</v>
       </c>
       <c r="Y3" s="1">
         <v>0.04752448946237564</v>
@@ -49258,7 +49258,7 @@
         <v>0.05313878506422043</v>
       </c>
       <c r="AC3" s="1">
-        <v>0.1270657926797867</v>
+        <v>0.1270657628774643</v>
       </c>
       <c r="AD3" s="1">
         <v>0.04179932922124863</v>
@@ -49273,7 +49273,7 @@
         <v>2.678604125976562</v>
       </c>
       <c r="AH3" s="1">
-        <v>0.2388104200363159</v>
+        <v>0.2388104051351547</v>
       </c>
       <c r="AI3" s="1">
         <v>0</v>
@@ -49282,10 +49282,10 @@
         <v>0.2267892062664032</v>
       </c>
       <c r="AK3" s="1">
-        <v>3.144203752279282</v>
+        <v>3.14420373737812</v>
       </c>
       <c r="AL3" s="1">
-        <v>12.61267623305321</v>
+        <v>12.61267621815205</v>
       </c>
     </row>
     <row r="4" spans="1:38">
@@ -49374,7 +49374,7 @@
         <v>0.00437458697706461</v>
       </c>
       <c r="AC4" s="1">
-        <v>4.094931136933155e-05</v>
+        <v>4.094930409337394e-05</v>
       </c>
       <c r="AD4" s="1">
         <v>0.000534392602276057</v>
@@ -49490,7 +49490,7 @@
         <v>0.5440621376037598</v>
       </c>
       <c r="AC5" s="1">
-        <v>1.263909220695496</v>
+        <v>1.263908863067627</v>
       </c>
       <c r="AD5" s="1">
         <v>0.8739000558853149</v>
@@ -49606,7 +49606,7 @@
         <v>0.1344907879829407</v>
       </c>
       <c r="AC6" s="1">
-        <v>1.148467302322388</v>
+        <v>1.148467063903809</v>
       </c>
       <c r="AD6" s="1">
         <v>0.3830786943435669</v>
@@ -49722,7 +49722,7 @@
         <v>0.0157427117228508</v>
       </c>
       <c r="AC7" s="1">
-        <v>0.003884080331772566</v>
+        <v>0.003884079633280635</v>
       </c>
       <c r="AD7" s="1">
         <v>0.04976673796772957</v>
@@ -49838,7 +49838,7 @@
         <v>0.2091773897409439</v>
       </c>
       <c r="AC8" s="1">
-        <v>0.3754459321498871</v>
+        <v>0.3754458427429199</v>
       </c>
       <c r="AD8" s="1">
         <v>0.3670443892478943</v>
@@ -49876,7 +49876,7 @@
         <v>5.850480556488037</v>
       </c>
       <c r="C9" s="1">
-        <v>1.780810117721558</v>
+        <v>1.780809998512268</v>
       </c>
       <c r="D9" s="1">
         <v>0.7398420572280884</v>
@@ -49885,7 +49885,7 @@
         <v>10.8242359161377</v>
       </c>
       <c r="F9" s="1">
-        <v>0.8152332901954651</v>
+        <v>0.8152332305908203</v>
       </c>
       <c r="G9" s="1">
         <v>1.853748440742493</v>
@@ -49912,7 +49912,7 @@
         <v>1.081191778182983</v>
       </c>
       <c r="O9" s="1">
-        <v>0.9756307005882263</v>
+        <v>0.9756306409835815</v>
       </c>
       <c r="P9" s="1">
         <v>5.073132991790771</v>
@@ -49927,7 +49927,7 @@
         <v>9.169631958007812</v>
       </c>
       <c r="T9" s="1">
-        <v>0.04065938666462898</v>
+        <v>0.04065938293933868</v>
       </c>
       <c r="U9" s="1">
         <v>0.08450060337781906</v>
@@ -49954,7 +49954,7 @@
         <v>0.7473323345184326</v>
       </c>
       <c r="AC9" s="1">
-        <v>20.39611434936523</v>
+        <v>20.39610862731934</v>
       </c>
       <c r="AD9" s="1">
         <v>2.307309150695801</v>
@@ -49963,7 +49963,7 @@
         <v>0.01714444532990456</v>
       </c>
       <c r="AF9" s="1">
-        <v>114.9871444702148</v>
+        <v>114.9871368408203</v>
       </c>
       <c r="AG9" s="1">
         <v>71.00325012207031</v>
@@ -49972,16 +49972,16 @@
         <v>0</v>
       </c>
       <c r="AI9" s="1">
-        <v>24.08205032348633</v>
+        <v>24.0820484161377</v>
       </c>
       <c r="AJ9" s="1">
         <v>76.81922912597656</v>
       </c>
       <c r="AK9" s="1">
-        <v>171.9045295715332</v>
+        <v>171.9045276641846</v>
       </c>
       <c r="AL9" s="1">
-        <v>286.891674041748</v>
+        <v>286.8916645050049</v>
       </c>
     </row>
     <row r="10" spans="1:38">
@@ -50070,7 +50070,7 @@
         <v>0.003757857019081712</v>
       </c>
       <c r="AC10" s="1">
-        <v>0.1244975328445435</v>
+        <v>0.1244975030422211</v>
       </c>
       <c r="AD10" s="1">
         <v>0.05983097106218338</v>
@@ -50186,7 +50186,7 @@
         <v>0.2560928165912628</v>
       </c>
       <c r="AC11" s="1">
-        <v>0.02808265760540962</v>
+        <v>0.02808265201747417</v>
       </c>
       <c r="AD11" s="1">
         <v>0.2076517641544342</v>
@@ -50302,7 +50302,7 @@
         <v>0.7853661775588989</v>
       </c>
       <c r="AC12" s="1">
-        <v>5.696627616882324</v>
+        <v>5.696626663208008</v>
       </c>
       <c r="AD12" s="1">
         <v>2.178318023681641</v>
@@ -50311,7 +50311,7 @@
         <v>0.07305582612752914</v>
       </c>
       <c r="AF12" s="1">
-        <v>58.99953842163086</v>
+        <v>58.99953460693359</v>
       </c>
       <c r="AG12" s="1">
         <v>45.83261871337891</v>
@@ -50323,13 +50323,13 @@
         <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>59.00695037841797</v>
+        <v>59.00694274902344</v>
       </c>
       <c r="AK12" s="1">
-        <v>134.0723056793213</v>
+        <v>134.0722980499268</v>
       </c>
       <c r="AL12" s="1">
-        <v>193.0718441009521</v>
+        <v>193.0718326568604</v>
       </c>
     </row>
     <row r="13" spans="1:38">
@@ -50555,13 +50555,13 @@
         <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>24.2368221282959</v>
+        <v>24.23682403564453</v>
       </c>
       <c r="AK14" s="1">
-        <v>115.2942218780518</v>
+        <v>115.2942237854004</v>
       </c>
       <c r="AL14" s="1">
-        <v>138.1837368011475</v>
+        <v>138.1837387084961</v>
       </c>
     </row>
     <row r="15" spans="1:38">
@@ -50572,16 +50572,16 @@
         <v>0.08514870703220367</v>
       </c>
       <c r="C15" s="1">
-        <v>0.006941108033061028</v>
+        <v>0.00694110756739974</v>
       </c>
       <c r="D15" s="1">
         <v>0.0612354502081871</v>
       </c>
       <c r="E15" s="1">
-        <v>0.4485814869403839</v>
+        <v>0.4485814571380615</v>
       </c>
       <c r="F15" s="1">
-        <v>0.03039936535060406</v>
+        <v>0.03039936348795891</v>
       </c>
       <c r="G15" s="1">
         <v>0.05699644237756729</v>
@@ -50593,13 +50593,13 @@
         <v>0.04307933524250984</v>
       </c>
       <c r="J15" s="1">
-        <v>0.2143261581659317</v>
+        <v>0.2143261432647705</v>
       </c>
       <c r="K15" s="1">
-        <v>0.5728728771209717</v>
+        <v>0.5728728175163269</v>
       </c>
       <c r="L15" s="1">
-        <v>0.0389200784265995</v>
+        <v>0.0389200747013092</v>
       </c>
       <c r="M15" s="1">
         <v>0.1351747810840607</v>
@@ -50611,37 +50611,37 @@
         <v>2.324652910232544</v>
       </c>
       <c r="P15" s="1">
-        <v>1.149245500564575</v>
+        <v>1.149245381355286</v>
       </c>
       <c r="Q15" s="1">
-        <v>1.744845271110535</v>
+        <v>1.744845151901245</v>
       </c>
       <c r="R15" s="1">
-        <v>0.188748762011528</v>
+        <v>0.1887487471103668</v>
       </c>
       <c r="S15" s="1">
         <v>0.3193434774875641</v>
       </c>
       <c r="T15" s="1">
-        <v>0.2208698987960815</v>
+        <v>0.2208698838949203</v>
       </c>
       <c r="U15" s="1">
-        <v>0.09838221967220306</v>
+        <v>0.09838221222162247</v>
       </c>
       <c r="V15" s="1">
         <v>0.3794923424720764</v>
       </c>
       <c r="W15" s="1">
-        <v>0.01208961848169565</v>
+        <v>0.01208961755037308</v>
       </c>
       <c r="X15" s="1">
         <v>0.003061795607209206</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.7900941371917725</v>
+        <v>0.7900940775871277</v>
       </c>
       <c r="Z15" s="1">
-        <v>0.3446448743343353</v>
+        <v>0.3446448445320129</v>
       </c>
       <c r="AA15" s="1">
         <v>0.6949628591537476</v>
@@ -50650,7 +50650,7 @@
         <v>0.4068736732006073</v>
       </c>
       <c r="AC15" s="1">
-        <v>5.408024311065674</v>
+        <v>5.408023357391357</v>
       </c>
       <c r="AD15" s="1">
         <v>0.6095027923583984</v>
@@ -50659,7 +50659,7 @@
         <v>0</v>
       </c>
       <c r="AF15" s="1">
-        <v>16.85864067077637</v>
+        <v>16.85863876342773</v>
       </c>
       <c r="AG15" s="1">
         <v>29.03747940063477</v>
@@ -50677,7 +50677,7 @@
         <v>38.34919571876526</v>
       </c>
       <c r="AL15" s="1">
-        <v>55.20783638954163</v>
+        <v>55.20783448219299</v>
       </c>
     </row>
     <row r="16" spans="1:38">
@@ -50766,7 +50766,7 @@
         <v>0.5194517970085144</v>
       </c>
       <c r="AC16" s="1">
-        <v>1.012766003608704</v>
+        <v>1.012765765190125</v>
       </c>
       <c r="AD16" s="1">
         <v>0.9432536363601685</v>
@@ -50775,7 +50775,7 @@
         <v>0.004042310640215874</v>
       </c>
       <c r="AF16" s="1">
-        <v>42.75255966186523</v>
+        <v>42.75255584716797</v>
       </c>
       <c r="AG16" s="1">
         <v>8.500144958496094</v>
@@ -50793,7 +50793,7 @@
         <v>10.4129284620285</v>
       </c>
       <c r="AL16" s="1">
-        <v>53.16548812389374</v>
+        <v>53.16548430919647</v>
       </c>
     </row>
     <row r="17" spans="1:38">
@@ -50882,7 +50882,7 @@
         <v>0.0003499362501315773</v>
       </c>
       <c r="AC17" s="1">
-        <v>0.0002775386674329638</v>
+        <v>0.0002775386092253029</v>
       </c>
       <c r="AD17" s="1">
         <v>0.0002148610365111381</v>
@@ -50998,7 +50998,7 @@
         <v>0.1333959251642227</v>
       </c>
       <c r="AC18" s="1">
-        <v>0.1879786401987076</v>
+        <v>0.187978595495224</v>
       </c>
       <c r="AD18" s="1">
         <v>1.743052840232849</v>
@@ -51114,7 +51114,7 @@
         <v>1.882040500640869</v>
       </c>
       <c r="AC19" s="1">
-        <v>3.520298480987549</v>
+        <v>3.520297527313232</v>
       </c>
       <c r="AD19" s="1">
         <v>2.046390533447266</v>
@@ -51230,7 +51230,7 @@
         <v>0.3304993510246277</v>
       </c>
       <c r="AC20" s="1">
-        <v>0.7484763860702515</v>
+        <v>0.7484762072563171</v>
       </c>
       <c r="AD20" s="1">
         <v>0.1756503731012344</v>
@@ -51239,7 +51239,7 @@
         <v>0</v>
       </c>
       <c r="AF20" s="1">
-        <v>2.333152055740356</v>
+        <v>2.333151817321777</v>
       </c>
       <c r="AG20" s="1">
         <v>7.048811912536621</v>
@@ -51257,7 +51257,7 @@
         <v>7.141660710796714</v>
       </c>
       <c r="AL20" s="1">
-        <v>9.47481276653707</v>
+        <v>9.474812528118491</v>
       </c>
     </row>
     <row r="21" spans="1:38">
@@ -51346,7 +51346,7 @@
         <v>1.458976864814758</v>
       </c>
       <c r="AC21" s="1">
-        <v>1.452816247940063</v>
+        <v>1.452816009521484</v>
       </c>
       <c r="AD21" s="1">
         <v>2.230722427368164</v>
@@ -51462,7 +51462,7 @@
         <v>0.5403723120689392</v>
       </c>
       <c r="AC22" s="1">
-        <v>1.04665219783783</v>
+        <v>1.046651840209961</v>
       </c>
       <c r="AD22" s="1">
         <v>0.4343031644821167</v>
@@ -51578,7 +51578,7 @@
         <v>0.0002105984458466992</v>
       </c>
       <c r="AC23" s="1">
-        <v>0.0004134536138735712</v>
+        <v>0.0004134535265620798</v>
       </c>
       <c r="AD23" s="1">
         <v>0.0002037364465650171</v>
@@ -51587,7 +51587,7 @@
         <v>3.767248699659831e-07</v>
       </c>
       <c r="AF23" s="1">
-        <v>0.003765316447243094</v>
+        <v>0.003765316214412451</v>
       </c>
       <c r="AG23" s="1">
         <v>0.003274017246440053</v>
@@ -51605,7 +51605,7 @@
         <v>0.003695681662065908</v>
       </c>
       <c r="AL23" s="1">
-        <v>0.007460998109309003</v>
+        <v>0.007460997876478359</v>
       </c>
     </row>
     <row r="24" spans="1:38">
@@ -51810,7 +51810,7 @@
         <v>0.5606263875961304</v>
       </c>
       <c r="AC25" s="1">
-        <v>2.108013153076172</v>
+        <v>2.108012676239014</v>
       </c>
       <c r="AD25" s="1">
         <v>1.720116019248962</v>
@@ -51819,7 +51819,7 @@
         <v>0</v>
       </c>
       <c r="AF25" s="1">
-        <v>102.7567977905273</v>
+        <v>102.7567901611328</v>
       </c>
       <c r="AG25" s="1">
         <v>1.324377536773682</v>
@@ -51837,7 +51837,7 @@
         <v>44.16856908798218</v>
       </c>
       <c r="AL25" s="1">
-        <v>146.9253668785095</v>
+        <v>146.925359249115</v>
       </c>
     </row>
     <row r="26" spans="1:38">
@@ -51926,7 +51926,7 @@
         <v>0.5103994607925415</v>
       </c>
       <c r="AC26" s="1">
-        <v>1.1624356508255</v>
+        <v>1.162435412406921</v>
       </c>
       <c r="AD26" s="1">
         <v>0.8327722549438477</v>
@@ -52042,7 +52042,7 @@
         <v>0.01190792210400105</v>
       </c>
       <c r="AC27" s="1">
-        <v>0.07254847884178162</v>
+        <v>0.07254845649003983</v>
       </c>
       <c r="AD27" s="1">
         <v>0.02753178030252457</v>
@@ -52158,7 +52158,7 @@
         <v>0.02174125984311104</v>
       </c>
       <c r="AC28" s="1">
-        <v>0.007585404440760612</v>
+        <v>0.007585403043776751</v>
       </c>
       <c r="AD28" s="1">
         <v>0.006105820648372173</v>
@@ -52274,7 +52274,7 @@
         <v>0.001063423114828765</v>
       </c>
       <c r="AC29" s="1">
-        <v>0.01893827319145203</v>
+        <v>0.01893826946616173</v>
       </c>
       <c r="AD29" s="1">
         <v>9.277787466999143e-05</v>
@@ -52283,7 +52283,7 @@
         <v>0</v>
       </c>
       <c r="AF29" s="1">
-        <v>0.02208674512803555</v>
+        <v>0.02208674140274525</v>
       </c>
       <c r="AG29" s="1">
         <v>0.05374883487820625</v>
@@ -52301,7 +52301,7 @@
         <v>0.2484657612585579</v>
       </c>
       <c r="AL29" s="1">
-        <v>0.2705525063865934</v>
+        <v>0.2705525026613032</v>
       </c>
     </row>
     <row r="30" spans="1:38">
@@ -52390,7 +52390,7 @@
         <v>0.156114399433136</v>
       </c>
       <c r="AC30" s="1">
-        <v>0.02793403528630733</v>
+        <v>0.02793402783572674</v>
       </c>
       <c r="AD30" s="1">
         <v>0.03678544610738754</v>
@@ -52399,7 +52399,7 @@
         <v>0</v>
       </c>
       <c r="AF30" s="1">
-        <v>0.3115161955356598</v>
+        <v>0.3115161657333374</v>
       </c>
       <c r="AG30" s="1">
         <v>4.44914722442627</v>
@@ -52417,7 +52417,7 @@
         <v>5.784491075202823</v>
       </c>
       <c r="AL30" s="1">
-        <v>6.096007270738482</v>
+        <v>6.09600724093616</v>
       </c>
     </row>
     <row r="31" spans="1:38">
@@ -52544,19 +52544,19 @@
         <v>17.16175138995146</v>
       </c>
       <c r="C32" s="1">
-        <v>5.382872650925947</v>
+        <v>5.382872531250996</v>
       </c>
       <c r="D32" s="1">
         <v>5.660373204711732</v>
       </c>
       <c r="E32" s="1">
-        <v>99.25210765165684</v>
+        <v>99.25210762185452</v>
       </c>
       <c r="F32" s="1">
-        <v>3.465378031730324</v>
+        <v>3.465377970263035</v>
       </c>
       <c r="G32" s="1">
-        <v>11.68311086936228</v>
+        <v>11.6831106309437</v>
       </c>
       <c r="H32" s="1">
         <v>21.48103733829885</v>
@@ -52565,13 +52565,13 @@
         <v>29.61098816112599</v>
       </c>
       <c r="J32" s="1">
-        <v>28.37030572510412</v>
+        <v>28.37030571017385</v>
       </c>
       <c r="K32" s="1">
-        <v>171.2018595788395</v>
+        <v>171.2018595192349</v>
       </c>
       <c r="L32" s="1">
-        <v>13.63321500304937</v>
+        <v>13.63321499932408</v>
       </c>
       <c r="M32" s="1">
         <v>49.16586675566339</v>
@@ -52580,40 +52580,40 @@
         <v>23.61851472336457</v>
       </c>
       <c r="O32" s="1">
-        <v>17.59768983269532</v>
+        <v>17.59768977309068</v>
       </c>
       <c r="P32" s="1">
-        <v>47.63530895725216</v>
+        <v>47.63530883804287</v>
       </c>
       <c r="Q32" s="1">
-        <v>72.9875074899096</v>
+        <v>72.98750737070031</v>
       </c>
       <c r="R32" s="1">
-        <v>56.22741125123866</v>
+        <v>56.2274112363375</v>
       </c>
       <c r="S32" s="1">
         <v>27.91706188298667</v>
       </c>
       <c r="T32" s="1">
-        <v>14.63008177527809</v>
+        <v>14.63008163744234</v>
       </c>
       <c r="U32" s="1">
-        <v>18.09009881118254</v>
+        <v>18.09009880373196</v>
       </c>
       <c r="V32" s="1">
         <v>10.10446535095616</v>
       </c>
       <c r="W32" s="1">
-        <v>11.53684873742168</v>
+        <v>11.53684873649036</v>
       </c>
       <c r="X32" s="1">
-        <v>8.846180467769045</v>
+        <v>8.846180466837723</v>
       </c>
       <c r="Y32" s="1">
-        <v>27.95240046305548</v>
+        <v>27.95240040345084</v>
       </c>
       <c r="Z32" s="1">
-        <v>11.18101565148027</v>
+        <v>11.18101562167794</v>
       </c>
       <c r="AA32" s="1">
         <v>30.59695783379721</v>
@@ -52622,7 +52622,7 @@
         <v>9.457408326372388</v>
       </c>
       <c r="AC32" s="1">
-        <v>46.20242995750232</v>
+        <v>46.20241872536644</v>
       </c>
       <c r="AD32" s="1">
         <v>17.28581625483639</v>
@@ -52631,25 +52631,25 @@
         <v>0.09776023100619113</v>
       </c>
       <c r="AF32" s="1">
-        <v>908.0338229814079</v>
+        <v>908.0337979136966</v>
       </c>
       <c r="AG32" s="1">
         <v>454.5354239405642</v>
       </c>
       <c r="AH32" s="1">
-        <v>119.7381285417068</v>
+        <v>119.7381285268057</v>
       </c>
       <c r="AI32" s="1">
-        <v>39.30066969082691</v>
+        <v>39.30066778347827</v>
       </c>
       <c r="AJ32" s="1">
-        <v>385.810875753079</v>
+        <v>385.8108697926145</v>
       </c>
       <c r="AK32" s="1">
-        <v>999.385097926177</v>
+        <v>999.3850900434627</v>
       </c>
       <c r="AL32" s="1">
-        <v>1907.418920907585</v>
+        <v>1907.418887957159</v>
       </c>
     </row>
   </sheetData>
@@ -52888,13 +52888,13 @@
         <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>6.4145827293396</v>
+        <v>6.414583206176758</v>
       </c>
       <c r="AK2" s="1">
-        <v>43.60779345035553</v>
+        <v>43.60779392719269</v>
       </c>
       <c r="AL2" s="1">
-        <v>76.71563494205475</v>
+        <v>76.71563541889191</v>
       </c>
     </row>
     <row r="3" spans="1:38">
@@ -53601,13 +53601,13 @@
         <v>10.85251998901367</v>
       </c>
       <c r="C9" s="1">
-        <v>3.689182281494141</v>
+        <v>3.68918251991272</v>
       </c>
       <c r="D9" s="1">
         <v>2.066948413848877</v>
       </c>
       <c r="E9" s="1">
-        <v>7.600487232208252</v>
+        <v>7.60048770904541</v>
       </c>
       <c r="F9" s="1">
         <v>10.15464782714844</v>
@@ -53619,13 +53619,13 @@
         <v>62.47444534301758</v>
       </c>
       <c r="I9" s="1">
-        <v>160.4391021728516</v>
+        <v>160.4391174316406</v>
       </c>
       <c r="J9" s="1">
-        <v>3.810992002487183</v>
+        <v>3.810992240905762</v>
       </c>
       <c r="K9" s="1">
-        <v>6.025956630706787</v>
+        <v>6.025957107543945</v>
       </c>
       <c r="L9" s="1">
         <v>3.588936328887939</v>
@@ -53637,7 +53637,7 @@
         <v>2.981860160827637</v>
       </c>
       <c r="O9" s="1">
-        <v>3.803538799285889</v>
+        <v>3.803539037704468</v>
       </c>
       <c r="P9" s="1">
         <v>12.9821252822876</v>
@@ -53649,10 +53649,10 @@
         <v>2.622312545776367</v>
       </c>
       <c r="S9" s="1">
-        <v>31.37109756469727</v>
+        <v>31.3710994720459</v>
       </c>
       <c r="T9" s="1">
-        <v>0.1478820741176605</v>
+        <v>0.1478820890188217</v>
       </c>
       <c r="U9" s="1">
         <v>0.632352352142334</v>
@@ -53661,13 +53661,13 @@
         <v>1.076194405555725</v>
       </c>
       <c r="W9" s="1">
-        <v>3.442668676376343</v>
+        <v>3.442668914794922</v>
       </c>
       <c r="X9" s="1">
-        <v>3.356748342514038</v>
+        <v>3.356748580932617</v>
       </c>
       <c r="Y9" s="1">
-        <v>1.495676517486572</v>
+        <v>1.495676636695862</v>
       </c>
       <c r="Z9" s="1">
         <v>7.96615743637085</v>
@@ -53676,10 +53676,10 @@
         <v>5.801847457885742</v>
       </c>
       <c r="AB9" s="1">
-        <v>2.234148740768433</v>
+        <v>2.234148979187012</v>
       </c>
       <c r="AC9" s="1">
-        <v>60.10029220581055</v>
+        <v>60.10029983520508</v>
       </c>
       <c r="AD9" s="1">
         <v>7.223061561584473</v>
@@ -53688,7 +53688,7 @@
         <v>0.0493866540491581</v>
       </c>
       <c r="AF9" s="1">
-        <v>477.2847290039062</v>
+        <v>477.2847595214844</v>
       </c>
       <c r="AG9" s="1">
         <v>206.2327728271484</v>
@@ -53706,7 +53706,7 @@
         <v>526.0541152954102</v>
       </c>
       <c r="AL9" s="1">
-        <v>1003.338844299316</v>
+        <v>1003.338874816895</v>
       </c>
     </row>
     <row r="10" spans="1:38">
@@ -54280,13 +54280,13 @@
         <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>78.23033905029297</v>
+        <v>78.2303466796875</v>
       </c>
       <c r="AK14" s="1">
-        <v>336.9379501342773</v>
+        <v>336.9379577636719</v>
       </c>
       <c r="AL14" s="1">
-        <v>413.5548706054688</v>
+        <v>413.5548782348633</v>
       </c>
     </row>
     <row r="15" spans="1:38">
@@ -54294,7 +54294,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>0.1562610417604446</v>
+        <v>0.1562610268592834</v>
       </c>
       <c r="C15" s="1">
         <v>0.01423289440572262</v>
@@ -54303,40 +54303,40 @@
         <v>0.1692322492599487</v>
       </c>
       <c r="E15" s="1">
-        <v>0.3113255500793457</v>
+        <v>0.3113255202770233</v>
       </c>
       <c r="F15" s="1">
-        <v>0.3754453957080841</v>
+        <v>0.3754453659057617</v>
       </c>
       <c r="G15" s="1">
-        <v>0.129596158862114</v>
+        <v>0.1295961439609528</v>
       </c>
       <c r="H15" s="1">
-        <v>1.742641806602478</v>
+        <v>1.742641687393188</v>
       </c>
       <c r="I15" s="1">
-        <v>0.6048890352249146</v>
+        <v>0.6048889756202698</v>
       </c>
       <c r="J15" s="1">
-        <v>0.1856541335582733</v>
+        <v>0.1856541186571121</v>
       </c>
       <c r="K15" s="1">
         <v>0.5138118267059326</v>
       </c>
       <c r="L15" s="1">
-        <v>0.4218380749225616</v>
+        <v>0.4218380451202393</v>
       </c>
       <c r="M15" s="1">
         <v>0.8898264169692993</v>
       </c>
       <c r="N15" s="1">
-        <v>0.7068229913711548</v>
+        <v>0.70682293176651</v>
       </c>
       <c r="O15" s="1">
         <v>9.000905990600586</v>
       </c>
       <c r="P15" s="1">
-        <v>2.909820318222046</v>
+        <v>2.909820079803467</v>
       </c>
       <c r="Q15" s="1">
         <v>6.03948450088501</v>
@@ -54354,10 +54354,10 @@
         <v>0.7303284406661987</v>
       </c>
       <c r="V15" s="1">
-        <v>1.414294362068176</v>
+        <v>1.414294242858887</v>
       </c>
       <c r="W15" s="1">
-        <v>0.03622742369771004</v>
+        <v>0.03622741997241974</v>
       </c>
       <c r="X15" s="1">
         <v>0.008845996111631393</v>
@@ -54366,19 +54366,19 @@
         <v>2.592628479003906</v>
       </c>
       <c r="Z15" s="1">
-        <v>1.610098481178284</v>
+        <v>1.610098361968994</v>
       </c>
       <c r="AA15" s="1">
-        <v>1.565874457359314</v>
+        <v>1.565874338150024</v>
       </c>
       <c r="AB15" s="1">
         <v>1.207766532897949</v>
       </c>
       <c r="AC15" s="1">
-        <v>15.80735015869141</v>
+        <v>15.80735206604004</v>
       </c>
       <c r="AD15" s="1">
-        <v>1.89882493019104</v>
+        <v>1.89882481098175</v>
       </c>
       <c r="AE15" s="1">
         <v>0</v>
@@ -54396,13 +54396,13 @@
         <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>20.77762985229492</v>
+        <v>20.77762794494629</v>
       </c>
       <c r="AK15" s="1">
-        <v>115.0405626296997</v>
+        <v>115.0405607223511</v>
       </c>
       <c r="AL15" s="1">
-        <v>168.5090761184692</v>
+        <v>168.5090742111206</v>
       </c>
     </row>
     <row r="16" spans="1:38">
@@ -54425,7 +54425,7 @@
         <v>0.3972340524196625</v>
       </c>
       <c r="G16" s="1">
-        <v>1.492530465126038</v>
+        <v>1.492530584335327</v>
       </c>
       <c r="H16" s="1">
         <v>9.335657119750977</v>
@@ -56266,49 +56266,49 @@
         <v>37</v>
       </c>
       <c r="B32" s="1">
-        <v>31.55687338547773</v>
+        <v>31.55687337057657</v>
       </c>
       <c r="C32" s="1">
-        <v>11.06553263172009</v>
+        <v>11.06553287013867</v>
       </c>
       <c r="D32" s="1">
         <v>15.65996003267355</v>
       </c>
       <c r="E32" s="1">
-        <v>68.7989245193603</v>
+        <v>68.79892496639513</v>
       </c>
       <c r="F32" s="1">
-        <v>43.13583117085363</v>
+        <v>43.13583114105131</v>
       </c>
       <c r="G32" s="1">
-        <v>26.61308666590776</v>
+        <v>26.61308677021589</v>
       </c>
       <c r="H32" s="1">
-        <v>176.8434321706518</v>
+        <v>176.8434320514425</v>
       </c>
       <c r="I32" s="1">
-        <v>416.957836034293</v>
+        <v>416.9578512334774</v>
       </c>
       <c r="J32" s="1">
-        <v>24.63815557158887</v>
+        <v>24.63815579510629</v>
       </c>
       <c r="K32" s="1">
-        <v>153.5569860320575</v>
+        <v>153.5569865088946</v>
       </c>
       <c r="L32" s="1">
-        <v>147.3696243833256</v>
+        <v>147.3696243535232</v>
       </c>
       <c r="M32" s="1">
         <v>322.6534392601288</v>
       </c>
       <c r="N32" s="1">
-        <v>64.42586755294906</v>
+        <v>64.42586749334441</v>
       </c>
       <c r="O32" s="1">
-        <v>67.88361854042159</v>
+        <v>67.88361877884017</v>
       </c>
       <c r="P32" s="1">
-        <v>120.8229669314915</v>
+        <v>120.8229666930729</v>
       </c>
       <c r="Q32" s="1">
         <v>252.0264225855799</v>
@@ -56317,46 +56317,46 @@
         <v>162.89960966527</v>
       </c>
       <c r="S32" s="1">
-        <v>94.77148539187328</v>
+        <v>94.77148729922192</v>
       </c>
       <c r="T32" s="1">
-        <v>52.1910767883237</v>
+        <v>52.19107680322486</v>
       </c>
       <c r="U32" s="1">
         <v>133.847505164973</v>
       </c>
       <c r="V32" s="1">
-        <v>37.38453319907421</v>
+        <v>37.38453307986492</v>
       </c>
       <c r="W32" s="1">
-        <v>34.41728584843804</v>
+        <v>34.41728608313133</v>
       </c>
       <c r="X32" s="1">
-        <v>25.44902753317001</v>
+        <v>25.44902777158859</v>
       </c>
       <c r="Y32" s="1">
-        <v>91.06334563778091</v>
+        <v>91.0633457569902</v>
       </c>
       <c r="Z32" s="1">
-        <v>52.10304337690468</v>
+        <v>52.10304325769539</v>
       </c>
       <c r="AA32" s="1">
-        <v>68.76153735280968</v>
+        <v>68.76153723360039</v>
       </c>
       <c r="AB32" s="1">
-        <v>27.92236716678599</v>
+        <v>27.92236740520457</v>
       </c>
       <c r="AC32" s="1">
-        <v>135.0708738782196</v>
+        <v>135.0708834149627</v>
       </c>
       <c r="AD32" s="1">
-        <v>53.59422840885236</v>
+        <v>53.59422828964307</v>
       </c>
       <c r="AE32" s="1">
         <v>0.2787799353820901</v>
       </c>
       <c r="AF32" s="1">
-        <v>2913.763282522559</v>
+        <v>2913.763313040137</v>
       </c>
       <c r="AG32" s="1">
         <v>1305.006840264366</v>
@@ -56368,13 +56368,13 @@
         <v>114.4538909760304</v>
       </c>
       <c r="AJ32" s="1">
-        <v>1241.267901977204</v>
+        <v>1241.267908176087</v>
       </c>
       <c r="AK32" s="1">
-        <v>3103.022462435853</v>
+        <v>3103.022468634736</v>
       </c>
       <c r="AL32" s="1">
-        <v>6016.785744958412</v>
+        <v>6016.785781674873</v>
       </c>
     </row>
   </sheetData>
@@ -56613,13 +56613,13 @@
         <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>2.609558582305908</v>
+        <v>2.609558343887329</v>
       </c>
       <c r="AK2" s="1">
-        <v>17.04042138159275</v>
+        <v>17.04042114317417</v>
       </c>
       <c r="AL2" s="1">
-        <v>42.10021103918552</v>
+        <v>42.10021080076694</v>
       </c>
     </row>
     <row r="3" spans="1:38">
@@ -57541,13 +57541,13 @@
         <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>2.473643779754639</v>
+        <v>2.473644018173218</v>
       </c>
       <c r="AK10" s="1">
-        <v>4.25907564163208</v>
+        <v>4.259075880050659</v>
       </c>
       <c r="AL10" s="1">
-        <v>22.25589609146118</v>
+        <v>22.25589632987976</v>
       </c>
     </row>
     <row r="11" spans="1:38">
@@ -58005,13 +58005,13 @@
         <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>32.12089157104492</v>
+        <v>32.12089538574219</v>
       </c>
       <c r="AK14" s="1">
-        <v>136.5265312194824</v>
+        <v>136.5265350341797</v>
       </c>
       <c r="AL14" s="1">
-        <v>167.202018737793</v>
+        <v>167.2020225524902</v>
       </c>
     </row>
     <row r="15" spans="1:38">
@@ -58028,10 +58028,10 @@
         <v>0.01017512567341328</v>
       </c>
       <c r="E15" s="1">
-        <v>0.2981987297534943</v>
+        <v>0.2981987595558167</v>
       </c>
       <c r="F15" s="1">
-        <v>0.1260586977005005</v>
+        <v>0.1260587126016617</v>
       </c>
       <c r="G15" s="1">
         <v>0.1928379535675049</v>
@@ -58043,10 +58043,10 @@
         <v>0.1335721909999847</v>
       </c>
       <c r="J15" s="1">
-        <v>0.09595811367034912</v>
+        <v>0.09595812112092972</v>
       </c>
       <c r="K15" s="1">
-        <v>0.2454943060874939</v>
+        <v>0.2454943209886551</v>
       </c>
       <c r="L15" s="1">
         <v>0.1004078388214111</v>
@@ -58055,10 +58055,10 @@
         <v>0.3002631962299347</v>
       </c>
       <c r="N15" s="1">
-        <v>0.2268204987049103</v>
+        <v>0.2268205136060715</v>
       </c>
       <c r="O15" s="1">
-        <v>5.9271559715271</v>
+        <v>5.927156448364258</v>
       </c>
       <c r="P15" s="1">
         <v>1.361810922622681</v>
@@ -58067,7 +58067,7 @@
         <v>2.229228973388672</v>
       </c>
       <c r="R15" s="1">
-        <v>0.2240758389234543</v>
+        <v>0.2240758538246155</v>
       </c>
       <c r="S15" s="1">
         <v>0.4005094170570374</v>
@@ -58100,7 +58100,7 @@
         <v>0.4667659401893616</v>
       </c>
       <c r="AC15" s="1">
-        <v>6.274106025695801</v>
+        <v>6.274106979370117</v>
       </c>
       <c r="AD15" s="1">
         <v>0.6438177824020386</v>
@@ -58115,7 +58115,7 @@
         <v>32.85352325439453</v>
       </c>
       <c r="AH15" s="1">
-        <v>3.183040142059326</v>
+        <v>3.183040380477905</v>
       </c>
       <c r="AI15" s="1">
         <v>0</v>
@@ -58124,10 +58124,10 @@
         <v>8.549102783203125</v>
       </c>
       <c r="AK15" s="1">
-        <v>44.58566617965698</v>
+        <v>44.58566641807556</v>
       </c>
       <c r="AL15" s="1">
-        <v>66.77063322067261</v>
+        <v>66.77063345909119</v>
       </c>
     </row>
     <row r="16" spans="1:38">
@@ -60000,10 +60000,10 @@
         <v>0.9355259049386291</v>
       </c>
       <c r="E32" s="1">
-        <v>65.51388026593486</v>
+        <v>65.51388029573718</v>
       </c>
       <c r="F32" s="1">
-        <v>14.4039270803878</v>
+        <v>14.40392709528896</v>
       </c>
       <c r="G32" s="1">
         <v>39.24160375480642</v>
@@ -60015,10 +60015,10 @@
         <v>91.45907811237157</v>
       </c>
       <c r="J32" s="1">
-        <v>12.65216026938469</v>
+        <v>12.65216027683527</v>
       </c>
       <c r="K32" s="1">
-        <v>72.91615482757152</v>
+        <v>72.91615484247268</v>
       </c>
       <c r="L32" s="1">
         <v>34.98318483787625</v>
@@ -60027,10 +60027,10 @@
         <v>108.3659359625269</v>
       </c>
       <c r="N32" s="1">
-        <v>20.65514979250293</v>
+        <v>20.65514980740409</v>
       </c>
       <c r="O32" s="1">
-        <v>44.67788041364838</v>
+        <v>44.67788089048554</v>
       </c>
       <c r="P32" s="1">
         <v>56.17877757933093</v>
@@ -60039,7 +60039,7 @@
         <v>92.73677878091803</v>
       </c>
       <c r="R32" s="1">
-        <v>66.35633917123778</v>
+        <v>66.35633918613894</v>
       </c>
       <c r="S32" s="1">
         <v>34.879636855434</v>
@@ -60072,7 +60072,7 @@
         <v>10.77820484088443</v>
       </c>
       <c r="AC32" s="1">
-        <v>53.46282917970166</v>
+        <v>53.46283013337597</v>
       </c>
       <c r="AD32" s="1">
         <v>18.15129175924085</v>
@@ -60087,19 +60087,19 @@
         <v>511.6535020126903</v>
       </c>
       <c r="AH32" s="1">
-        <v>136.3002335652709</v>
+        <v>136.3002338036895</v>
       </c>
       <c r="AI32" s="1">
         <v>45.59072191361338</v>
       </c>
       <c r="AJ32" s="1">
-        <v>509.489353814206</v>
+        <v>509.4893576289032</v>
       </c>
       <c r="AK32" s="1">
-        <v>1203.033811305781</v>
+        <v>1203.033815358896</v>
       </c>
       <c r="AL32" s="1">
-        <v>2229.86687698694</v>
+        <v>2229.866881040056</v>
       </c>
     </row>
   </sheetData>
@@ -60433,7 +60433,7 @@
         <v>0.0559944324195385</v>
       </c>
       <c r="AC3" s="1">
-        <v>0.1310577243566513</v>
+        <v>0.1310577094554901</v>
       </c>
       <c r="AD3" s="1">
         <v>0.03975925594568253</v>
@@ -60549,7 +60549,7 @@
         <v>0.004613714758306742</v>
       </c>
       <c r="AC4" s="1">
-        <v>4.227297904435545e-05</v>
+        <v>4.227297176839784e-05</v>
       </c>
       <c r="AD4" s="1">
         <v>0.0005087544559501112</v>
@@ -60665,7 +60665,7 @@
         <v>0.5817241668701172</v>
       </c>
       <c r="AC5" s="1">
-        <v>1.322743892669678</v>
+        <v>1.322743773460388</v>
       </c>
       <c r="AD5" s="1">
         <v>0.843522310256958</v>
@@ -60781,7 +60781,7 @@
         <v>0.1525866985321045</v>
       </c>
       <c r="AC6" s="1">
-        <v>1.275362730026245</v>
+        <v>1.275362610816956</v>
       </c>
       <c r="AD6" s="1">
         <v>0.3922543823719025</v>
@@ -60897,7 +60897,7 @@
         <v>0.01707274653017521</v>
       </c>
       <c r="AC7" s="1">
-        <v>0.004123033955693245</v>
+        <v>0.004123033490031958</v>
       </c>
       <c r="AD7" s="1">
         <v>0.04871511831879616</v>
@@ -61004,7 +61004,7 @@
         <v>0.1374797075986862</v>
       </c>
       <c r="Z8" s="1">
-        <v>0.1926515698432922</v>
+        <v>0.192651554942131</v>
       </c>
       <c r="AA8" s="1">
         <v>0.3900980055332184</v>
@@ -61013,7 +61013,7 @@
         <v>0.2213363945484161</v>
       </c>
       <c r="AC8" s="1">
-        <v>0.3887791633605957</v>
+        <v>0.3887791037559509</v>
       </c>
       <c r="AD8" s="1">
         <v>0.350577712059021</v>
@@ -61099,7 +61099,7 @@
         <v>0.7767364978790283</v>
       </c>
       <c r="S9" s="1">
-        <v>26.78096389770508</v>
+        <v>26.78096199035645</v>
       </c>
       <c r="T9" s="1">
         <v>0.04036975279450417</v>
@@ -61117,19 +61117,19 @@
         <v>1.2377769947052</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.3761237859725952</v>
+        <v>0.3761237561702728</v>
       </c>
       <c r="Z9" s="1">
         <v>2.424782752990723</v>
       </c>
       <c r="AA9" s="1">
-        <v>3.605525255203247</v>
+        <v>3.605525016784668</v>
       </c>
       <c r="AB9" s="1">
         <v>0.8351757526397705</v>
       </c>
       <c r="AC9" s="1">
-        <v>22.32778167724609</v>
+        <v>22.32777976989746</v>
       </c>
       <c r="AD9" s="1">
         <v>2.325736522674561</v>
@@ -61138,7 +61138,7 @@
         <v>0.008843088522553444</v>
       </c>
       <c r="AF9" s="1">
-        <v>235.9856414794922</v>
+        <v>235.9856262207031</v>
       </c>
       <c r="AG9" s="1">
         <v>76.05410003662109</v>
@@ -61150,13 +61150,13 @@
         <v>26.29121780395508</v>
       </c>
       <c r="AJ9" s="1">
-        <v>301.0259094238281</v>
+        <v>301.02587890625</v>
       </c>
       <c r="AK9" s="1">
-        <v>403.3712272644043</v>
+        <v>403.3711967468262</v>
       </c>
       <c r="AL9" s="1">
-        <v>639.3568687438965</v>
+        <v>639.3568229675293</v>
       </c>
     </row>
     <row r="10" spans="1:38">
@@ -61245,7 +61245,7 @@
         <v>0.004144048783928156</v>
       </c>
       <c r="AC10" s="1">
-        <v>0.1343811899423599</v>
+        <v>0.1343811601400375</v>
       </c>
       <c r="AD10" s="1">
         <v>0.05955271795392036</v>
@@ -61361,7 +61361,7 @@
         <v>0.2745814025402069</v>
       </c>
       <c r="AC11" s="1">
-        <v>0.0294722244143486</v>
+        <v>0.02947222255170345</v>
       </c>
       <c r="AD11" s="1">
         <v>0.2009929418563843</v>
@@ -61399,7 +61399,7 @@
         <v>0.0009833651129156351</v>
       </c>
       <c r="C12" s="1">
-        <v>0.002164512407034636</v>
+        <v>0.002164512174203992</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -61417,7 +61417,7 @@
         <v>1.598885655403137</v>
       </c>
       <c r="I12" s="1">
-        <v>0.08361264318227768</v>
+        <v>0.08361263573169708</v>
       </c>
       <c r="J12" s="1">
         <v>0.09898346662521362</v>
@@ -61426,7 +61426,7 @@
         <v>0.06443792581558228</v>
       </c>
       <c r="L12" s="1">
-        <v>2.477917671203613</v>
+        <v>2.477917432785034</v>
       </c>
       <c r="M12" s="1">
         <v>3.845156908035278</v>
@@ -61477,13 +61477,13 @@
         <v>0.8679364919662476</v>
       </c>
       <c r="AC12" s="1">
-        <v>6.162460803985596</v>
+        <v>6.162460327148438</v>
       </c>
       <c r="AD12" s="1">
         <v>2.17296838760376</v>
       </c>
       <c r="AE12" s="1">
-        <v>0.03728662803769112</v>
+        <v>0.03728662431240082</v>
       </c>
       <c r="AF12" s="1">
         <v>62.88981246948242</v>
@@ -61498,13 +61498,13 @@
         <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>228.7829132080078</v>
+        <v>228.7829284667969</v>
       </c>
       <c r="AK12" s="1">
-        <v>335.4601173400879</v>
+        <v>335.460132598877</v>
       </c>
       <c r="AL12" s="1">
-        <v>398.3499298095703</v>
+        <v>398.3499450683594</v>
       </c>
     </row>
     <row r="13" spans="1:38">
@@ -61649,7 +61649,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="1">
-        <v>0.1466148644685745</v>
+        <v>0.1466148793697357</v>
       </c>
       <c r="J14" s="1">
         <v>0</v>
@@ -61730,13 +61730,13 @@
         <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>94.59364318847656</v>
+        <v>94.59365844726562</v>
       </c>
       <c r="AK14" s="1">
-        <v>200.702766418457</v>
+        <v>200.7027816772461</v>
       </c>
       <c r="AL14" s="1">
-        <v>220.7694282531738</v>
+        <v>220.7694435119629</v>
       </c>
     </row>
     <row r="15" spans="1:38">
@@ -61753,16 +61753,16 @@
         <v>0.08749596774578094</v>
       </c>
       <c r="E15" s="1">
-        <v>0.1290057301521301</v>
+        <v>0.1290057152509689</v>
       </c>
       <c r="F15" s="1">
         <v>0.02630172669887543</v>
       </c>
       <c r="G15" s="1">
-        <v>0.05316543579101562</v>
+        <v>0.05316543206572533</v>
       </c>
       <c r="H15" s="1">
-        <v>1.821993589401245</v>
+        <v>1.821993470191956</v>
       </c>
       <c r="I15" s="1">
         <v>0.249350517988205</v>
@@ -61771,7 +61771,7 @@
         <v>0.1128017455339432</v>
       </c>
       <c r="K15" s="1">
-        <v>0.109034463763237</v>
+        <v>0.1090344563126564</v>
       </c>
       <c r="L15" s="1">
         <v>0.01386668533086777</v>
@@ -61780,10 +61780,10 @@
         <v>0.1970387697219849</v>
       </c>
       <c r="N15" s="1">
-        <v>0.04061848670244217</v>
+        <v>0.04061848297715187</v>
       </c>
       <c r="O15" s="1">
-        <v>3.153231620788574</v>
+        <v>3.153231382369995</v>
       </c>
       <c r="P15" s="1">
         <v>1.469776391983032</v>
@@ -61795,7 +61795,7 @@
         <v>0.1661246716976166</v>
       </c>
       <c r="S15" s="1">
-        <v>0.9463228583335876</v>
+        <v>0.9463227987289429</v>
       </c>
       <c r="T15" s="1">
         <v>0.2227464616298676</v>
@@ -61825,7 +61825,7 @@
         <v>0.4617728590965271</v>
       </c>
       <c r="AC15" s="1">
-        <v>6.009509086608887</v>
+        <v>6.00950813293457</v>
       </c>
       <c r="AD15" s="1">
         <v>0.6244339942932129</v>
@@ -61834,7 +61834,7 @@
         <v>0</v>
       </c>
       <c r="AF15" s="1">
-        <v>21.12271308898926</v>
+        <v>21.12271118164062</v>
       </c>
       <c r="AG15" s="1">
         <v>31.59742736816406</v>
@@ -61846,13 +61846,13 @@
         <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>25.76374626159668</v>
+        <v>25.76374435424805</v>
       </c>
       <c r="AK15" s="1">
-        <v>61.83184242248535</v>
+        <v>61.83184051513672</v>
       </c>
       <c r="AL15" s="1">
-        <v>82.95455551147461</v>
+        <v>82.95455169677734</v>
       </c>
     </row>
     <row r="16" spans="1:38">
@@ -61941,7 +61941,7 @@
         <v>0.5571267008781433</v>
       </c>
       <c r="AC16" s="1">
-        <v>1.063233613967896</v>
+        <v>1.063233494758606</v>
       </c>
       <c r="AD16" s="1">
         <v>0.9132537245750427</v>
@@ -62057,7 +62057,7 @@
         <v>0.0003671145532280207</v>
       </c>
       <c r="AC17" s="1">
-        <v>0.0002849948941729963</v>
+        <v>0.0002849948359653354</v>
       </c>
       <c r="AD17" s="1">
         <v>0.0002034833014477044</v>
@@ -62173,7 +62173,7 @@
         <v>0.1399443000555038</v>
       </c>
       <c r="AC18" s="1">
-        <v>0.1930287778377533</v>
+        <v>0.1930287480354309</v>
       </c>
       <c r="AD18" s="1">
         <v>1.650751233100891</v>
@@ -62289,7 +62289,7 @@
         <v>1.974429488182068</v>
       </c>
       <c r="AC19" s="1">
-        <v>3.614872932434082</v>
+        <v>3.614872455596924</v>
       </c>
       <c r="AD19" s="1">
         <v>1.938026189804077</v>
@@ -62405,7 +62405,7 @@
         <v>0.3467234969139099</v>
       </c>
       <c r="AC20" s="1">
-        <v>0.7685845494270325</v>
+        <v>0.7685844898223877</v>
       </c>
       <c r="AD20" s="1">
         <v>0.1663489937782288</v>
@@ -62521,7 +62521,7 @@
         <v>1.54539692401886</v>
       </c>
       <c r="AC21" s="1">
-        <v>1.506163477897644</v>
+        <v>1.506163239479065</v>
       </c>
       <c r="AD21" s="1">
         <v>2.133516788482666</v>
@@ -62637,7 +62637,7 @@
         <v>0.5668990612030029</v>
       </c>
       <c r="AC22" s="1">
-        <v>1.074770927429199</v>
+        <v>1.07477080821991</v>
       </c>
       <c r="AD22" s="1">
         <v>0.4113051295280457</v>
@@ -62646,7 +62646,7 @@
         <v>0</v>
       </c>
       <c r="AF22" s="1">
-        <v>24.11111831665039</v>
+        <v>24.11111640930176</v>
       </c>
       <c r="AG22" s="1">
         <v>14.14786720275879</v>
@@ -62664,7 +62664,7 @@
         <v>20.31154012680054</v>
       </c>
       <c r="AL22" s="1">
-        <v>44.42265844345093</v>
+        <v>44.42265653610229</v>
       </c>
     </row>
     <row r="23" spans="1:38">
@@ -62753,7 +62753,7 @@
         <v>0.0002209366793977097</v>
       </c>
       <c r="AC23" s="1">
-        <v>0.0004245612362865359</v>
+        <v>0.0004245612071827054</v>
       </c>
       <c r="AD23" s="1">
         <v>0.0001929478021338582</v>
@@ -62762,7 +62762,7 @@
         <v>1.824761142188436e-07</v>
       </c>
       <c r="AF23" s="1">
-        <v>0.003950782585889101</v>
+        <v>0.003950782120227814</v>
       </c>
       <c r="AG23" s="1">
         <v>0.003291505854576826</v>
@@ -62780,7 +62780,7 @@
         <v>0.00390133576001972</v>
       </c>
       <c r="AL23" s="1">
-        <v>0.007852118345908821</v>
+        <v>0.007852117880247533</v>
       </c>
     </row>
     <row r="24" spans="1:38">
@@ -62985,7 +62985,7 @@
         <v>0.5881474018096924</v>
       </c>
       <c r="AC25" s="1">
-        <v>2.164645910263062</v>
+        <v>2.164645671844482</v>
       </c>
       <c r="AD25" s="1">
         <v>1.629029154777527</v>
@@ -63101,7 +63101,7 @@
         <v>0.5354548096656799</v>
       </c>
       <c r="AC26" s="1">
-        <v>1.193665027618408</v>
+        <v>1.193664908409119</v>
       </c>
       <c r="AD26" s="1">
         <v>0.7886736989021301</v>
@@ -63217,7 +63217,7 @@
         <v>0.01249247975647449</v>
       </c>
       <c r="AC27" s="1">
-        <v>0.0744975209236145</v>
+        <v>0.07449751347303391</v>
       </c>
       <c r="AD27" s="1">
         <v>0.02607386372983456</v>
@@ -63333,7 +63333,7 @@
         <v>0.02280853316187859</v>
       </c>
       <c r="AC28" s="1">
-        <v>0.007789189927279949</v>
+        <v>0.007789188995957375</v>
       </c>
       <c r="AD28" s="1">
         <v>0.005782493390142918</v>
@@ -63342,7 +63342,7 @@
         <v>0</v>
       </c>
       <c r="AF28" s="1">
-        <v>0.06483469903469086</v>
+        <v>0.06483469158411026</v>
       </c>
       <c r="AG28" s="1">
         <v>0.07752658426761627</v>
@@ -63360,7 +63360,7 @@
         <v>0.6114362992811948</v>
       </c>
       <c r="AL28" s="1">
-        <v>0.6762709983158857</v>
+        <v>0.6762709908653051</v>
       </c>
     </row>
     <row r="29" spans="1:38">
@@ -63449,7 +63449,7 @@
         <v>0.001115626306273043</v>
       </c>
       <c r="AC29" s="1">
-        <v>0.01944706030189991</v>
+        <v>0.01944705657660961</v>
       </c>
       <c r="AD29" s="1">
         <v>8.786492253420874e-05</v>
@@ -63458,7 +63458,7 @@
         <v>0</v>
       </c>
       <c r="AF29" s="1">
-        <v>0.02346025407314301</v>
+        <v>0.02346025034785271</v>
       </c>
       <c r="AG29" s="1">
         <v>0.05403593927621841</v>
@@ -63476,7 +63476,7 @@
         <v>0.2537705747236032</v>
       </c>
       <c r="AL29" s="1">
-        <v>0.2772308287967462</v>
+        <v>0.2772308250714559</v>
       </c>
     </row>
     <row r="30" spans="1:38">
@@ -63565,7 +63565,7 @@
         <v>0.1637821346521378</v>
       </c>
       <c r="AC30" s="1">
-        <v>0.02868329547345638</v>
+        <v>0.02868329361081123</v>
       </c>
       <c r="AD30" s="1">
         <v>0.03483617305755615</v>
@@ -63719,43 +63719,43 @@
         <v>12.59687456697714</v>
       </c>
       <c r="C32" s="1">
-        <v>5.939885695096564</v>
+        <v>5.939885694863733</v>
       </c>
       <c r="D32" s="1">
         <v>7.606493274349759</v>
       </c>
       <c r="E32" s="1">
-        <v>27.13016608345424</v>
+        <v>27.13016606855308</v>
       </c>
       <c r="F32" s="1">
         <v>2.952941465880713</v>
       </c>
       <c r="G32" s="1">
-        <v>10.30751248202887</v>
+        <v>10.30751247830358</v>
       </c>
       <c r="H32" s="1">
-        <v>175.6750890363255</v>
+        <v>175.6750889171162</v>
       </c>
       <c r="I32" s="1">
-        <v>163.2228227700762</v>
+        <v>163.2228227775267</v>
       </c>
       <c r="J32" s="1">
         <v>14.21608527453282</v>
       </c>
       <c r="K32" s="1">
-        <v>30.76202830776765</v>
+        <v>30.76202830031707</v>
       </c>
       <c r="L32" s="1">
-        <v>4.640623064698275</v>
+        <v>4.640622826279696</v>
       </c>
       <c r="M32" s="1">
         <v>67.99283253208091</v>
       </c>
       <c r="N32" s="1">
-        <v>3.571873172441428</v>
+        <v>3.571873168716138</v>
       </c>
       <c r="O32" s="1">
-        <v>23.11548190167741</v>
+        <v>23.11548166325883</v>
       </c>
       <c r="P32" s="1">
         <v>57.4154508767424</v>
@@ -63767,7 +63767,7 @@
         <v>46.32475493011589</v>
       </c>
       <c r="S32" s="1">
-        <v>78.76764213332717</v>
+        <v>78.76764016637389</v>
       </c>
       <c r="T32" s="1">
         <v>13.85531733713287</v>
@@ -63785,28 +63785,28 @@
         <v>9.011745946036172</v>
       </c>
       <c r="Y32" s="1">
-        <v>22.31451501174547</v>
+        <v>22.31451498194315</v>
       </c>
       <c r="Z32" s="1">
-        <v>15.46082398013459</v>
+        <v>15.46082396523343</v>
       </c>
       <c r="AA32" s="1">
-        <v>41.23307275184197</v>
+        <v>41.23307251342339</v>
       </c>
       <c r="AB32" s="1">
         <v>10.11606193969783</v>
       </c>
       <c r="AC32" s="1">
-        <v>49.77638335838856</v>
+        <v>49.77637826069986</v>
       </c>
       <c r="AD32" s="1">
         <v>16.76682420990983</v>
       </c>
       <c r="AE32" s="1">
-        <v>0.04990063706155468</v>
+        <v>0.04990063333626438</v>
       </c>
       <c r="AF32" s="1">
-        <v>1060.743969310541</v>
+        <v>1060.743950225413</v>
       </c>
       <c r="AG32" s="1">
         <v>477.5359078752044</v>
@@ -63818,13 +63818,13 @@
         <v>41.91453835857101</v>
       </c>
       <c r="AJ32" s="1">
-        <v>1473.956280469924</v>
+        <v>1473.956278562575</v>
       </c>
       <c r="AK32" s="1">
-        <v>2216.812406719266</v>
+        <v>2216.812404811917</v>
       </c>
       <c r="AL32" s="1">
-        <v>3277.556376029806</v>
+        <v>3277.55635503733</v>
       </c>
     </row>
   </sheetData>
@@ -64042,7 +64042,7 @@
         <v>0.0878029391169548</v>
       </c>
       <c r="AC2" s="1">
-        <v>0.1999863386154175</v>
+        <v>0.1999863237142563</v>
       </c>
       <c r="AD2" s="1">
         <v>0.006901058368384838</v>
@@ -64158,7 +64158,7 @@
         <v>0.03983177244663239</v>
       </c>
       <c r="AC3" s="1">
-        <v>0.09493023157119751</v>
+        <v>0.09493022412061691</v>
       </c>
       <c r="AD3" s="1">
         <v>0.02868369780480862</v>
@@ -64711,7 +64711,7 @@
         <v>0.06538420170545578</v>
       </c>
       <c r="T8" s="1">
-        <v>0.01123747695237398</v>
+        <v>0.01123747602105141</v>
       </c>
       <c r="U8" s="1">
         <v>0.7212008833885193</v>
@@ -64732,7 +64732,7 @@
         <v>0.1153942570090294</v>
       </c>
       <c r="AA8" s="1">
-        <v>0.252213329076767</v>
+        <v>0.2522132992744446</v>
       </c>
       <c r="AB8" s="1">
         <v>0.1537374258041382</v>
@@ -64788,19 +64788,19 @@
         <v>0.1378792822360992</v>
       </c>
       <c r="G9" s="1">
-        <v>3.038534164428711</v>
+        <v>3.038533926010132</v>
       </c>
       <c r="H9" s="1">
-        <v>80.02996826171875</v>
+        <v>80.02996063232422</v>
       </c>
       <c r="I9" s="1">
         <v>34.23105239868164</v>
       </c>
       <c r="J9" s="1">
-        <v>2.882913589477539</v>
+        <v>2.88291335105896</v>
       </c>
       <c r="K9" s="1">
-        <v>1.413869261741638</v>
+        <v>1.413869142532349</v>
       </c>
       <c r="L9" s="1">
         <v>0.1138379573822021</v>
@@ -64824,7 +64824,7 @@
         <v>0.6368604302406311</v>
       </c>
       <c r="S9" s="1">
-        <v>10.41411876678467</v>
+        <v>10.41411781311035</v>
       </c>
       <c r="T9" s="1">
         <v>0.03673911094665527</v>
@@ -64833,7 +64833,7 @@
         <v>0.067416712641716</v>
       </c>
       <c r="V9" s="1">
-        <v>0.1757834851741791</v>
+        <v>0.1757834702730179</v>
       </c>
       <c r="W9" s="1">
         <v>0.9051007032394409</v>
@@ -64851,7 +64851,7 @@
         <v>2.31941556930542</v>
       </c>
       <c r="AB9" s="1">
-        <v>0.5771446228027344</v>
+        <v>0.5771445631980896</v>
       </c>
       <c r="AC9" s="1">
         <v>15.70455265045166</v>
@@ -64863,7 +64863,7 @@
         <v>0.01045392081141472</v>
       </c>
       <c r="AF9" s="1">
-        <v>183.5006713867188</v>
+        <v>183.5006561279297</v>
       </c>
       <c r="AG9" s="1">
         <v>53.18881988525391</v>
@@ -64875,13 +64875,13 @@
         <v>18.58287811279297</v>
       </c>
       <c r="AJ9" s="1">
-        <v>78.15816497802734</v>
+        <v>78.15815734863281</v>
       </c>
       <c r="AK9" s="1">
-        <v>149.9298629760742</v>
+        <v>149.9298553466797</v>
       </c>
       <c r="AL9" s="1">
-        <v>333.430534362793</v>
+        <v>333.4305114746094</v>
       </c>
     </row>
     <row r="10" spans="1:38">
@@ -64970,7 +64970,7 @@
         <v>0.002846879418939352</v>
       </c>
       <c r="AC10" s="1">
-        <v>0.09400396794080734</v>
+        <v>0.09400396049022675</v>
       </c>
       <c r="AD10" s="1">
         <v>0.04149850457906723</v>
@@ -65202,7 +65202,7 @@
         <v>0.5955268740653992</v>
       </c>
       <c r="AC12" s="1">
-        <v>4.305361270904541</v>
+        <v>4.305360794067383</v>
       </c>
       <c r="AD12" s="1">
         <v>1.512278318405151</v>
@@ -65211,7 +65211,7 @@
         <v>0.04374847933650017</v>
       </c>
       <c r="AF12" s="1">
-        <v>43.12085723876953</v>
+        <v>43.12085342407227</v>
       </c>
       <c r="AG12" s="1">
         <v>33.70932769775391</v>
@@ -65229,7 +65229,7 @@
         <v>126.9309768676758</v>
       </c>
       <c r="AL12" s="1">
-        <v>170.0518341064453</v>
+        <v>170.051830291748</v>
       </c>
     </row>
     <row r="13" spans="1:38">
@@ -65455,13 +65455,13 @@
         <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>24.36643028259277</v>
+        <v>24.36643600463867</v>
       </c>
       <c r="AK14" s="1">
-        <v>99.74668121337891</v>
+        <v>99.7466869354248</v>
       </c>
       <c r="AL14" s="1">
-        <v>111.5971488952637</v>
+        <v>111.5971546173096</v>
       </c>
     </row>
     <row r="15" spans="1:38">
@@ -65472,13 +65472,13 @@
         <v>0.04734418541193008</v>
       </c>
       <c r="C15" s="1">
-        <v>0.009438368491828442</v>
+        <v>0.009438367560505867</v>
       </c>
       <c r="D15" s="1">
-        <v>0.1179036423563957</v>
+        <v>0.1179036349058151</v>
       </c>
       <c r="E15" s="1">
-        <v>0.08082207292318344</v>
+        <v>0.08082206547260284</v>
       </c>
       <c r="F15" s="1">
         <v>0.005149522796273232</v>
@@ -65493,13 +65493,13 @@
         <v>0.1305820345878601</v>
       </c>
       <c r="J15" s="1">
-        <v>0.1421696245670319</v>
+        <v>0.1421696096658707</v>
       </c>
       <c r="K15" s="1">
         <v>0.1220226734876633</v>
       </c>
       <c r="L15" s="1">
-        <v>0.01352790649980307</v>
+        <v>0.01352790556848049</v>
       </c>
       <c r="M15" s="1">
         <v>0.04569273442029953</v>
@@ -65511,22 +65511,22 @@
         <v>2.893567085266113</v>
       </c>
       <c r="P15" s="1">
-        <v>1.018952250480652</v>
+        <v>1.018952131271362</v>
       </c>
       <c r="Q15" s="1">
-        <v>1.43644380569458</v>
+        <v>1.436443686485291</v>
       </c>
       <c r="R15" s="1">
         <v>0.1343960911035538</v>
       </c>
       <c r="S15" s="1">
-        <v>0.3631440699100494</v>
+        <v>0.3631440401077271</v>
       </c>
       <c r="T15" s="1">
-        <v>0.1998901665210724</v>
+        <v>0.1998901516199112</v>
       </c>
       <c r="U15" s="1">
-        <v>0.07861679047346115</v>
+        <v>0.07861678302288055</v>
       </c>
       <c r="V15" s="1">
         <v>0.2325267195701599</v>
@@ -65550,16 +65550,16 @@
         <v>0.3146536946296692</v>
       </c>
       <c r="AC15" s="1">
-        <v>4.168749809265137</v>
+        <v>4.168749332427979</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.4315541088581085</v>
+        <v>0.4315540790557861</v>
       </c>
       <c r="AE15" s="1">
         <v>0</v>
       </c>
       <c r="AF15" s="1">
-        <v>15.86689758300781</v>
+        <v>15.8668966293335</v>
       </c>
       <c r="AG15" s="1">
         <v>21.7835636138916</v>
@@ -65577,7 +65577,7 @@
         <v>31.63867354393005</v>
       </c>
       <c r="AL15" s="1">
-        <v>47.50557112693787</v>
+        <v>47.50557017326355</v>
       </c>
     </row>
     <row r="16" spans="1:38">
@@ -65666,7 +65666,7 @@
         <v>0.3982760012149811</v>
       </c>
       <c r="AC16" s="1">
-        <v>0.7739681601524353</v>
+        <v>0.7739681005477905</v>
       </c>
       <c r="AD16" s="1">
         <v>0.6621419191360474</v>
@@ -65782,7 +65782,7 @@
         <v>0.00026311120018363</v>
       </c>
       <c r="AC17" s="1">
-        <v>0.0002079850091831759</v>
+        <v>0.0002079849946312606</v>
       </c>
       <c r="AD17" s="1">
         <v>0.0001479104539612308</v>
@@ -66014,7 +66014,7 @@
         <v>1.415074586868286</v>
       </c>
       <c r="AC19" s="1">
-        <v>2.638080358505249</v>
+        <v>2.63808012008667</v>
       </c>
       <c r="AD19" s="1">
         <v>1.408736348152161</v>
@@ -66362,7 +66362,7 @@
         <v>0.4062968492507935</v>
       </c>
       <c r="AC22" s="1">
-        <v>0.7843517661094666</v>
+        <v>0.7843517065048218</v>
       </c>
       <c r="AD22" s="1">
         <v>0.2989745438098907</v>
@@ -66710,7 +66710,7 @@
         <v>0.4215255677700043</v>
       </c>
       <c r="AC25" s="1">
-        <v>1.579726219177246</v>
+        <v>1.579726099967957</v>
       </c>
       <c r="AD25" s="1">
         <v>1.184128761291504</v>
@@ -66826,7 +66826,7 @@
         <v>0.3837607502937317</v>
       </c>
       <c r="AC26" s="1">
-        <v>0.8711189031600952</v>
+        <v>0.8711188435554504</v>
       </c>
       <c r="AD26" s="1">
         <v>0.5732808709144592</v>
@@ -66942,7 +66942,7 @@
         <v>0.008953366428613663</v>
       </c>
       <c r="AC27" s="1">
-        <v>0.05436718091368675</v>
+        <v>0.05436717718839645</v>
       </c>
       <c r="AD27" s="1">
         <v>0.01895289123058319</v>
@@ -67058,7 +67058,7 @@
         <v>0.01634688675403595</v>
       </c>
       <c r="AC28" s="1">
-        <v>0.005684434436261654</v>
+        <v>0.005684433970600367</v>
       </c>
       <c r="AD28" s="1">
         <v>0.004203250166028738</v>
@@ -67174,7 +67174,7 @@
         <v>0.0007995699415914714</v>
       </c>
       <c r="AC29" s="1">
-        <v>0.01419217325747013</v>
+        <v>0.01419217232614756</v>
       </c>
       <c r="AD29" s="1">
         <v>6.386833410942927e-05</v>
@@ -67183,7 +67183,7 @@
         <v>0</v>
       </c>
       <c r="AF29" s="1">
-        <v>0.01676981523633003</v>
+        <v>0.01676981337368488</v>
       </c>
       <c r="AG29" s="1">
         <v>0.03919721394777298</v>
@@ -67201,7 +67201,7 @@
         <v>0.1854701595002552</v>
       </c>
       <c r="AL29" s="1">
-        <v>0.2022399747365853</v>
+        <v>0.2022399728739401</v>
       </c>
     </row>
     <row r="30" spans="1:38">
@@ -67290,7 +67290,7 @@
         <v>0.1173707097768784</v>
       </c>
       <c r="AC30" s="1">
-        <v>0.02093156799674034</v>
+        <v>0.02093156613409519</v>
       </c>
       <c r="AD30" s="1">
         <v>0.02532078325748444</v>
@@ -67444,34 +67444,34 @@
         <v>9.373940633647237</v>
       </c>
       <c r="C32" s="1">
-        <v>7.178814226263967</v>
+        <v>7.178814225332644</v>
       </c>
       <c r="D32" s="1">
-        <v>10.64251173234652</v>
+        <v>10.64251172489594</v>
       </c>
       <c r="E32" s="1">
-        <v>17.46158998655665</v>
+        <v>17.46158997910607</v>
       </c>
       <c r="F32" s="1">
         <v>0.5793598565050502</v>
       </c>
       <c r="G32" s="1">
-        <v>18.6978119507221</v>
+        <v>18.69781171230352</v>
       </c>
       <c r="H32" s="1">
-        <v>223.9155937497271</v>
+        <v>223.9155861203326</v>
       </c>
       <c r="I32" s="1">
         <v>88.15433374242457</v>
       </c>
       <c r="J32" s="1">
-        <v>18.43501494452903</v>
+        <v>18.43501469120929</v>
       </c>
       <c r="K32" s="1">
-        <v>35.7315905936257</v>
+        <v>35.73159047441641</v>
       </c>
       <c r="L32" s="1">
-        <v>4.636236715879477</v>
+        <v>4.636236714948154</v>
       </c>
       <c r="M32" s="1">
         <v>16.28557452927515</v>
@@ -67483,25 +67483,25 @@
         <v>21.5320931279166</v>
       </c>
       <c r="P32" s="1">
-        <v>41.30184199479299</v>
+        <v>41.3018418755837</v>
       </c>
       <c r="Q32" s="1">
-        <v>58.95026025229436</v>
+        <v>58.95026013308507</v>
       </c>
       <c r="R32" s="1">
         <v>39.0192448142916</v>
       </c>
       <c r="S32" s="1">
-        <v>31.19129603658075</v>
+        <v>31.19129505310411</v>
       </c>
       <c r="T32" s="1">
-        <v>12.8273006899035</v>
+        <v>12.82730067407101</v>
       </c>
       <c r="U32" s="1">
-        <v>14.07190989340961</v>
+        <v>14.07190988595903</v>
       </c>
       <c r="V32" s="1">
-        <v>6.044091850348195</v>
+        <v>6.044091835447034</v>
       </c>
       <c r="W32" s="1">
         <v>8.94679669571633</v>
@@ -67516,22 +67516,22 @@
         <v>9.367954022667618</v>
       </c>
       <c r="AA32" s="1">
-        <v>27.20914134290069</v>
+        <v>27.20914131309837</v>
       </c>
       <c r="AB32" s="1">
-        <v>7.14596439669549</v>
+        <v>7.145964337090845</v>
       </c>
       <c r="AC32" s="1">
-        <v>35.21172373548325</v>
+        <v>35.21172220856533</v>
       </c>
       <c r="AD32" s="1">
-        <v>11.97508536425448</v>
+        <v>11.97508533445216</v>
       </c>
       <c r="AE32" s="1">
         <v>0.05876792261841501</v>
       </c>
       <c r="AF32" s="1">
-        <v>803.1932279062457</v>
+        <v>803.1932078772224</v>
       </c>
       <c r="AG32" s="1">
         <v>334.3222386868074</v>
@@ -67543,13 +67543,13 @@
         <v>30.01869866030756</v>
       </c>
       <c r="AJ32" s="1">
-        <v>386.6404369631637</v>
+        <v>386.640435055815</v>
       </c>
       <c r="AK32" s="1">
-        <v>890.295835316625</v>
+        <v>890.2958334092764</v>
       </c>
       <c r="AL32" s="1">
-        <v>1693.489063222871</v>
+        <v>1693.489041286499</v>
       </c>
     </row>
   </sheetData>
@@ -67767,7 +67767,7 @@
         <v>0.0952148362994194</v>
       </c>
       <c r="AC2" s="1">
-        <v>0.2266015857458115</v>
+        <v>0.2266015559434891</v>
       </c>
       <c r="AD2" s="1">
         <v>0.008963720872998238</v>
@@ -67883,7 +67883,7 @@
         <v>0.04370751231908798</v>
       </c>
       <c r="AC3" s="1">
-        <v>0.1088432669639587</v>
+        <v>0.1088432520627975</v>
       </c>
       <c r="AD3" s="1">
         <v>0.03770138323307037</v>
@@ -68115,7 +68115,7 @@
         <v>0.4362515211105347</v>
       </c>
       <c r="AC5" s="1">
-        <v>1.055466890335083</v>
+        <v>1.055466651916504</v>
       </c>
       <c r="AD5" s="1">
         <v>0.7684135437011719</v>
@@ -68231,7 +68231,7 @@
         <v>0.1086552292108536</v>
       </c>
       <c r="AC6" s="1">
-        <v>0.9663003087043762</v>
+        <v>0.9663002490997314</v>
       </c>
       <c r="AD6" s="1">
         <v>0.3394457697868347</v>
@@ -68347,7 +68347,7 @@
         <v>0.0125647634267807</v>
       </c>
       <c r="AC7" s="1">
-        <v>0.003228429006412625</v>
+        <v>0.003228428773581982</v>
       </c>
       <c r="AD7" s="1">
         <v>0.0435585044324398</v>
@@ -68463,7 +68463,7 @@
         <v>0.1699042618274689</v>
       </c>
       <c r="AC8" s="1">
-        <v>0.3176033198833466</v>
+        <v>0.3176032900810242</v>
       </c>
       <c r="AD8" s="1">
         <v>0.3269412219524384</v>
@@ -68579,7 +68579,7 @@
         <v>0.5975955724716187</v>
       </c>
       <c r="AC9" s="1">
-        <v>16.98016929626465</v>
+        <v>16.98016738891602</v>
       </c>
       <c r="AD9" s="1">
         <v>2.023925065994263</v>
@@ -68695,7 +68695,7 @@
         <v>0.003064007963985205</v>
       </c>
       <c r="AC10" s="1">
-        <v>0.1057175323367119</v>
+        <v>0.1057175174355507</v>
       </c>
       <c r="AD10" s="1">
         <v>0.05350575968623161</v>
@@ -68811,7 +68811,7 @@
         <v>0.2084535509347916</v>
       </c>
       <c r="AC11" s="1">
-        <v>0.02380558103322983</v>
+        <v>0.02380557917058468</v>
       </c>
       <c r="AD11" s="1">
         <v>0.1853708773851395</v>
@@ -68927,7 +68927,7 @@
         <v>0.6285262107849121</v>
       </c>
       <c r="AC12" s="1">
-        <v>4.747739315032959</v>
+        <v>4.747738361358643</v>
       </c>
       <c r="AD12" s="1">
         <v>1.911831736564636</v>
@@ -69180,13 +69180,13 @@
         <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>7.136645793914795</v>
+        <v>7.136647701263428</v>
       </c>
       <c r="AK14" s="1">
-        <v>80.41747808456421</v>
+        <v>80.41747999191284</v>
       </c>
       <c r="AL14" s="1">
-        <v>91.32518720626831</v>
+        <v>91.32518911361694</v>
       </c>
     </row>
     <row r="15" spans="1:38">
@@ -69197,13 +69197,13 @@
         <v>0.1105308383703232</v>
       </c>
       <c r="C15" s="1">
-        <v>0.02133902907371521</v>
+        <v>0.02133902721107006</v>
       </c>
       <c r="D15" s="1">
-        <v>0.05456709489226341</v>
+        <v>0.05456709116697311</v>
       </c>
       <c r="E15" s="1">
-        <v>0.07964011281728745</v>
+        <v>0.07964010536670685</v>
       </c>
       <c r="F15" s="1">
         <v>0.03389803320169449</v>
@@ -69218,7 +69218,7 @@
         <v>0.07136562466621399</v>
       </c>
       <c r="J15" s="1">
-        <v>0.1080353334546089</v>
+        <v>0.1080353260040283</v>
       </c>
       <c r="K15" s="1">
         <v>0.06871280074119568</v>
@@ -69239,10 +69239,10 @@
         <v>0.6212447881698608</v>
       </c>
       <c r="Q15" s="1">
-        <v>1.297343134880066</v>
+        <v>1.297343015670776</v>
       </c>
       <c r="R15" s="1">
-        <v>0.1096720099449158</v>
+        <v>0.1096720024943352</v>
       </c>
       <c r="S15" s="1">
         <v>0.273962140083313</v>
@@ -69263,10 +69263,10 @@
         <v>0.00245626037940383</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.5285624265670776</v>
+        <v>0.5285623669624329</v>
       </c>
       <c r="Z15" s="1">
-        <v>0.1958589553833008</v>
+        <v>0.1958589404821396</v>
       </c>
       <c r="AA15" s="1">
         <v>0.4591726064682007</v>
@@ -69275,7 +69275,7 @@
         <v>0.3239418864250183</v>
       </c>
       <c r="AC15" s="1">
-        <v>4.483233451843262</v>
+        <v>4.483232975006104</v>
       </c>
       <c r="AD15" s="1">
         <v>0.5321670770645142</v>
@@ -69284,13 +69284,13 @@
         <v>0</v>
       </c>
       <c r="AF15" s="1">
-        <v>11.8861608505249</v>
+        <v>11.88615989685059</v>
       </c>
       <c r="AG15" s="1">
         <v>23.30783462524414</v>
       </c>
       <c r="AH15" s="1">
-        <v>2.031623601913452</v>
+        <v>2.031623363494873</v>
       </c>
       <c r="AI15" s="1">
         <v>0</v>
@@ -69299,10 +69299,10 @@
         <v>1.866918087005615</v>
       </c>
       <c r="AK15" s="1">
-        <v>27.20637631416321</v>
+        <v>27.20637607574463</v>
       </c>
       <c r="AL15" s="1">
-        <v>39.09253716468811</v>
+        <v>39.09253597259521</v>
       </c>
     </row>
     <row r="16" spans="1:38">
@@ -69367,7 +69367,7 @@
         <v>0.4798502027988434</v>
       </c>
       <c r="U16" s="1">
-        <v>0.06993590295314789</v>
+        <v>0.06993589550256729</v>
       </c>
       <c r="V16" s="1">
         <v>0.1206013411283493</v>
@@ -69391,7 +69391,7 @@
         <v>0.4374190270900726</v>
       </c>
       <c r="AC16" s="1">
-        <v>0.8881186246871948</v>
+        <v>0.88811856508255</v>
       </c>
       <c r="AD16" s="1">
         <v>0.871050238609314</v>
@@ -69412,13 +69412,13 @@
         <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>0.584577739238739</v>
+        <v>0.5845777988433838</v>
       </c>
       <c r="AK16" s="1">
-        <v>7.803324401378632</v>
+        <v>7.803324460983276</v>
       </c>
       <c r="AL16" s="1">
-        <v>26.94264477491379</v>
+        <v>26.94264483451843</v>
       </c>
     </row>
     <row r="17" spans="1:38">
@@ -69507,7 +69507,7 @@
         <v>0.0002893332857638597</v>
       </c>
       <c r="AC17" s="1">
-        <v>0.0002389799628872424</v>
+        <v>0.0002389799483353272</v>
       </c>
       <c r="AD17" s="1">
         <v>0.0001948145509231836</v>
@@ -69623,7 +69623,7 @@
         <v>0.1102940291166306</v>
       </c>
       <c r="AC18" s="1">
-        <v>0.1618625968694687</v>
+        <v>0.1618625819683075</v>
       </c>
       <c r="AD18" s="1">
         <v>1.580426335334778</v>
@@ -69739,7 +69739,7 @@
         <v>1.556103229522705</v>
       </c>
       <c r="AC19" s="1">
-        <v>3.031219959259033</v>
+        <v>3.031219720840454</v>
       </c>
       <c r="AD19" s="1">
         <v>1.855462908744812</v>
@@ -69855,7 +69855,7 @@
         <v>0.2732625007629395</v>
       </c>
       <c r="AC20" s="1">
-        <v>0.6444898843765259</v>
+        <v>0.6444898247718811</v>
       </c>
       <c r="AD20" s="1">
         <v>0.1592622399330139</v>
@@ -69864,7 +69864,7 @@
         <v>0</v>
       </c>
       <c r="AF20" s="1">
-        <v>1.841762065887451</v>
+        <v>1.841761827468872</v>
       </c>
       <c r="AG20" s="1">
         <v>5.87764310836792</v>
@@ -69882,7 +69882,7 @@
         <v>5.922421667724848</v>
       </c>
       <c r="AL20" s="1">
-        <v>7.764183733612299</v>
+        <v>7.76418349519372</v>
       </c>
     </row>
     <row r="21" spans="1:38">
@@ -70087,7 +70087,7 @@
         <v>0.4467890560626984</v>
       </c>
       <c r="AC22" s="1">
-        <v>0.9012397527694702</v>
+        <v>0.9012396931648254</v>
       </c>
       <c r="AD22" s="1">
         <v>0.3937827944755554</v>
@@ -70203,7 +70203,7 @@
         <v>0.0001741263986332342</v>
       </c>
       <c r="AC23" s="1">
-        <v>0.0003560121112968773</v>
+        <v>0.0003560120821930468</v>
       </c>
       <c r="AD23" s="1">
         <v>0.0001847278908826411</v>
@@ -70435,7 +70435,7 @@
         <v>0.463535487651825</v>
       </c>
       <c r="AC25" s="1">
-        <v>1.815144896507263</v>
+        <v>1.815144777297974</v>
       </c>
       <c r="AD25" s="1">
         <v>1.559629678726196</v>
@@ -70667,7 +70667,7 @@
         <v>0.009845673106610775</v>
       </c>
       <c r="AC27" s="1">
-        <v>0.0624692477285862</v>
+        <v>0.0624692440032959</v>
       </c>
       <c r="AD27" s="1">
         <v>0.02496307156980038</v>
@@ -70783,7 +70783,7 @@
         <v>0.01797604560852051</v>
       </c>
       <c r="AC28" s="1">
-        <v>0.006531557068228722</v>
+        <v>0.006531556602567434</v>
       </c>
       <c r="AD28" s="1">
         <v>0.00553614879027009</v>
@@ -70792,7 +70792,7 @@
         <v>0</v>
       </c>
       <c r="AF28" s="1">
-        <v>0.04697583988308907</v>
+        <v>0.04697583615779877</v>
       </c>
       <c r="AG28" s="1">
         <v>0.06430197507143021</v>
@@ -70810,7 +70810,7 @@
         <v>0.5120699120889185</v>
       </c>
       <c r="AL28" s="1">
-        <v>0.5590457519720076</v>
+        <v>0.5590457482467173</v>
       </c>
     </row>
     <row r="29" spans="1:38">
@@ -70899,7 +70899,7 @@
         <v>0.0008792563457973301</v>
       </c>
       <c r="AC29" s="1">
-        <v>0.0163071621209383</v>
+        <v>0.01630716025829315</v>
       </c>
       <c r="AD29" s="1">
         <v>8.412171882810071e-05</v>
@@ -70908,7 +70908,7 @@
         <v>0</v>
       </c>
       <c r="AF29" s="1">
-        <v>0.01866676285862923</v>
+        <v>0.01866676099598408</v>
       </c>
       <c r="AG29" s="1">
         <v>0.04481840133666992</v>
@@ -70926,7 +70926,7 @@
         <v>0.2126665123905696</v>
       </c>
       <c r="AL29" s="1">
-        <v>0.2313332752491988</v>
+        <v>0.2313332733865536</v>
       </c>
     </row>
     <row r="30" spans="1:38">
@@ -71015,7 +71015,7 @@
         <v>0.1290722787380219</v>
       </c>
       <c r="AC30" s="1">
-        <v>0.02405311912298203</v>
+        <v>0.02405311726033688</v>
       </c>
       <c r="AD30" s="1">
         <v>0.03335327655076981</v>
@@ -71169,13 +71169,13 @@
         <v>22.68171147567114</v>
       </c>
       <c r="C32" s="1">
-        <v>16.92298079553166</v>
+        <v>16.92298079366901</v>
       </c>
       <c r="D32" s="1">
-        <v>5.195558814645892</v>
+        <v>5.195558810920602</v>
       </c>
       <c r="E32" s="1">
-        <v>18.02374947218595</v>
+        <v>18.02374946473537</v>
       </c>
       <c r="F32" s="1">
         <v>3.923900854262683</v>
@@ -71190,7 +71190,7 @@
         <v>50.13749760064184</v>
       </c>
       <c r="J32" s="1">
-        <v>14.66532604685926</v>
+        <v>14.66532603940868</v>
       </c>
       <c r="K32" s="1">
         <v>21.12650993802617</v>
@@ -71211,10 +71211,10 @@
         <v>26.54496530937604</v>
       </c>
       <c r="Q32" s="1">
-        <v>55.21336040706615</v>
+        <v>55.21336028785686</v>
       </c>
       <c r="R32" s="1">
-        <v>33.73075783470995</v>
+        <v>33.73075782725937</v>
       </c>
       <c r="S32" s="1">
         <v>24.48909019072198</v>
@@ -71223,7 +71223,7 @@
         <v>11.93697869292373</v>
       </c>
       <c r="U32" s="1">
-        <v>10.22371536735955</v>
+        <v>10.22371535990897</v>
       </c>
       <c r="V32" s="1">
         <v>7.088001855354378</v>
@@ -71235,10 +71235,10 @@
         <v>7.363469913061635</v>
       </c>
       <c r="Y32" s="1">
-        <v>19.13772546608516</v>
+        <v>19.13772540648051</v>
       </c>
       <c r="Z32" s="1">
-        <v>6.511242148080782</v>
+        <v>6.511242133179621</v>
       </c>
       <c r="AA32" s="1">
         <v>20.82879628951196</v>
@@ -71247,7 +71247,7 @@
         <v>7.741584997493192</v>
       </c>
       <c r="AC32" s="1">
-        <v>38.81412475891557</v>
+        <v>38.81412047222693</v>
       </c>
       <c r="AD32" s="1">
         <v>15.47972047416988</v>
@@ -71256,25 +71256,25 @@
         <v>0.1631449025528582</v>
       </c>
       <c r="AF32" s="1">
-        <v>536.1429368073586</v>
+        <v>536.1429356096778</v>
       </c>
       <c r="AG32" s="1">
         <v>370.1013627545981</v>
       </c>
       <c r="AH32" s="1">
-        <v>92.44219288550084</v>
+        <v>92.44219264708227</v>
       </c>
       <c r="AI32" s="1">
         <v>33.18406010232866</v>
       </c>
       <c r="AJ32" s="1">
-        <v>113.6741263908953</v>
+        <v>113.6741283578485</v>
       </c>
       <c r="AK32" s="1">
-        <v>609.4017421333228</v>
+        <v>609.4017438618575</v>
       </c>
       <c r="AL32" s="1">
-        <v>1145.544678940681</v>
+        <v>1145.544679471535</v>
       </c>
     </row>
   </sheetData>
